--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12779" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12779" uniqueCount="137">
   <si>
     <t>Sección</t>
   </si>
@@ -414,6 +414,9 @@
     <t>Miles de pesos</t>
   </si>
   <si>
+    <t>312 industria de las bebidas y del tabaco</t>
+  </si>
+  <si>
     <t>Gran_sector</t>
   </si>
   <si>
@@ -89346,7 +89349,7 @@
         <v>39083</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1">
         <v>2276334</v>
@@ -89357,7 +89360,7 @@
         <v>39173</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1">
         <v>2531791</v>
@@ -89368,7 +89371,7 @@
         <v>39264</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1">
         <v>2967361</v>
@@ -89379,7 +89382,7 @@
         <v>39356</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1">
         <v>2569148</v>
@@ -89390,7 +89393,7 @@
         <v>39448</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1">
         <v>2273486</v>
@@ -89401,7 +89404,7 @@
         <v>39539</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1">
         <v>2943458</v>
@@ -89412,7 +89415,7 @@
         <v>39630</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1">
         <v>3274893</v>
@@ -89423,7 +89426,7 @@
         <v>39722</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1">
         <v>2870190</v>
@@ -89434,7 +89437,7 @@
         <v>39814</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1">
         <v>2743862</v>
@@ -89445,7 +89448,7 @@
         <v>39904</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1">
         <v>2941072</v>
@@ -89456,7 +89459,7 @@
         <v>39995</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1">
         <v>2908862</v>
@@ -89467,7 +89470,7 @@
         <v>40087</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1">
         <v>3211458</v>
@@ -89478,7 +89481,7 @@
         <v>40179</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C14" s="1">
         <v>3317179</v>
@@ -89489,7 +89492,7 @@
         <v>40269</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1">
         <v>3514825</v>
@@ -89500,7 +89503,7 @@
         <v>40360</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C16" s="1">
         <v>4131386</v>
@@ -89511,7 +89514,7 @@
         <v>40452</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C17" s="1">
         <v>3953204</v>
@@ -89522,7 +89525,7 @@
         <v>40544</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C18" s="1">
         <v>2690403</v>
@@ -89533,7 +89536,7 @@
         <v>40634</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C19" s="1">
         <v>2703389</v>
@@ -89544,7 +89547,7 @@
         <v>40725</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1">
         <v>2826640</v>
@@ -89555,7 +89558,7 @@
         <v>40817</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1">
         <v>2744532</v>
@@ -89566,7 +89569,7 @@
         <v>40909</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1">
         <v>3029351</v>
@@ -89577,7 +89580,7 @@
         <v>41000</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C23" s="1">
         <v>3421878</v>
@@ -89588,7 +89591,7 @@
         <v>41091</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1">
         <v>3395867</v>
@@ -89599,7 +89602,7 @@
         <v>41183</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C25" s="1">
         <v>3469061</v>
@@ -89610,7 +89613,7 @@
         <v>41275</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C26" s="1">
         <v>2966558</v>
@@ -89621,7 +89624,7 @@
         <v>41365</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1">
         <v>3515759</v>
@@ -89632,7 +89635,7 @@
         <v>41456</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1">
         <v>3739523</v>
@@ -89643,7 +89646,7 @@
         <v>41548</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C29" s="1">
         <v>3588086</v>
@@ -89654,7 +89657,7 @@
         <v>41640</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C30" s="1">
         <v>2606921</v>
@@ -89665,7 +89668,7 @@
         <v>41730</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C31" s="1">
         <v>2580222</v>
@@ -89676,7 +89679,7 @@
         <v>41821</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1">
         <v>2800217</v>
@@ -89687,7 +89690,7 @@
         <v>41913</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C33" s="1">
         <v>2879920</v>
@@ -89698,7 +89701,7 @@
         <v>42005</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1">
         <v>2682012</v>
@@ -89709,7 +89712,7 @@
         <v>42095</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C35" s="1">
         <v>2817138</v>
@@ -89720,7 +89723,7 @@
         <v>42186</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C36" s="1">
         <v>2978464</v>
@@ -89731,7 +89734,7 @@
         <v>42278</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1">
         <v>2961068</v>
@@ -89742,7 +89745,7 @@
         <v>42370</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C38" s="1">
         <v>2440608</v>
@@ -89753,7 +89756,7 @@
         <v>42461</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C39" s="1">
         <v>2576100</v>
@@ -89764,7 +89767,7 @@
         <v>42552</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C40" s="1">
         <v>2650471</v>
@@ -89775,7 +89778,7 @@
         <v>42644</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1">
         <v>1839242</v>
@@ -89786,7 +89789,7 @@
         <v>42736</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C42" s="1">
         <v>2482593</v>
@@ -89797,7 +89800,7 @@
         <v>42826</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1">
         <v>2433231</v>
@@ -89808,7 +89811,7 @@
         <v>42917</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1">
         <v>2605916</v>
@@ -89819,7 +89822,7 @@
         <v>43009</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1">
         <v>3193409</v>
@@ -89830,7 +89833,7 @@
         <v>43101</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1">
         <v>2637708</v>
@@ -89841,7 +89844,7 @@
         <v>43191</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C47" s="1">
         <v>3109392</v>
@@ -89852,7 +89855,7 @@
         <v>43282</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C48" s="1">
         <v>3046680</v>
@@ -89863,7 +89866,7 @@
         <v>43374</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1">
         <v>3392335</v>
@@ -89874,7 +89877,7 @@
         <v>43466</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C50" s="1">
         <v>2738364</v>
@@ -89885,7 +89888,7 @@
         <v>43556</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C51" s="1">
         <v>3140832</v>
@@ -89896,7 +89899,7 @@
         <v>43647</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C52" s="1">
         <v>2895659</v>
@@ -89907,7 +89910,7 @@
         <v>43739</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C53" s="1">
         <v>2858915</v>
@@ -89918,7 +89921,7 @@
         <v>43831</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C54" s="1">
         <v>2737998</v>
@@ -89944,2900 +89947,2900 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2">
         <v>36161</v>
       </c>
       <c r="C2" s="1">
-        <v>25.830188751220703</v>
+        <v>25.830188</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2">
         <v>36251</v>
       </c>
       <c r="C3" s="1">
-        <v>81.291091918945313</v>
+        <v>81.291089999999997</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2">
         <v>36342</v>
       </c>
       <c r="C4" s="1">
-        <v>96.165657043457031</v>
+        <v>96.165655999999998</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2">
         <v>36434</v>
       </c>
       <c r="C5" s="1">
-        <v>87.421722412109375</v>
+        <v>87.421719999999993</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2">
         <v>36526</v>
       </c>
       <c r="C6" s="1">
-        <v>73.656341552734375</v>
+        <v>73.656339000000003</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B7" s="2">
         <v>36617</v>
       </c>
       <c r="C7" s="1">
-        <v>52.150295257568359</v>
+        <v>52.150294000000002</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2">
         <v>36708</v>
       </c>
       <c r="C8" s="1">
-        <v>106.96199035644531</v>
+        <v>106.96198800000001</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2">
         <v>36800</v>
       </c>
       <c r="C9" s="1">
-        <v>55.866531372070313</v>
+        <v>55.866529999999997</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2">
         <v>36892</v>
       </c>
       <c r="C10" s="1">
-        <v>111.04477691650391</v>
+        <v>111.044776</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B11" s="2">
         <v>36982</v>
       </c>
       <c r="C11" s="1">
-        <v>26.406938552856445</v>
+        <v>26.406939000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B12" s="2">
         <v>37073</v>
       </c>
       <c r="C12" s="1">
-        <v>55.853050231933594</v>
+        <v>55.853051000000001</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B13" s="2">
         <v>37165</v>
       </c>
       <c r="C13" s="1">
-        <v>193.65251159667969</v>
+        <v>193.65250900000001</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2">
         <v>37257</v>
       </c>
       <c r="C14" s="1">
-        <v>-6.2241621017456055</v>
+        <v>-6.2241619999999998</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2">
         <v>37347</v>
       </c>
       <c r="C15" s="1">
-        <v>32.163097381591797</v>
+        <v>32.163097</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2">
         <v>37438</v>
       </c>
       <c r="C16" s="1">
-        <v>27.891641616821289</v>
+        <v>27.891642000000001</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2">
         <v>37530</v>
       </c>
       <c r="C17" s="1">
-        <v>19.941930770874023</v>
+        <v>19.941931</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2">
         <v>37622</v>
       </c>
       <c r="C18" s="1">
-        <v>71.769584655761719</v>
+        <v>71.769583999999995</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B19" s="2">
         <v>37712</v>
       </c>
       <c r="C19" s="1">
-        <v>11.460283279418945</v>
+        <v>11.460283</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B20" s="2">
         <v>37803</v>
       </c>
       <c r="C20" s="1">
-        <v>26.810508728027344</v>
+        <v>26.810509</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B21" s="2">
         <v>37895</v>
       </c>
       <c r="C21" s="1">
-        <v>-10.716156959533691</v>
+        <v>-10.716157000000001</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B22" s="2">
         <v>37987</v>
       </c>
       <c r="C22" s="1">
-        <v>34.712982177734375</v>
+        <v>34.712980999999999</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B23" s="2">
         <v>38078</v>
       </c>
       <c r="C23" s="1">
-        <v>68.545219421386719</v>
+        <v>68.545222999999993</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B24" s="2">
         <v>38169</v>
       </c>
       <c r="C24" s="1">
-        <v>-20.971969604492188</v>
+        <v>-20.971969999999999</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B25" s="2">
         <v>38261</v>
       </c>
       <c r="C25" s="1">
-        <v>21.86224365234375</v>
+        <v>21.862244</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B26" s="2">
         <v>38353</v>
       </c>
       <c r="C26" s="1">
-        <v>15.255685806274414</v>
+        <v>15.255686000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B27" s="2">
         <v>38443</v>
       </c>
       <c r="C27" s="1">
-        <v>142.41964721679688</v>
+        <v>142.419645</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B28" s="2">
         <v>38534</v>
       </c>
       <c r="C28" s="1">
-        <v>33.889705657958984</v>
+        <v>33.889707000000001</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B29" s="2">
         <v>38626</v>
       </c>
       <c r="C29" s="1">
-        <v>0.63599401712417603</v>
+        <v>0.63599399999999995</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2">
         <v>38718</v>
       </c>
       <c r="C30" s="1">
-        <v>13.078109741210938</v>
+        <v>13.078110000000001</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B31" s="2">
         <v>38808</v>
       </c>
       <c r="C31" s="1">
-        <v>138.40542602539063</v>
+        <v>138.40542400000001</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B32" s="2">
         <v>38899</v>
       </c>
       <c r="C32" s="1">
-        <v>-17.017171859741211</v>
+        <v>-17.017171000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B33" s="2">
         <v>38991</v>
       </c>
       <c r="C33" s="1">
-        <v>20.382917404174805</v>
+        <v>20.382918</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B34" s="2">
         <v>39083</v>
       </c>
       <c r="C34" s="1">
-        <v>48.069568634033203</v>
+        <v>48.069566999999999</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B35" s="2">
         <v>39173</v>
       </c>
       <c r="C35" s="1">
-        <v>18.610694885253906</v>
+        <v>18.610693999999999</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B36" s="2">
         <v>39264</v>
       </c>
       <c r="C36" s="1">
-        <v>14.284139633178711</v>
+        <v>14.284140000000001</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B37" s="2">
         <v>39356</v>
       </c>
       <c r="C37" s="1">
-        <v>52.699478149414063</v>
+        <v>52.699478999999997</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B38" s="2">
         <v>39448</v>
       </c>
       <c r="C38" s="1">
-        <v>-31.09074592590332</v>
+        <v>-31.090745999999999</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B39" s="2">
         <v>39539</v>
       </c>
       <c r="C39" s="1">
-        <v>42.924930572509766</v>
+        <v>42.924930000000003</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B40" s="2">
         <v>39630</v>
       </c>
       <c r="C40" s="1">
-        <v>-1.8225059509277344</v>
+        <v>-1.822506</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B41" s="2">
         <v>39722</v>
       </c>
       <c r="C41" s="1">
-        <v>136.43666076660156</v>
+        <v>136.43665899999999</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B42" s="2">
         <v>39814</v>
       </c>
       <c r="C42" s="1">
-        <v>150.62429809570313</v>
+        <v>150.62429499999999</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B43" s="2">
         <v>39904</v>
       </c>
       <c r="C43" s="1">
-        <v>90.918205261230469</v>
+        <v>90.918205</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B44" s="2">
         <v>39995</v>
       </c>
       <c r="C44" s="1">
-        <v>113.11171722412109</v>
+        <v>113.11171400000001</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B45" s="2">
         <v>40087</v>
       </c>
       <c r="C45" s="1">
-        <v>-167.77131652832031</v>
+        <v>-167.771311</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B46" s="2">
         <v>40179</v>
       </c>
       <c r="C46" s="1">
-        <v>38.356918334960938</v>
+        <v>38.356920000000002</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B47" s="2">
         <v>40269</v>
       </c>
       <c r="C47" s="1">
-        <v>88.073936462402344</v>
+        <v>88.073937000000001</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B48" s="2">
         <v>40360</v>
       </c>
       <c r="C48" s="1">
-        <v>241.55914306640625</v>
+        <v>241.55914000000001</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B49" s="2">
         <v>40452</v>
       </c>
       <c r="C49" s="1">
-        <v>55.225391387939453</v>
+        <v>55.225392130000003</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B50" s="2">
         <v>40544</v>
       </c>
       <c r="C50" s="1">
-        <v>25.332748413085938</v>
+        <v>25.332747999999999</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B51" s="2">
         <v>40634</v>
       </c>
       <c r="C51" s="1">
-        <v>107.217529296875</v>
+        <v>107.21753099999999</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B52" s="2">
         <v>40725</v>
       </c>
       <c r="C52" s="1">
-        <v>-71.34027099609375</v>
+        <v>-71.340270000000004</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B53" s="2">
         <v>40817</v>
       </c>
       <c r="C53" s="1">
-        <v>30.663326263427734</v>
+        <v>30.663326000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B54" s="2">
         <v>40909</v>
       </c>
       <c r="C54" s="1">
-        <v>42.988235473632813</v>
+        <v>42.988233889999997</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B55" s="2">
         <v>41000</v>
       </c>
       <c r="C55" s="1">
-        <v>34.485553741455078</v>
+        <v>34.485554370000003</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B56" s="2">
         <v>41091</v>
       </c>
       <c r="C56" s="1">
-        <v>22.484315872192383</v>
+        <v>22.484316629999999</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B57" s="2">
         <v>41183</v>
       </c>
       <c r="C57" s="1">
-        <v>40.756137847900391</v>
+        <v>40.756138999999997</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B58" s="2">
         <v>41275</v>
       </c>
       <c r="C58" s="1">
-        <v>90.50689697265625</v>
+        <v>90.506898419999999</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B59" s="2">
         <v>41365</v>
       </c>
       <c r="C59" s="1">
-        <v>75.493293762207031</v>
+        <v>75.493291350000007</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2">
         <v>41456</v>
       </c>
       <c r="C60" s="1">
-        <v>100.88613891601563</v>
+        <v>100.8861387</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B61" s="2">
         <v>41548</v>
       </c>
       <c r="C61" s="1">
-        <v>41.759128570556641</v>
+        <v>41.759126899999998</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2">
         <v>41640</v>
       </c>
       <c r="C62" s="1">
-        <v>49.412750244140625</v>
+        <v>49.412751919999998</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2">
         <v>41730</v>
       </c>
       <c r="C63" s="1">
-        <v>-168.96485900878906</v>
+        <v>-168.96485659999999</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2">
         <v>41821</v>
       </c>
       <c r="C64" s="1">
-        <v>53.302173614501953</v>
+        <v>53.302174739999998</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2">
         <v>41913</v>
       </c>
       <c r="C65" s="1">
-        <v>105.52878570556641</v>
+        <v>105.5287831</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2">
         <v>42005</v>
       </c>
       <c r="C66" s="1">
-        <v>38.488418579101563</v>
+        <v>38.48841711</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2">
         <v>42095</v>
       </c>
       <c r="C67" s="1">
-        <v>20.930662155151367</v>
+        <v>20.930662000000002</v>
       </c>
       <c r="D67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2">
         <v>42186</v>
       </c>
       <c r="C68" s="1">
-        <v>34.547607421875</v>
+        <v>34.547607999999997</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2">
         <v>42278</v>
       </c>
       <c r="C69" s="1">
-        <v>39.132633209228516</v>
+        <v>39.132633609999999</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2">
         <v>42370</v>
       </c>
       <c r="C70" s="1">
-        <v>154.73855590820313</v>
+        <v>154.73856050000001</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2">
         <v>42461</v>
       </c>
       <c r="C71" s="1">
-        <v>147.73118591308594</v>
+        <v>147.7311871</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2">
         <v>42552</v>
       </c>
       <c r="C72" s="1">
-        <v>-21.994932174682617</v>
+        <v>-21.99493258</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2">
         <v>42644</v>
       </c>
       <c r="C73" s="1">
-        <v>-18.077537536621094</v>
+        <v>-18.07753808</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2">
         <v>42736</v>
       </c>
       <c r="C74" s="1">
-        <v>24.114299774169922</v>
+        <v>24.114299689999999</v>
       </c>
       <c r="D74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2">
         <v>42826</v>
       </c>
       <c r="C75" s="1">
-        <v>1.247529149055481</v>
+        <v>1.24752912</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2">
         <v>42917</v>
       </c>
       <c r="C76" s="1">
-        <v>12.8519287109375</v>
+        <v>12.851929030000001</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2">
         <v>43009</v>
       </c>
       <c r="C77" s="1">
-        <v>47.647476196289063</v>
+        <v>47.647475149999998</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2">
         <v>43101</v>
       </c>
       <c r="C78" s="1">
-        <v>106.47428894042969</v>
+        <v>106.47428619999999</v>
       </c>
       <c r="D78" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E78" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2">
         <v>43191</v>
       </c>
       <c r="C79" s="1">
-        <v>37.724342346191406</v>
+        <v>37.724342630000002</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2">
         <v>43282</v>
       </c>
       <c r="C80" s="1">
-        <v>-11.79847526550293</v>
+        <v>-11.798475</v>
       </c>
       <c r="D80" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E80" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2">
         <v>43374</v>
       </c>
       <c r="C81" s="1">
-        <v>78.531761169433594</v>
+        <v>78.531758300000007</v>
       </c>
       <c r="D81" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E81" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2">
         <v>43466</v>
       </c>
       <c r="C82" s="1">
-        <v>68.950920104980469</v>
+        <v>68.950922109999993</v>
       </c>
       <c r="D82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2">
         <v>43556</v>
       </c>
       <c r="C83" s="1">
-        <v>48.503738403320313</v>
+        <v>48.503736510000003</v>
       </c>
       <c r="D83" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E83" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2">
         <v>43647</v>
       </c>
       <c r="C84" s="1">
-        <v>16.188562393188477</v>
+        <v>16.188561809999999</v>
       </c>
       <c r="D84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2">
         <v>43739</v>
       </c>
       <c r="C85" s="1">
-        <v>6.7639555931091309</v>
+        <v>6.7639555800000002</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2">
         <v>43831</v>
       </c>
       <c r="C86" s="1">
-        <v>79.203453063964844</v>
+        <v>79.203450309999994</v>
       </c>
       <c r="D86" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E86" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2">
         <v>36161</v>
       </c>
       <c r="C87" s="1">
-        <v>25.830188751220703</v>
+        <v>25.830188</v>
       </c>
       <c r="D87" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2">
         <v>36251</v>
       </c>
       <c r="C88" s="1">
-        <v>81.291091918945313</v>
+        <v>81.291089999999997</v>
       </c>
       <c r="D88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E88" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2">
         <v>36342</v>
       </c>
       <c r="C89" s="1">
-        <v>96.165657043457031</v>
+        <v>96.165655999999998</v>
       </c>
       <c r="D89" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E89" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2">
         <v>36434</v>
       </c>
       <c r="C90" s="1">
-        <v>87.421722412109375</v>
+        <v>87.421719999999993</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E90" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2">
         <v>36526</v>
       </c>
       <c r="C91" s="1">
-        <v>73.656341552734375</v>
+        <v>73.656339000000003</v>
       </c>
       <c r="D91" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E91" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2">
         <v>36617</v>
       </c>
       <c r="C92" s="1">
-        <v>52.150295257568359</v>
+        <v>52.150294000000002</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E92" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2">
         <v>36708</v>
       </c>
       <c r="C93" s="1">
-        <v>106.96199035644531</v>
+        <v>106.96198800000001</v>
       </c>
       <c r="D93" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E93" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2">
         <v>36800</v>
       </c>
       <c r="C94" s="1">
-        <v>55.866531372070313</v>
+        <v>55.866529999999997</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2">
         <v>36892</v>
       </c>
       <c r="C95" s="1">
-        <v>111.04477691650391</v>
+        <v>111.044776</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E95" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2">
         <v>36982</v>
       </c>
       <c r="C96" s="1">
-        <v>26.406938552856445</v>
+        <v>26.406939000000001</v>
       </c>
       <c r="D96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E96" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2">
         <v>37073</v>
       </c>
       <c r="C97" s="1">
-        <v>55.853050231933594</v>
+        <v>55.853051000000001</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E97" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2">
         <v>37165</v>
       </c>
       <c r="C98" s="1">
-        <v>193.65251159667969</v>
+        <v>193.65250900000001</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E98" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2">
         <v>37257</v>
       </c>
       <c r="C99" s="1">
-        <v>-6.2241621017456055</v>
+        <v>-6.2241619999999998</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2">
         <v>37347</v>
       </c>
       <c r="C100" s="1">
-        <v>32.163097381591797</v>
+        <v>32.163097</v>
       </c>
       <c r="D100" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E100" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2">
         <v>37438</v>
       </c>
       <c r="C101" s="1">
-        <v>27.891641616821289</v>
+        <v>27.891642000000001</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E101" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2">
         <v>37530</v>
       </c>
       <c r="C102" s="1">
-        <v>19.941930770874023</v>
+        <v>19.941931</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2">
         <v>37622</v>
       </c>
       <c r="C103" s="1">
-        <v>71.769584655761719</v>
+        <v>71.769583999999995</v>
       </c>
       <c r="D103" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E103" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2">
         <v>37712</v>
       </c>
       <c r="C104" s="1">
-        <v>11.460283279418945</v>
+        <v>11.460283</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2">
         <v>37803</v>
       </c>
       <c r="C105" s="1">
-        <v>26.810508728027344</v>
+        <v>26.810509</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E105" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2">
         <v>37895</v>
       </c>
       <c r="C106" s="1">
-        <v>-10.716156959533691</v>
+        <v>-10.716157000000001</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E106" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2">
         <v>37987</v>
       </c>
       <c r="C107" s="1">
-        <v>34.712982177734375</v>
+        <v>34.712980999999999</v>
       </c>
       <c r="D107" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E107" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2">
         <v>38078</v>
       </c>
       <c r="C108" s="1">
-        <v>68.545219421386719</v>
+        <v>68.545222999999993</v>
       </c>
       <c r="D108" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E108" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2">
         <v>38169</v>
       </c>
       <c r="C109" s="1">
-        <v>-20.971969604492188</v>
+        <v>-20.971969999999999</v>
       </c>
       <c r="D109" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E109" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2">
         <v>38261</v>
       </c>
       <c r="C110" s="1">
-        <v>21.86224365234375</v>
+        <v>21.862244</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E110" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2">
         <v>38353</v>
       </c>
       <c r="C111" s="1">
-        <v>15.255685806274414</v>
+        <v>15.255686000000001</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E111" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2">
         <v>38443</v>
       </c>
       <c r="C112" s="1">
-        <v>142.41964721679688</v>
+        <v>142.419645</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E112" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2">
         <v>38534</v>
       </c>
       <c r="C113" s="1">
-        <v>33.889705657958984</v>
+        <v>33.889707000000001</v>
       </c>
       <c r="D113" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E113" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2">
         <v>38626</v>
       </c>
       <c r="C114" s="1">
-        <v>0.63599401712417603</v>
+        <v>0.63599399999999995</v>
       </c>
       <c r="D114" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2">
         <v>38718</v>
       </c>
       <c r="C115" s="1">
-        <v>13.078109741210938</v>
+        <v>13.078110000000001</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E115" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2">
         <v>38808</v>
       </c>
       <c r="C116" s="1">
-        <v>138.40542602539063</v>
+        <v>138.40542400000001</v>
       </c>
       <c r="D116" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E116" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2">
         <v>38899</v>
       </c>
       <c r="C117" s="1">
-        <v>-17.017171859741211</v>
+        <v>-17.017171000000001</v>
       </c>
       <c r="D117" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E117" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2">
         <v>38991</v>
       </c>
       <c r="C118" s="1">
-        <v>20.382917404174805</v>
+        <v>20.382918</v>
       </c>
       <c r="D118" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E118" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2">
         <v>39083</v>
       </c>
       <c r="C119" s="1">
-        <v>48.069568634033203</v>
+        <v>48.069566999999999</v>
       </c>
       <c r="D119" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E119" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2">
         <v>39173</v>
       </c>
       <c r="C120" s="1">
-        <v>18.610694885253906</v>
+        <v>18.610693999999999</v>
       </c>
       <c r="D120" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E120" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2">
         <v>39264</v>
       </c>
       <c r="C121" s="1">
-        <v>14.284139633178711</v>
+        <v>14.284140000000001</v>
       </c>
       <c r="D121" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E121" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2">
         <v>39356</v>
       </c>
       <c r="C122" s="1">
-        <v>52.699478149414063</v>
+        <v>52.699478999999997</v>
       </c>
       <c r="D122" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E122" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2">
         <v>39448</v>
       </c>
       <c r="C123" s="1">
-        <v>-31.09074592590332</v>
+        <v>-31.090745999999999</v>
       </c>
       <c r="D123" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E123" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2">
         <v>39539</v>
       </c>
       <c r="C124" s="1">
-        <v>42.924930572509766</v>
+        <v>42.924930000000003</v>
       </c>
       <c r="D124" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E124" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2">
         <v>39630</v>
       </c>
       <c r="C125" s="1">
-        <v>-1.8225059509277344</v>
+        <v>-1.822506</v>
       </c>
       <c r="D125" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2">
         <v>39722</v>
       </c>
       <c r="C126" s="1">
-        <v>136.43666076660156</v>
+        <v>136.43665899999999</v>
       </c>
       <c r="D126" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E126" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2">
         <v>39814</v>
       </c>
       <c r="C127" s="1">
-        <v>150.62429809570313</v>
+        <v>150.62429499999999</v>
       </c>
       <c r="D127" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E127" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2">
         <v>39904</v>
       </c>
       <c r="C128" s="1">
-        <v>90.918205261230469</v>
+        <v>90.918205</v>
       </c>
       <c r="D128" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E128" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2">
         <v>39995</v>
       </c>
       <c r="C129" s="1">
-        <v>113.11171722412109</v>
+        <v>113.11171400000001</v>
       </c>
       <c r="D129" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2">
         <v>40087</v>
       </c>
       <c r="C130" s="1">
-        <v>-167.77131652832031</v>
+        <v>-167.771311</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2">
         <v>40179</v>
       </c>
       <c r="C131" s="1">
-        <v>38.356918334960938</v>
+        <v>38.356920000000002</v>
       </c>
       <c r="D131" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E131" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2">
         <v>40269</v>
       </c>
       <c r="C132" s="1">
-        <v>88.073936462402344</v>
+        <v>88.073937000000001</v>
       </c>
       <c r="D132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2">
         <v>40360</v>
       </c>
       <c r="C133" s="1">
-        <v>241.55914306640625</v>
+        <v>241.55914000000001</v>
       </c>
       <c r="D133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E133" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2">
         <v>40452</v>
       </c>
       <c r="C134" s="1">
-        <v>55.225391387939453</v>
+        <v>55.225392130000003</v>
       </c>
       <c r="D134" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2">
         <v>40544</v>
       </c>
       <c r="C135" s="1">
-        <v>25.332748413085938</v>
+        <v>25.332747999999999</v>
       </c>
       <c r="D135" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2">
         <v>40634</v>
       </c>
       <c r="C136" s="1">
-        <v>107.217529296875</v>
+        <v>107.21753099999999</v>
       </c>
       <c r="D136" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B137" s="2">
         <v>40725</v>
       </c>
       <c r="C137" s="1">
-        <v>-71.34027099609375</v>
+        <v>-71.340270000000004</v>
       </c>
       <c r="D137" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E137" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2">
         <v>40817</v>
       </c>
       <c r="C138" s="1">
-        <v>30.663326263427734</v>
+        <v>30.663326000000001</v>
       </c>
       <c r="D138" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E138" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2">
         <v>40909</v>
       </c>
       <c r="C139" s="1">
-        <v>42.988235473632813</v>
+        <v>42.988233889999997</v>
       </c>
       <c r="D139" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E139" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2">
         <v>41000</v>
       </c>
       <c r="C140" s="1">
-        <v>34.485553741455078</v>
+        <v>34.485554370000003</v>
       </c>
       <c r="D140" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E140" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2">
         <v>41091</v>
       </c>
       <c r="C141" s="1">
-        <v>22.484315872192383</v>
+        <v>22.484316629999999</v>
       </c>
       <c r="D141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E141" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2">
         <v>41183</v>
       </c>
       <c r="C142" s="1">
-        <v>40.756137847900391</v>
+        <v>40.756138999999997</v>
       </c>
       <c r="D142" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E142" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2">
         <v>41275</v>
       </c>
       <c r="C143" s="1">
-        <v>90.50689697265625</v>
+        <v>90.506898419999999</v>
       </c>
       <c r="D143" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E143" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2">
         <v>41365</v>
       </c>
       <c r="C144" s="1">
-        <v>75.493293762207031</v>
+        <v>75.493291350000007</v>
       </c>
       <c r="D144" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E144" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2">
         <v>41456</v>
       </c>
       <c r="C145" s="1">
-        <v>100.88613891601563</v>
+        <v>100.8861387</v>
       </c>
       <c r="D145" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E145" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2">
         <v>41548</v>
       </c>
       <c r="C146" s="1">
-        <v>41.759128570556641</v>
+        <v>41.759126899999998</v>
       </c>
       <c r="D146" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E146" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2">
         <v>41640</v>
       </c>
       <c r="C147" s="1">
-        <v>49.412750244140625</v>
+        <v>49.412751919999998</v>
       </c>
       <c r="D147" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E147" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B148" s="2">
         <v>41730</v>
       </c>
       <c r="C148" s="1">
-        <v>-168.96485900878906</v>
+        <v>-168.96485659999999</v>
       </c>
       <c r="D148" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E148" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B149" s="2">
         <v>41821</v>
       </c>
       <c r="C149" s="1">
-        <v>53.302173614501953</v>
+        <v>53.302174739999998</v>
       </c>
       <c r="D149" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E149" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B150" s="2">
         <v>41913</v>
       </c>
       <c r="C150" s="1">
-        <v>105.52878570556641</v>
+        <v>105.5287831</v>
       </c>
       <c r="D150" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E150" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B151" s="2">
         <v>42005</v>
       </c>
       <c r="C151" s="1">
-        <v>38.488418579101563</v>
+        <v>38.48841711</v>
       </c>
       <c r="D151" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E151" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B152" s="2">
         <v>42095</v>
       </c>
       <c r="C152" s="1">
-        <v>20.930662155151367</v>
+        <v>20.930662000000002</v>
       </c>
       <c r="D152" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E152" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B153" s="2">
         <v>42186</v>
       </c>
       <c r="C153" s="1">
-        <v>34.547607421875</v>
+        <v>34.547607999999997</v>
       </c>
       <c r="D153" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E153" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B154" s="2">
         <v>42278</v>
       </c>
       <c r="C154" s="1">
-        <v>39.132633209228516</v>
+        <v>39.132633609999999</v>
       </c>
       <c r="D154" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E154" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B155" s="2">
         <v>42370</v>
       </c>
       <c r="C155" s="1">
-        <v>154.73855590820313</v>
+        <v>154.73856050000001</v>
       </c>
       <c r="D155" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E155" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B156" s="2">
         <v>42461</v>
       </c>
       <c r="C156" s="1">
-        <v>147.73118591308594</v>
+        <v>147.7311871</v>
       </c>
       <c r="D156" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E156" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B157" s="2">
         <v>42552</v>
       </c>
       <c r="C157" s="1">
-        <v>-21.994932174682617</v>
+        <v>-21.99493258</v>
       </c>
       <c r="D157" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E157" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B158" s="2">
         <v>42644</v>
       </c>
       <c r="C158" s="1">
-        <v>-18.077537536621094</v>
+        <v>-18.07753808</v>
       </c>
       <c r="D158" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E158" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B159" s="2">
         <v>42736</v>
       </c>
       <c r="C159" s="1">
-        <v>-17.698148727416992</v>
+        <v>-17.698147989999999</v>
       </c>
       <c r="D159" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E159" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B160" s="2">
         <v>42826</v>
       </c>
       <c r="C160" s="1">
-        <v>11.193114280700684</v>
+        <v>11.193113840000001</v>
       </c>
       <c r="D160" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E160" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B161" s="2">
         <v>42917</v>
       </c>
       <c r="C161" s="1">
-        <v>8.8968667984008789</v>
+        <v>8.8968669699999996</v>
       </c>
       <c r="D161" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E161" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B162" s="2">
         <v>43009</v>
       </c>
       <c r="C162" s="1">
-        <v>44.0562744140625</v>
+        <v>44.056273959999999</v>
       </c>
       <c r="D162" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E162" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B163" s="2">
         <v>43101</v>
       </c>
       <c r="C163" s="1">
-        <v>110.99698638916016</v>
+        <v>110.99698739999999</v>
       </c>
       <c r="D163" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E163" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B164" s="2">
         <v>43191</v>
       </c>
       <c r="C164" s="1">
-        <v>49.795635223388672</v>
+        <v>49.795634700000001</v>
       </c>
       <c r="D164" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E164" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B165" s="2">
         <v>43282</v>
       </c>
       <c r="C165" s="1">
-        <v>-18.52899169921875</v>
+        <v>-18.528992550000002</v>
       </c>
       <c r="D165" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E165" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B166" s="2">
         <v>43374</v>
       </c>
       <c r="C166" s="1">
-        <v>95.989120483398438</v>
+        <v>95.98911914</v>
       </c>
       <c r="D166" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E166" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B167" s="2">
         <v>43466</v>
       </c>
       <c r="C167" s="1">
-        <v>74.793128967285156</v>
+        <v>74.793132549999996</v>
       </c>
       <c r="D167" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E167" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B168" s="2">
         <v>43556</v>
       </c>
       <c r="C168" s="1">
-        <v>24.284540176391602</v>
+        <v>24.28454056</v>
       </c>
       <c r="D168" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E168" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B169" s="2">
         <v>43647</v>
       </c>
       <c r="C169" s="1">
-        <v>19.350122451782227</v>
+        <v>19.350123150000002</v>
       </c>
       <c r="D169" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E169" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B170" s="2">
         <v>43739</v>
       </c>
       <c r="C170" s="1">
-        <v>6.7639555931091309</v>
+        <v>6.7639555800000002</v>
       </c>
       <c r="D170" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E170" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B171" s="2">
         <v>43831</v>
       </c>
       <c r="C171" s="1">
-        <v>79.203453063964844</v>
+        <v>79.203450309999994</v>
       </c>
       <c r="D171" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E171" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -79810,7 +79810,7 @@
         <v>253</v>
       </c>
       <c r="D93" s="1">
-        <v>209.81019615506753</v>
+        <v>209.81019592285156</v>
       </c>
       <c r="E93" t="s">
         <v>263</v>
@@ -79827,7 +79827,7 @@
         <v>253</v>
       </c>
       <c r="D94" s="1">
-        <v>212.99567142643912</v>
+        <v>212.99566650390625</v>
       </c>
       <c r="E94" t="s">
         <v>263</v>
@@ -79844,7 +79844,7 @@
         <v>253</v>
       </c>
       <c r="D95" s="1">
-        <v>215.63896122512364</v>
+        <v>215.63896179199219</v>
       </c>
       <c r="E95" t="s">
         <v>263</v>
@@ -79861,7 +79861,7 @@
         <v>253</v>
       </c>
       <c r="D96" s="1">
-        <v>213.81555326838841</v>
+        <v>213.8155517578125</v>
       </c>
       <c r="E96" t="s">
         <v>263</v>
@@ -79878,7 +79878,7 @@
         <v>253</v>
       </c>
       <c r="D97" s="1">
-        <v>211.60015694601518</v>
+        <v>211.60015869140625</v>
       </c>
       <c r="E97" t="s">
         <v>263</v>
@@ -79895,7 +79895,7 @@
         <v>253</v>
       </c>
       <c r="D98" s="1">
-        <v>201.62594322673374</v>
+        <v>201.62594604492188</v>
       </c>
       <c r="E98" t="s">
         <v>263</v>
@@ -79912,7 +79912,7 @@
         <v>253</v>
       </c>
       <c r="D99" s="1">
-        <v>207.92778828839096</v>
+        <v>207.92779541015625</v>
       </c>
       <c r="E99" t="s">
         <v>263</v>
@@ -79929,7 +79929,7 @@
         <v>253</v>
       </c>
       <c r="D100" s="1">
-        <v>205.18804416120636</v>
+        <v>205.18804931640625</v>
       </c>
       <c r="E100" t="s">
         <v>263</v>
@@ -79946,7 +79946,7 @@
         <v>253</v>
       </c>
       <c r="D101" s="1">
-        <v>208.66676026018999</v>
+        <v>208.66676330566406</v>
       </c>
       <c r="E101" t="s">
         <v>263</v>
@@ -79963,7 +79963,7 @@
         <v>253</v>
       </c>
       <c r="D102" s="1">
-        <v>226.69557884592217</v>
+        <v>226.69557189941406</v>
       </c>
       <c r="E102" t="s">
         <v>263</v>
@@ -79980,7 +79980,7 @@
         <v>253</v>
       </c>
       <c r="D103" s="1">
-        <v>206.63742978220165</v>
+        <v>206.63743591308594</v>
       </c>
       <c r="E103" t="s">
         <v>263</v>
@@ -79997,7 +79997,7 @@
         <v>253</v>
       </c>
       <c r="D104" s="1">
-        <v>214.36065093810234</v>
+        <v>214.36065673828125</v>
       </c>
       <c r="E104" t="s">
         <v>263</v>
@@ -80014,7 +80014,7 @@
         <v>253</v>
       </c>
       <c r="D105" s="1">
-        <v>216.80555555555554</v>
+        <v>216.80555725097656</v>
       </c>
       <c r="E105" t="s">
         <v>263</v>
@@ -80031,7 +80031,7 @@
         <v>253</v>
       </c>
       <c r="D106" s="1">
-        <v>206.079424742605</v>
+        <v>206.07942199707031</v>
       </c>
       <c r="E106" t="s">
         <v>263</v>
@@ -80048,7 +80048,7 @@
         <v>253</v>
       </c>
       <c r="D107" s="1">
-        <v>219.21907769163701</v>
+        <v>219.21907043457031</v>
       </c>
       <c r="E107" t="s">
         <v>263</v>
@@ -80065,7 +80065,7 @@
         <v>253</v>
       </c>
       <c r="D108" s="1">
-        <v>212.70606197962641</v>
+        <v>212.7060546875</v>
       </c>
       <c r="E108" t="s">
         <v>263</v>
@@ -80082,7 +80082,7 @@
         <v>253</v>
       </c>
       <c r="D109" s="1">
-        <v>220.02563128915892</v>
+        <v>220.025634765625</v>
       </c>
       <c r="E109" t="s">
         <v>263</v>
@@ -80099,7 +80099,7 @@
         <v>253</v>
       </c>
       <c r="D110" s="1">
-        <v>214.00202110408685</v>
+        <v>214.00201416015625</v>
       </c>
       <c r="E110" t="s">
         <v>263</v>
@@ -80116,7 +80116,7 @@
         <v>253</v>
       </c>
       <c r="D111" s="1">
-        <v>221.28898327328258</v>
+        <v>221.28898620605469</v>
       </c>
       <c r="E111" t="s">
         <v>263</v>
@@ -80133,7 +80133,7 @@
         <v>253</v>
       </c>
       <c r="D112" s="1">
-        <v>217.77427505157507</v>
+        <v>217.77427673339844</v>
       </c>
       <c r="E112" t="s">
         <v>263</v>
@@ -80150,7 +80150,7 @@
         <v>253</v>
       </c>
       <c r="D113" s="1">
-        <v>212.17561612534683</v>
+        <v>212.17561340332031</v>
       </c>
       <c r="E113" t="s">
         <v>263</v>
@@ -80167,7 +80167,7 @@
         <v>253</v>
       </c>
       <c r="D114" s="1">
-        <v>224.77843169182813</v>
+        <v>224.77842712402344</v>
       </c>
       <c r="E114" t="s">
         <v>263</v>
@@ -80184,7 +80184,7 @@
         <v>253</v>
       </c>
       <c r="D115" s="1">
-        <v>199.54565272264165</v>
+        <v>199.545654296875</v>
       </c>
       <c r="E115" t="s">
         <v>263</v>
@@ -80201,7 +80201,7 @@
         <v>253</v>
       </c>
       <c r="D116" s="1">
-        <v>216.88884738402635</v>
+        <v>216.88885498046875</v>
       </c>
       <c r="E116" t="s">
         <v>263</v>
@@ -80218,7 +80218,7 @@
         <v>253</v>
       </c>
       <c r="D117" s="1">
-        <v>222.66363527581669</v>
+        <v>222.66363525390625</v>
       </c>
       <c r="E117" t="s">
         <v>263</v>
@@ -80235,7 +80235,7 @@
         <v>253</v>
       </c>
       <c r="D118" s="1">
-        <v>207.1587404059967</v>
+        <v>207.15873718261719</v>
       </c>
       <c r="E118" t="s">
         <v>263</v>
@@ -80252,7 +80252,7 @@
         <v>253</v>
       </c>
       <c r="D119" s="1">
-        <v>219.00914310014883</v>
+        <v>219.00914001464844</v>
       </c>
       <c r="E119" t="s">
         <v>263</v>
@@ -80269,7 +80269,7 @@
         <v>253</v>
       </c>
       <c r="D120" s="1">
-        <v>220.27581950675307</v>
+        <v>220.27581787109375</v>
       </c>
       <c r="E120" t="s">
         <v>263</v>
@@ -80286,7 +80286,7 @@
         <v>253</v>
       </c>
       <c r="D121" s="1">
-        <v>214.81221481221482</v>
+        <v>214.81221008300781</v>
       </c>
       <c r="E121" t="s">
         <v>263</v>
@@ -80303,7 +80303,7 @@
         <v>253</v>
       </c>
       <c r="D122" s="1">
-        <v>219.33680485110796</v>
+        <v>219.33680725097656</v>
       </c>
       <c r="E122" t="s">
         <v>263</v>
@@ -80320,7 +80320,7 @@
         <v>253</v>
       </c>
       <c r="D123" s="1">
-        <v>224.15242984863238</v>
+        <v>224.15243530273438</v>
       </c>
       <c r="E123" t="s">
         <v>263</v>
@@ -80337,7 +80337,7 @@
         <v>253</v>
       </c>
       <c r="D124" s="1">
-        <v>216.20715849680505</v>
+        <v>216.2071533203125</v>
       </c>
       <c r="E124" t="s">
         <v>263</v>
@@ -80354,7 +80354,7 @@
         <v>253</v>
       </c>
       <c r="D125" s="1">
-        <v>216.04428472578738</v>
+        <v>216.04428100585938</v>
       </c>
       <c r="E125" t="s">
         <v>263</v>
@@ -80371,7 +80371,7 @@
         <v>253</v>
       </c>
       <c r="D126" s="1">
-        <v>224.10791993037424</v>
+        <v>224.10792541503906</v>
       </c>
       <c r="E126" t="s">
         <v>263</v>
@@ -80388,7 +80388,7 @@
         <v>253</v>
       </c>
       <c r="D127" s="1">
-        <v>211.42608884544367</v>
+        <v>211.42608642578125</v>
       </c>
       <c r="E127" t="s">
         <v>263</v>
@@ -80405,7 +80405,7 @@
         <v>253</v>
       </c>
       <c r="D128" s="1">
-        <v>221.2157017198372</v>
+        <v>221.2156982421875</v>
       </c>
       <c r="E128" t="s">
         <v>263</v>
@@ -80422,7 +80422,7 @@
         <v>253</v>
       </c>
       <c r="D129" s="1">
-        <v>204.35633871757219</v>
+        <v>204.35633850097656</v>
       </c>
       <c r="E129" t="s">
         <v>263</v>
@@ -80439,7 +80439,7 @@
         <v>253</v>
       </c>
       <c r="D130" s="1">
-        <v>204.95655258024473</v>
+        <v>204.95655822753906</v>
       </c>
       <c r="E130" t="s">
         <v>263</v>
@@ -80456,7 +80456,7 @@
         <v>253</v>
       </c>
       <c r="D131" s="1">
-        <v>209.14612519950344</v>
+        <v>209.1461181640625</v>
       </c>
       <c r="E131" t="s">
         <v>263</v>
@@ -80473,7 +80473,7 @@
         <v>253</v>
       </c>
       <c r="D132" s="1">
-        <v>215.84061548039935</v>
+        <v>215.84062194824219</v>
       </c>
       <c r="E132" t="s">
         <v>263</v>
@@ -80490,7 +80490,7 @@
         <v>253</v>
       </c>
       <c r="D133" s="1">
-        <v>208.14519698981852</v>
+        <v>208.14520263671875</v>
       </c>
       <c r="E133" t="s">
         <v>263</v>
@@ -80507,7 +80507,7 @@
         <v>253</v>
       </c>
       <c r="D134" s="1">
-        <v>210.80731969860065</v>
+        <v>210.80732727050781</v>
       </c>
       <c r="E134" t="s">
         <v>263</v>
@@ -80524,7 +80524,7 @@
         <v>253</v>
       </c>
       <c r="D135" s="1">
-        <v>199.54726006919233</v>
+        <v>199.54725646972656</v>
       </c>
       <c r="E135" t="s">
         <v>263</v>
@@ -80541,7 +80541,7 @@
         <v>253</v>
       </c>
       <c r="D136" s="1">
-        <v>202.68950179785088</v>
+        <v>202.68949890136719</v>
       </c>
       <c r="E136" t="s">
         <v>263</v>
@@ -80558,7 +80558,7 @@
         <v>253</v>
       </c>
       <c r="D137" s="1">
-        <v>197.21845456201794</v>
+        <v>197.21846008300781</v>
       </c>
       <c r="E137" t="s">
         <v>263</v>
@@ -80575,7 +80575,7 @@
         <v>253</v>
       </c>
       <c r="D138" s="1">
-        <v>199.67758627552442</v>
+        <v>199.67758178710938</v>
       </c>
       <c r="E138" t="s">
         <v>263</v>
@@ -80592,7 +80592,7 @@
         <v>253</v>
       </c>
       <c r="D139" s="1">
-        <v>193.55284456551777</v>
+        <v>193.55284118652344</v>
       </c>
       <c r="E139" t="s">
         <v>263</v>
@@ -80609,7 +80609,7 @@
         <v>253</v>
       </c>
       <c r="D140" s="1">
-        <v>201.76639872978069</v>
+        <v>201.76640319824219</v>
       </c>
       <c r="E140" t="s">
         <v>263</v>
@@ -80626,7 +80626,7 @@
         <v>253</v>
       </c>
       <c r="D141" s="1">
-        <v>202.77900132142713</v>
+        <v>202.77900695800781</v>
       </c>
       <c r="E141" t="s">
         <v>263</v>
@@ -80643,7 +80643,7 @@
         <v>253</v>
       </c>
       <c r="D142" s="1">
-        <v>193.14532729518319</v>
+        <v>193.14532470703125</v>
       </c>
       <c r="E142" t="s">
         <v>263</v>
@@ -80660,7 +80660,7 @@
         <v>253</v>
       </c>
       <c r="D143" s="1">
-        <v>209.91434518091577</v>
+        <v>209.91435241699219</v>
       </c>
       <c r="E143" t="s">
         <v>263</v>
@@ -80677,7 +80677,7 @@
         <v>253</v>
       </c>
       <c r="D144" s="1">
-        <v>195.20886186261788</v>
+        <v>195.2088623046875</v>
       </c>
       <c r="E144" t="s">
         <v>263</v>
@@ -80694,7 +80694,7 @@
         <v>253</v>
       </c>
       <c r="D145" s="1">
-        <v>203.02397294339997</v>
+        <v>203.02397155761719</v>
       </c>
       <c r="E145" t="s">
         <v>263</v>
@@ -80711,7 +80711,7 @@
         <v>253</v>
       </c>
       <c r="D146" s="1">
-        <v>207.47581016740901</v>
+        <v>207.47581481933594</v>
       </c>
       <c r="E146" t="s">
         <v>263</v>
@@ -80728,7 +80728,7 @@
         <v>253</v>
       </c>
       <c r="D147" s="1">
-        <v>199.06424397301714</v>
+        <v>199.06423950195313</v>
       </c>
       <c r="E147" t="s">
         <v>263</v>
@@ -80745,7 +80745,7 @@
         <v>253</v>
       </c>
       <c r="D148" s="1">
-        <v>202.65061125591981</v>
+        <v>202.65060424804688</v>
       </c>
       <c r="E148" t="s">
         <v>263</v>
@@ -80762,7 +80762,7 @@
         <v>253</v>
       </c>
       <c r="D149" s="1">
-        <v>205.71553228621292</v>
+        <v>205.71553039550781</v>
       </c>
       <c r="E149" t="s">
         <v>263</v>
@@ -80779,7 +80779,7 @@
         <v>253</v>
       </c>
       <c r="D150" s="1">
-        <v>202.77712994025941</v>
+        <v>202.77713012695313</v>
       </c>
       <c r="E150" t="s">
         <v>263</v>
@@ -80796,7 +80796,7 @@
         <v>253</v>
       </c>
       <c r="D151" s="1">
-        <v>198.22548843878832</v>
+        <v>198.22549438476563</v>
       </c>
       <c r="E151" t="s">
         <v>263</v>
@@ -80813,7 +80813,7 @@
         <v>253</v>
       </c>
       <c r="D152" s="1">
-        <v>204.71628058609386</v>
+        <v>204.71627807617188</v>
       </c>
       <c r="E152" t="s">
         <v>263</v>
@@ -80830,7 +80830,7 @@
         <v>253</v>
       </c>
       <c r="D153" s="1">
-        <v>196.67391098932251</v>
+        <v>196.67390441894531</v>
       </c>
       <c r="E153" t="s">
         <v>263</v>
@@ -80847,7 +80847,7 @@
         <v>253</v>
       </c>
       <c r="D154" s="1">
-        <v>190.52863436123349</v>
+        <v>190.52864074707031</v>
       </c>
       <c r="E154" t="s">
         <v>263</v>
@@ -80864,7 +80864,7 @@
         <v>253</v>
       </c>
       <c r="D155" s="1">
-        <v>201.74124163046983</v>
+        <v>201.74124145507813</v>
       </c>
       <c r="E155" t="s">
         <v>263</v>
@@ -80881,7 +80881,7 @@
         <v>253</v>
       </c>
       <c r="D156" s="1">
-        <v>197.76673573039477</v>
+        <v>197.76673889160156</v>
       </c>
       <c r="E156" t="s">
         <v>263</v>
@@ -80898,7 +80898,7 @@
         <v>253</v>
       </c>
       <c r="D157" s="1">
-        <v>202.79202485010475</v>
+        <v>202.79202270507813</v>
       </c>
       <c r="E157" t="s">
         <v>263</v>
@@ -80915,7 +80915,7 @@
         <v>253</v>
       </c>
       <c r="D158" s="1">
-        <v>203.72390975326459</v>
+        <v>203.72390747070313</v>
       </c>
       <c r="E158" t="s">
         <v>263</v>
@@ -80932,7 +80932,7 @@
         <v>253</v>
       </c>
       <c r="D159" s="1">
-        <v>198.06154005632246</v>
+        <v>198.06153869628906</v>
       </c>
       <c r="E159" t="s">
         <v>263</v>
@@ -80949,7 +80949,7 @@
         <v>253</v>
       </c>
       <c r="D160" s="1">
-        <v>206.07983348440595</v>
+        <v>206.079833984375</v>
       </c>
       <c r="E160" t="s">
         <v>263</v>
@@ -80966,7 +80966,7 @@
         <v>253</v>
       </c>
       <c r="D161" s="1">
-        <v>200.21130480718438</v>
+        <v>200.2113037109375</v>
       </c>
       <c r="E161" t="s">
         <v>263</v>
@@ -80983,7 +80983,7 @@
         <v>253</v>
       </c>
       <c r="D162" s="1">
-        <v>203.09646423929317</v>
+        <v>203.09646606445313</v>
       </c>
       <c r="E162" t="s">
         <v>263</v>
@@ -81000,7 +81000,7 @@
         <v>253</v>
       </c>
       <c r="D163" s="1">
-        <v>205.59253458626989</v>
+        <v>205.592529296875</v>
       </c>
       <c r="E163" t="s">
         <v>263</v>
@@ -81017,7 +81017,7 @@
         <v>253</v>
       </c>
       <c r="D164" s="1">
-        <v>200.50071998952743</v>
+        <v>200.50071716308594</v>
       </c>
       <c r="E164" t="s">
         <v>263</v>
@@ -81034,7 +81034,7 @@
         <v>253</v>
       </c>
       <c r="D165" s="1">
-        <v>187.30865106318907</v>
+        <v>187.30865478515625</v>
       </c>
       <c r="E165" t="s">
         <v>263</v>
@@ -81051,7 +81051,7 @@
         <v>253</v>
       </c>
       <c r="D166" s="1">
-        <v>181.21215041845372</v>
+        <v>181.21214294433594</v>
       </c>
       <c r="E166" t="s">
         <v>263</v>
@@ -81068,7 +81068,7 @@
         <v>253</v>
       </c>
       <c r="D167" s="1">
-        <v>188.73348622371523</v>
+        <v>188.73348999023438</v>
       </c>
       <c r="E167" t="s">
         <v>263</v>
@@ -81085,7 +81085,7 @@
         <v>253</v>
       </c>
       <c r="D168" s="1">
-        <v>184.99179707218576</v>
+        <v>184.99179077148438</v>
       </c>
       <c r="E168" t="s">
         <v>263</v>
@@ -81102,7 +81102,7 @@
         <v>253</v>
       </c>
       <c r="D169" s="1">
-        <v>201.54904522771281</v>
+        <v>201.54904174804688</v>
       </c>
       <c r="E169" t="s">
         <v>263</v>
@@ -81119,7 +81119,7 @@
         <v>253</v>
       </c>
       <c r="D170" s="1">
-        <v>186.70763909263576</v>
+        <v>186.7076416015625</v>
       </c>
       <c r="E170" t="s">
         <v>263</v>
@@ -81136,7 +81136,7 @@
         <v>253</v>
       </c>
       <c r="D171" s="1">
-        <v>196.6651892833672</v>
+        <v>196.66519165039063</v>
       </c>
       <c r="E171" t="s">
         <v>263</v>
@@ -81153,7 +81153,7 @@
         <v>253</v>
       </c>
       <c r="D172" s="1">
-        <v>200.27837453478168</v>
+        <v>200.27838134765625</v>
       </c>
       <c r="E172" t="s">
         <v>263</v>
@@ -81170,7 +81170,7 @@
         <v>253</v>
       </c>
       <c r="D173" s="1">
-        <v>180.71512133665297</v>
+        <v>180.71511840820313</v>
       </c>
       <c r="E173" t="s">
         <v>263</v>
@@ -81187,7 +81187,7 @@
         <v>253</v>
       </c>
       <c r="D174" s="1">
-        <v>189.04049979796724</v>
+        <v>189.04049682617188</v>
       </c>
       <c r="E174" t="s">
         <v>263</v>
@@ -81204,7 +81204,7 @@
         <v>253</v>
       </c>
       <c r="D175" s="1">
-        <v>205.10092317321232</v>
+        <v>205.10092163085938</v>
       </c>
       <c r="E175" t="s">
         <v>263</v>
@@ -81221,7 +81221,7 @@
         <v>253</v>
       </c>
       <c r="D176" s="1">
-        <v>198.54713918784765</v>
+        <v>198.54713439941406</v>
       </c>
       <c r="E176" t="s">
         <v>263</v>
@@ -81238,7 +81238,7 @@
         <v>253</v>
       </c>
       <c r="D177" s="1">
-        <v>195.83012326656393</v>
+        <v>195.83012390136719</v>
       </c>
       <c r="E177" t="s">
         <v>263</v>
@@ -81255,7 +81255,7 @@
         <v>253</v>
       </c>
       <c r="D178" s="1">
-        <v>179.64389686841554</v>
+        <v>179.64389038085938</v>
       </c>
       <c r="E178" t="s">
         <v>263</v>
@@ -81272,7 +81272,7 @@
         <v>253</v>
       </c>
       <c r="D179" s="1">
-        <v>186.91263487643579</v>
+        <v>186.91262817382813</v>
       </c>
       <c r="E179" t="s">
         <v>263</v>
@@ -81289,7 +81289,7 @@
         <v>253</v>
       </c>
       <c r="D180" s="1">
-        <v>190.1010101010101</v>
+        <v>190.10101318359375</v>
       </c>
       <c r="E180" t="s">
         <v>263</v>
@@ -81306,7 +81306,7 @@
         <v>253</v>
       </c>
       <c r="D181" s="1">
-        <v>193.59946100724272</v>
+        <v>193.59945678710938</v>
       </c>
       <c r="E181" t="s">
         <v>263</v>
@@ -81323,7 +81323,7 @@
         <v>253</v>
       </c>
       <c r="D182" s="1">
-        <v>185.83597737618982</v>
+        <v>185.83598327636719</v>
       </c>
       <c r="E182" t="s">
         <v>263</v>
@@ -81340,7 +81340,7 @@
         <v>253</v>
       </c>
       <c r="D183" s="1">
-        <v>205.50112267809757</v>
+        <v>205.50112915039063</v>
       </c>
       <c r="E183" t="s">
         <v>263</v>
@@ -84451,7 +84451,7 @@
         <v>256</v>
       </c>
       <c r="D366" s="1">
-        <v>169.55518913732536</v>
+        <v>169.55519104003906</v>
       </c>
       <c r="E366" t="s">
         <v>266</v>
@@ -84468,7 +84468,7 @@
         <v>256</v>
       </c>
       <c r="D367" s="1">
-        <v>225.48567388959253</v>
+        <v>225.48567199707031</v>
       </c>
       <c r="E367" t="s">
         <v>266</v>
@@ -84485,7 +84485,7 @@
         <v>256</v>
       </c>
       <c r="D368" s="1">
-        <v>184.12471241485784</v>
+        <v>184.12471008300781</v>
       </c>
       <c r="E368" t="s">
         <v>266</v>
@@ -84502,7 +84502,7 @@
         <v>256</v>
       </c>
       <c r="D369" s="1">
-        <v>204.48830709709048</v>
+        <v>204.48831176757813</v>
       </c>
       <c r="E369" t="s">
         <v>266</v>
@@ -84519,7 +84519,7 @@
         <v>256</v>
       </c>
       <c r="D370" s="1">
-        <v>198.89889993724933</v>
+        <v>198.89889526367188</v>
       </c>
       <c r="E370" t="s">
         <v>266</v>
@@ -84536,7 +84536,7 @@
         <v>256</v>
       </c>
       <c r="D371" s="1">
-        <v>203.36534841217414</v>
+        <v>203.36534118652344</v>
       </c>
       <c r="E371" t="s">
         <v>266</v>
@@ -84553,7 +84553,7 @@
         <v>256</v>
       </c>
       <c r="D372" s="1">
-        <v>209.32227518073674</v>
+        <v>209.32228088378906</v>
       </c>
       <c r="E372" t="s">
         <v>266</v>
@@ -84570,7 +84570,7 @@
         <v>256</v>
       </c>
       <c r="D373" s="1">
-        <v>243.96418246439737</v>
+        <v>243.96418762207031</v>
       </c>
       <c r="E373" t="s">
         <v>266</v>
@@ -84587,7 +84587,7 @@
         <v>256</v>
       </c>
       <c r="D374" s="1">
-        <v>267.05648084439855</v>
+        <v>267.05648803710938</v>
       </c>
       <c r="E374" t="s">
         <v>266</v>
@@ -84604,7 +84604,7 @@
         <v>256</v>
       </c>
       <c r="D375" s="1">
-        <v>267.5180794138945</v>
+        <v>267.51806640625</v>
       </c>
       <c r="E375" t="s">
         <v>266</v>
@@ -84621,7 +84621,7 @@
         <v>256</v>
       </c>
       <c r="D376" s="1">
-        <v>301.82010280256145</v>
+        <v>301.82009887695313</v>
       </c>
       <c r="E376" t="s">
         <v>266</v>
@@ -84638,7 +84638,7 @@
         <v>256</v>
       </c>
       <c r="D377" s="1">
-        <v>266.377147799417</v>
+        <v>266.37713623046875</v>
       </c>
       <c r="E377" t="s">
         <v>266</v>
@@ -84655,7 +84655,7 @@
         <v>256</v>
       </c>
       <c r="D378" s="1">
-        <v>243.02251290677074</v>
+        <v>243.02250671386719</v>
       </c>
       <c r="E378" t="s">
         <v>266</v>
@@ -84672,7 +84672,7 @@
         <v>256</v>
       </c>
       <c r="D379" s="1">
-        <v>273.43704199494812</v>
+        <v>273.43704223632813</v>
       </c>
       <c r="E379" t="s">
         <v>266</v>
@@ -84689,7 +84689,7 @@
         <v>256</v>
       </c>
       <c r="D380" s="1">
-        <v>251.1891531938077</v>
+        <v>251.18914794921875</v>
       </c>
       <c r="E380" t="s">
         <v>266</v>
@@ -84706,7 +84706,7 @@
         <v>256</v>
       </c>
       <c r="D381" s="1">
-        <v>285.18760307160454</v>
+        <v>285.18759155273438</v>
       </c>
       <c r="E381" t="s">
         <v>266</v>
@@ -84723,7 +84723,7 @@
         <v>256</v>
       </c>
       <c r="D382" s="1">
-        <v>292.2598123456703</v>
+        <v>292.25982666015625</v>
       </c>
       <c r="E382" t="s">
         <v>266</v>
@@ -84740,7 +84740,7 @@
         <v>256</v>
       </c>
       <c r="D383" s="1">
-        <v>274.90728711554527</v>
+        <v>274.90728759765625</v>
       </c>
       <c r="E383" t="s">
         <v>266</v>
@@ -84757,7 +84757,7 @@
         <v>256</v>
       </c>
       <c r="D384" s="1">
-        <v>280.12839253733955</v>
+        <v>280.12838745117188</v>
       </c>
       <c r="E384" t="s">
         <v>266</v>
@@ -84774,7 +84774,7 @@
         <v>256</v>
       </c>
       <c r="D385" s="1">
-        <v>294.92286479665898</v>
+        <v>294.9228515625</v>
       </c>
       <c r="E385" t="s">
         <v>266</v>
@@ -84791,7 +84791,7 @@
         <v>256</v>
       </c>
       <c r="D386" s="1">
-        <v>350.20039710079112</v>
+        <v>350.20040893554688</v>
       </c>
       <c r="E386" t="s">
         <v>266</v>
@@ -84808,7 +84808,7 @@
         <v>256</v>
       </c>
       <c r="D387" s="1">
-        <v>341.3447127903566</v>
+        <v>341.3447265625</v>
       </c>
       <c r="E387" t="s">
         <v>266</v>
@@ -84825,7 +84825,7 @@
         <v>256</v>
       </c>
       <c r="D388" s="1">
-        <v>383.97918626911172</v>
+        <v>383.97918701171875</v>
       </c>
       <c r="E388" t="s">
         <v>266</v>
@@ -84842,7 +84842,7 @@
         <v>256</v>
       </c>
       <c r="D389" s="1">
-        <v>301.91838434866065</v>
+        <v>301.91839599609375</v>
       </c>
       <c r="E389" t="s">
         <v>266</v>
@@ -84859,7 +84859,7 @@
         <v>256</v>
       </c>
       <c r="D390" s="1">
-        <v>287.47085788935181</v>
+        <v>287.47085571289063</v>
       </c>
       <c r="E390" t="s">
         <v>266</v>
@@ -84876,7 +84876,7 @@
         <v>256</v>
       </c>
       <c r="D391" s="1">
-        <v>324.37991703795655</v>
+        <v>324.37991333007813</v>
       </c>
       <c r="E391" t="s">
         <v>266</v>
@@ -84893,7 +84893,7 @@
         <v>256</v>
       </c>
       <c r="D392" s="1">
-        <v>273.70541146978178</v>
+        <v>273.70541381835938</v>
       </c>
       <c r="E392" t="s">
         <v>266</v>
@@ -84910,7 +84910,7 @@
         <v>256</v>
       </c>
       <c r="D393" s="1">
-        <v>276.76636100712625</v>
+        <v>276.766357421875</v>
       </c>
       <c r="E393" t="s">
         <v>266</v>
@@ -84927,7 +84927,7 @@
         <v>256</v>
       </c>
       <c r="D394" s="1">
-        <v>262.57697586466855</v>
+        <v>262.57696533203125</v>
       </c>
       <c r="E394" t="s">
         <v>266</v>
@@ -84944,7 +84944,7 @@
         <v>256</v>
       </c>
       <c r="D395" s="1">
-        <v>244.00054024283037</v>
+        <v>244.00053405761719</v>
       </c>
       <c r="E395" t="s">
         <v>266</v>
@@ -84961,7 +84961,7 @@
         <v>256</v>
       </c>
       <c r="D396" s="1">
-        <v>263.55882561538323</v>
+        <v>263.558837890625</v>
       </c>
       <c r="E396" t="s">
         <v>266</v>
@@ -84978,7 +84978,7 @@
         <v>256</v>
       </c>
       <c r="D397" s="1">
-        <v>303.43117789278625</v>
+        <v>303.43118286132813</v>
       </c>
       <c r="E397" t="s">
         <v>266</v>
@@ -84995,7 +84995,7 @@
         <v>256</v>
       </c>
       <c r="D398" s="1">
-        <v>336.21142004260724</v>
+        <v>336.21142578125</v>
       </c>
       <c r="E398" t="s">
         <v>266</v>
@@ -85012,7 +85012,7 @@
         <v>256</v>
       </c>
       <c r="D399" s="1">
-        <v>319.07165663106269</v>
+        <v>319.0716552734375</v>
       </c>
       <c r="E399" t="s">
         <v>266</v>
@@ -85029,7 +85029,7 @@
         <v>256</v>
       </c>
       <c r="D400" s="1">
-        <v>328.31722351872304</v>
+        <v>328.31723022460938</v>
       </c>
       <c r="E400" t="s">
         <v>266</v>
@@ -85046,7 +85046,7 @@
         <v>256</v>
       </c>
       <c r="D401" s="1">
-        <v>333.0090605231299</v>
+        <v>333.00906372070313</v>
       </c>
       <c r="E401" t="s">
         <v>266</v>
@@ -85063,7 +85063,7 @@
         <v>256</v>
       </c>
       <c r="D402" s="1">
-        <v>331.6122068646024</v>
+        <v>331.61221313476563</v>
       </c>
       <c r="E402" t="s">
         <v>266</v>
@@ -85080,7 +85080,7 @@
         <v>256</v>
       </c>
       <c r="D403" s="1">
-        <v>331.6366202453396</v>
+        <v>331.63662719726563</v>
       </c>
       <c r="E403" t="s">
         <v>266</v>
@@ -85097,7 +85097,7 @@
         <v>256</v>
       </c>
       <c r="D404" s="1">
-        <v>294.98888708204521</v>
+        <v>294.9888916015625</v>
       </c>
       <c r="E404" t="s">
         <v>266</v>
@@ -85114,7 +85114,7 @@
         <v>256</v>
       </c>
       <c r="D405" s="1">
-        <v>279.5492956415917</v>
+        <v>279.54928588867188</v>
       </c>
       <c r="E405" t="s">
         <v>266</v>
@@ -85131,7 +85131,7 @@
         <v>256</v>
       </c>
       <c r="D406" s="1">
-        <v>269.42307283644311</v>
+        <v>269.42306518554688</v>
       </c>
       <c r="E406" t="s">
         <v>266</v>
@@ -85148,7 +85148,7 @@
         <v>256</v>
       </c>
       <c r="D407" s="1">
-        <v>288.6057284874621</v>
+        <v>288.60574340820313</v>
       </c>
       <c r="E407" t="s">
         <v>266</v>
@@ -85165,7 +85165,7 @@
         <v>256</v>
       </c>
       <c r="D408" s="1">
-        <v>297.8781507289014</v>
+        <v>297.87814331054688</v>
       </c>
       <c r="E408" t="s">
         <v>266</v>
@@ -85182,7 +85182,7 @@
         <v>256</v>
       </c>
       <c r="D409" s="1">
-        <v>289.1174568779378</v>
+        <v>289.11746215820313</v>
       </c>
       <c r="E409" t="s">
         <v>266</v>
@@ -85199,7 +85199,7 @@
         <v>256</v>
       </c>
       <c r="D410" s="1">
-        <v>339.8807658817052</v>
+        <v>339.88076782226563</v>
       </c>
       <c r="E410" t="s">
         <v>266</v>
@@ -85216,7 +85216,7 @@
         <v>256</v>
       </c>
       <c r="D411" s="1">
-        <v>302.65955646109842</v>
+        <v>302.6595458984375</v>
       </c>
       <c r="E411" t="s">
         <v>266</v>
@@ -85233,7 +85233,7 @@
         <v>256</v>
       </c>
       <c r="D412" s="1">
-        <v>299.85995391612539</v>
+        <v>299.85995483398438</v>
       </c>
       <c r="E412" t="s">
         <v>266</v>
@@ -85250,7 +85250,7 @@
         <v>256</v>
       </c>
       <c r="D413" s="1">
-        <v>331.63896389319865</v>
+        <v>331.63897705078125</v>
       </c>
       <c r="E413" t="s">
         <v>266</v>
@@ -85267,7 +85267,7 @@
         <v>256</v>
       </c>
       <c r="D414" s="1">
-        <v>270.19609057873066</v>
+        <v>270.19607543945313</v>
       </c>
       <c r="E414" t="s">
         <v>266</v>
@@ -85284,7 +85284,7 @@
         <v>256</v>
       </c>
       <c r="D415" s="1">
-        <v>296.07717897940745</v>
+        <v>296.07717895507813</v>
       </c>
       <c r="E415" t="s">
         <v>266</v>
@@ -85301,7 +85301,7 @@
         <v>256</v>
       </c>
       <c r="D416" s="1">
-        <v>241.06235616630585</v>
+        <v>241.06236267089844</v>
       </c>
       <c r="E416" t="s">
         <v>266</v>
@@ -85318,7 +85318,7 @@
         <v>256</v>
       </c>
       <c r="D417" s="1">
-        <v>249.69144873483248</v>
+        <v>249.69145202636719</v>
       </c>
       <c r="E417" t="s">
         <v>266</v>
@@ -85335,7 +85335,7 @@
         <v>256</v>
       </c>
       <c r="D418" s="1">
-        <v>264.24672915687091</v>
+        <v>264.24673461914063</v>
       </c>
       <c r="E418" t="s">
         <v>266</v>
@@ -85352,7 +85352,7 @@
         <v>256</v>
       </c>
       <c r="D419" s="1">
-        <v>283.17294894053026</v>
+        <v>283.17294311523438</v>
       </c>
       <c r="E419" t="s">
         <v>266</v>
@@ -85369,7 +85369,7 @@
         <v>256</v>
       </c>
       <c r="D420" s="1">
-        <v>282.81312321416874</v>
+        <v>282.8131103515625</v>
       </c>
       <c r="E420" t="s">
         <v>266</v>
@@ -85386,7 +85386,7 @@
         <v>256</v>
       </c>
       <c r="D421" s="1">
-        <v>276.97312126542295</v>
+        <v>276.97311401367188</v>
       </c>
       <c r="E421" t="s">
         <v>266</v>
@@ -85403,7 +85403,7 @@
         <v>256</v>
       </c>
       <c r="D422" s="1">
-        <v>276.73211413699067</v>
+        <v>276.73211669921875</v>
       </c>
       <c r="E422" t="s">
         <v>266</v>
@@ -85420,7 +85420,7 @@
         <v>256</v>
       </c>
       <c r="D423" s="1">
-        <v>256.11830169038859</v>
+        <v>256.11831665039063</v>
       </c>
       <c r="E423" t="s">
         <v>266</v>
@@ -85437,7 +85437,7 @@
         <v>256</v>
       </c>
       <c r="D424" s="1">
-        <v>255.13850932570367</v>
+        <v>255.13850402832031</v>
       </c>
       <c r="E424" t="s">
         <v>266</v>
@@ -85454,7 +85454,7 @@
         <v>256</v>
       </c>
       <c r="D425" s="1">
-        <v>284.984645261286</v>
+        <v>284.98464965820313</v>
       </c>
       <c r="E425" t="s">
         <v>266</v>
@@ -85471,7 +85471,7 @@
         <v>256</v>
       </c>
       <c r="D426" s="1">
-        <v>247.6435539848857</v>
+        <v>247.6435546875</v>
       </c>
       <c r="E426" t="s">
         <v>266</v>
@@ -85488,7 +85488,7 @@
         <v>256</v>
       </c>
       <c r="D427" s="1">
-        <v>262.1040627561448</v>
+        <v>262.10406494140625</v>
       </c>
       <c r="E427" t="s">
         <v>266</v>
@@ -85505,7 +85505,7 @@
         <v>256</v>
       </c>
       <c r="D428" s="1">
-        <v>227.60396250005348</v>
+        <v>227.60395812988281</v>
       </c>
       <c r="E428" t="s">
         <v>266</v>
@@ -85522,7 +85522,7 @@
         <v>256</v>
       </c>
       <c r="D429" s="1">
-        <v>224.11762865466136</v>
+        <v>224.11763000488281</v>
       </c>
       <c r="E429" t="s">
         <v>266</v>
@@ -85539,7 +85539,7 @@
         <v>256</v>
       </c>
       <c r="D430" s="1">
-        <v>232.51528941961629</v>
+        <v>232.51528930664063</v>
       </c>
       <c r="E430" t="s">
         <v>266</v>
@@ -85556,7 +85556,7 @@
         <v>256</v>
       </c>
       <c r="D431" s="1">
-        <v>238.5921794546847</v>
+        <v>238.59217834472656</v>
       </c>
       <c r="E431" t="s">
         <v>266</v>
@@ -85573,7 +85573,7 @@
         <v>256</v>
       </c>
       <c r="D432" s="1">
-        <v>241.9180848146932</v>
+        <v>241.9180908203125</v>
       </c>
       <c r="E432" t="s">
         <v>266</v>
@@ -85590,7 +85590,7 @@
         <v>256</v>
       </c>
       <c r="D433" s="1">
-        <v>242.65816559167314</v>
+        <v>242.65817260742188</v>
       </c>
       <c r="E433" t="s">
         <v>266</v>
@@ -85607,7 +85607,7 @@
         <v>256</v>
       </c>
       <c r="D434" s="1">
-        <v>218.60869088457989</v>
+        <v>218.60868835449219</v>
       </c>
       <c r="E434" t="s">
         <v>266</v>
@@ -85624,7 +85624,7 @@
         <v>256</v>
       </c>
       <c r="D435" s="1">
-        <v>231.35688034366154</v>
+        <v>231.35688781738281</v>
       </c>
       <c r="E435" t="s">
         <v>266</v>
@@ -85641,7 +85641,7 @@
         <v>256</v>
       </c>
       <c r="D436" s="1">
-        <v>227.18721726016702</v>
+        <v>227.18721008300781</v>
       </c>
       <c r="E436" t="s">
         <v>266</v>
@@ -85658,7 +85658,7 @@
         <v>256</v>
       </c>
       <c r="D437" s="1">
-        <v>215.01999058393631</v>
+        <v>215.01998901367188</v>
       </c>
       <c r="E437" t="s">
         <v>266</v>
@@ -85675,7 +85675,7 @@
         <v>256</v>
       </c>
       <c r="D438" s="1">
-        <v>190.42050065947421</v>
+        <v>190.42050170898438</v>
       </c>
       <c r="E438" t="s">
         <v>266</v>
@@ -85692,7 +85692,7 @@
         <v>256</v>
       </c>
       <c r="D439" s="1">
-        <v>199.30560155306065</v>
+        <v>199.30560302734375</v>
       </c>
       <c r="E439" t="s">
         <v>266</v>
@@ -85709,7 +85709,7 @@
         <v>256</v>
       </c>
       <c r="D440" s="1">
-        <v>246.83713544048467</v>
+        <v>246.83714294433594</v>
       </c>
       <c r="E440" t="s">
         <v>266</v>
@@ -85726,7 +85726,7 @@
         <v>256</v>
       </c>
       <c r="D441" s="1">
-        <v>219.41647119377055</v>
+        <v>219.41647338867188</v>
       </c>
       <c r="E441" t="s">
         <v>266</v>
@@ -85743,7 +85743,7 @@
         <v>256</v>
       </c>
       <c r="D442" s="1">
-        <v>208.18768461718412</v>
+        <v>208.18768310546875</v>
       </c>
       <c r="E442" t="s">
         <v>266</v>
@@ -85760,7 +85760,7 @@
         <v>256</v>
       </c>
       <c r="D443" s="1">
-        <v>231.40617291978486</v>
+        <v>231.40617370605469</v>
       </c>
       <c r="E443" t="s">
         <v>266</v>
@@ -85777,7 +85777,7 @@
         <v>256</v>
       </c>
       <c r="D444" s="1">
-        <v>203.3139571028909</v>
+        <v>203.31394958496094</v>
       </c>
       <c r="E444" t="s">
         <v>266</v>
@@ -85794,7 +85794,7 @@
         <v>256</v>
       </c>
       <c r="D445" s="1">
-        <v>221.07097796135977</v>
+        <v>221.07098388671875</v>
       </c>
       <c r="E445" t="s">
         <v>266</v>
@@ -85811,7 +85811,7 @@
         <v>256</v>
       </c>
       <c r="D446" s="1">
-        <v>227.54926326963314</v>
+        <v>227.54927062988281</v>
       </c>
       <c r="E446" t="s">
         <v>266</v>
@@ -85828,7 +85828,7 @@
         <v>256</v>
       </c>
       <c r="D447" s="1">
-        <v>209.23219942973773</v>
+        <v>209.23219299316406</v>
       </c>
       <c r="E447" t="s">
         <v>266</v>
@@ -85845,7 +85845,7 @@
         <v>256</v>
       </c>
       <c r="D448" s="1">
-        <v>197.50831962816233</v>
+        <v>197.50831604003906</v>
       </c>
       <c r="E448" t="s">
         <v>266</v>
@@ -85862,7 +85862,7 @@
         <v>256</v>
       </c>
       <c r="D449" s="1">
-        <v>200.37050753067186</v>
+        <v>200.37051391601563</v>
       </c>
       <c r="E449" t="s">
         <v>266</v>
@@ -85879,7 +85879,7 @@
         <v>256</v>
       </c>
       <c r="D450" s="1">
-        <v>177.36931946982662</v>
+        <v>177.36932373046875</v>
       </c>
       <c r="E450" t="s">
         <v>266</v>
@@ -85896,7 +85896,7 @@
         <v>256</v>
       </c>
       <c r="D451" s="1">
-        <v>190.87703687567844</v>
+        <v>190.87702941894531</v>
       </c>
       <c r="E451" t="s">
         <v>266</v>
@@ -85913,7 +85913,7 @@
         <v>256</v>
       </c>
       <c r="D452" s="1">
-        <v>222.01209591215743</v>
+        <v>222.01210021972656</v>
       </c>
       <c r="E452" t="s">
         <v>266</v>
@@ -85930,7 +85930,7 @@
         <v>256</v>
       </c>
       <c r="D453" s="1">
-        <v>161.60540096370525</v>
+        <v>161.60540771484375</v>
       </c>
       <c r="E453" t="s">
         <v>266</v>
@@ -85947,7 +85947,7 @@
         <v>256</v>
       </c>
       <c r="D454" s="1">
-        <v>165.68552804857512</v>
+        <v>165.68553161621094</v>
       </c>
       <c r="E454" t="s">
         <v>266</v>
@@ -85964,7 +85964,7 @@
         <v>256</v>
       </c>
       <c r="D455" s="1">
-        <v>202.23481236374323</v>
+        <v>202.23481750488281</v>
       </c>
       <c r="E455" t="s">
         <v>266</v>
@@ -85981,7 +85981,7 @@
         <v>256</v>
       </c>
       <c r="D456" s="1">
-        <v>185.47093664332286</v>
+        <v>185.47093200683594</v>
       </c>
       <c r="E456" t="s">
         <v>266</v>
@@ -85998,7 +85998,7 @@
         <v>257</v>
       </c>
       <c r="D457" s="1">
-        <v>35.574407492011815</v>
+        <v>35.574405670166016</v>
       </c>
       <c r="E457" t="s">
         <v>267</v>
@@ -86015,7 +86015,7 @@
         <v>257</v>
       </c>
       <c r="D458" s="1">
-        <v>48.027472507156851</v>
+        <v>48.027473449707031</v>
       </c>
       <c r="E458" t="s">
         <v>267</v>
@@ -86032,7 +86032,7 @@
         <v>257</v>
       </c>
       <c r="D459" s="1">
-        <v>39.704461721014574</v>
+        <v>39.704460144042969</v>
       </c>
       <c r="E459" t="s">
         <v>267</v>
@@ -86049,7 +86049,7 @@
         <v>257</v>
       </c>
       <c r="D460" s="1">
-        <v>43.722780518880519</v>
+        <v>43.722782135009766</v>
       </c>
       <c r="E460" t="s">
         <v>267</v>
@@ -86066,7 +86066,7 @@
         <v>257</v>
       </c>
       <c r="D461" s="1">
-        <v>42.08703844311173</v>
+        <v>42.087039947509766</v>
       </c>
       <c r="E461" t="s">
         <v>267</v>
@@ -86083,7 +86083,7 @@
         <v>257</v>
       </c>
       <c r="D462" s="1">
-        <v>41.003730193237949</v>
+        <v>41.003730773925781</v>
       </c>
       <c r="E462" t="s">
         <v>267</v>
@@ -86100,7 +86100,7 @@
         <v>257</v>
       </c>
       <c r="D463" s="1">
-        <v>43.523917717824546</v>
+        <v>43.523918151855469</v>
       </c>
       <c r="E463" t="s">
         <v>267</v>
@@ -86117,7 +86117,7 @@
         <v>257</v>
       </c>
       <c r="D464" s="1">
-        <v>50.058533445257375</v>
+        <v>50.058536529541016</v>
       </c>
       <c r="E464" t="s">
         <v>267</v>
@@ -86134,7 +86134,7 @@
         <v>257</v>
       </c>
       <c r="D465" s="1">
-        <v>55.725810664288133</v>
+        <v>55.725811004638672</v>
       </c>
       <c r="E465" t="s">
         <v>267</v>
@@ -86151,7 +86151,7 @@
         <v>257</v>
       </c>
       <c r="D466" s="1">
-        <v>60.645165864482188</v>
+        <v>60.645164489746094</v>
       </c>
       <c r="E466" t="s">
         <v>267</v>
@@ -86168,7 +86168,7 @@
         <v>257</v>
       </c>
       <c r="D467" s="1">
-        <v>62.367330299721175</v>
+        <v>62.367332458496094</v>
       </c>
       <c r="E467" t="s">
         <v>267</v>
@@ -86185,7 +86185,7 @@
         <v>257</v>
       </c>
       <c r="D468" s="1">
-        <v>57.100778797318121</v>
+        <v>57.100776672363281</v>
       </c>
       <c r="E468" t="s">
         <v>267</v>
@@ -86202,7 +86202,7 @@
         <v>257</v>
       </c>
       <c r="D469" s="1">
-        <v>52.688630923259602</v>
+        <v>52.688632965087891</v>
       </c>
       <c r="E469" t="s">
         <v>267</v>
@@ -86219,7 +86219,7 @@
         <v>257</v>
       </c>
       <c r="D470" s="1">
-        <v>56.349748317638429</v>
+        <v>56.349750518798828</v>
       </c>
       <c r="E470" t="s">
         <v>267</v>
@@ -86236,7 +86236,7 @@
         <v>257</v>
       </c>
       <c r="D471" s="1">
-        <v>55.065454489289841</v>
+        <v>55.065452575683594</v>
       </c>
       <c r="E471" t="s">
         <v>267</v>
@@ -86253,7 +86253,7 @@
         <v>257</v>
       </c>
       <c r="D472" s="1">
-        <v>60.661131974769809</v>
+        <v>60.6611328125</v>
       </c>
       <c r="E472" t="s">
         <v>267</v>
@@ -86270,7 +86270,7 @@
         <v>257</v>
       </c>
       <c r="D473" s="1">
-        <v>64.304649711807215</v>
+        <v>64.304649353027344</v>
       </c>
       <c r="E473" t="s">
         <v>267</v>
@@ -86287,7 +86287,7 @@
         <v>257</v>
       </c>
       <c r="D474" s="1">
-        <v>58.830715058968188</v>
+        <v>58.830715179443359</v>
       </c>
       <c r="E474" t="s">
         <v>267</v>
@@ -86304,7 +86304,7 @@
         <v>257</v>
       </c>
       <c r="D475" s="1">
-        <v>61.989327170566867</v>
+        <v>61.989326477050781</v>
       </c>
       <c r="E475" t="s">
         <v>267</v>
@@ -86321,7 +86321,7 @@
         <v>257</v>
       </c>
       <c r="D476" s="1">
-        <v>64.226613077226105</v>
+        <v>64.226615905761719</v>
       </c>
       <c r="E476" t="s">
         <v>267</v>
@@ -86338,7 +86338,7 @@
         <v>257</v>
       </c>
       <c r="D477" s="1">
-        <v>74.303985022201473</v>
+        <v>74.303985595703125</v>
       </c>
       <c r="E477" t="s">
         <v>267</v>
@@ -86355,7 +86355,7 @@
         <v>257</v>
       </c>
       <c r="D478" s="1">
-        <v>76.726929207313859</v>
+        <v>76.7269287109375</v>
       </c>
       <c r="E478" t="s">
         <v>267</v>
@@ -86372,7 +86372,7 @@
         <v>257</v>
       </c>
       <c r="D479" s="1">
-        <v>76.621377355978694</v>
+        <v>76.621376037597656</v>
       </c>
       <c r="E479" t="s">
         <v>267</v>
@@ -86389,7 +86389,7 @@
         <v>257</v>
       </c>
       <c r="D480" s="1">
-        <v>65.482730385428468</v>
+        <v>65.48272705078125</v>
       </c>
       <c r="E480" t="s">
         <v>267</v>
@@ -86406,7 +86406,7 @@
         <v>257</v>
       </c>
       <c r="D481" s="1">
-        <v>64.009306253500768</v>
+        <v>64.009307861328125</v>
       </c>
       <c r="E481" t="s">
         <v>267</v>
@@ -86423,7 +86423,7 @@
         <v>257</v>
       </c>
       <c r="D482" s="1">
-        <v>67.198135026584794</v>
+        <v>67.198135375976563</v>
       </c>
       <c r="E482" t="s">
         <v>267</v>
@@ -86440,7 +86440,7 @@
         <v>257</v>
       </c>
       <c r="D483" s="1">
-        <v>59.943987627870563</v>
+        <v>59.943988800048828</v>
       </c>
       <c r="E483" t="s">
         <v>267</v>
@@ -86457,7 +86457,7 @@
         <v>257</v>
       </c>
       <c r="D484" s="1">
-        <v>60.9649369827466</v>
+        <v>60.964939117431641</v>
       </c>
       <c r="E484" t="s">
         <v>267</v>
@@ -86474,7 +86474,7 @@
         <v>257</v>
       </c>
       <c r="D485" s="1">
-        <v>56.404741744182921</v>
+        <v>56.404743194580078</v>
       </c>
       <c r="E485" t="s">
         <v>267</v>
@@ -86491,7 +86491,7 @@
         <v>257</v>
       </c>
       <c r="D486" s="1">
-        <v>53.51829887880659</v>
+        <v>53.518299102783203</v>
       </c>
       <c r="E486" t="s">
         <v>267</v>
@@ -86508,7 +86508,7 @@
         <v>257</v>
       </c>
       <c r="D487" s="1">
-        <v>59.077351169740126</v>
+        <v>59.077350616455078</v>
       </c>
       <c r="E487" t="s">
         <v>267</v>
@@ -86525,7 +86525,7 @@
         <v>257</v>
       </c>
       <c r="D488" s="1">
-        <v>65.603992771537889</v>
+        <v>65.603988647460938</v>
       </c>
       <c r="E488" t="s">
         <v>267</v>
@@ -86542,7 +86542,7 @@
         <v>257</v>
       </c>
       <c r="D489" s="1">
-        <v>72.636555759746329</v>
+        <v>72.636550903320313</v>
       </c>
       <c r="E489" t="s">
         <v>267</v>
@@ -86559,7 +86559,7 @@
         <v>257</v>
       </c>
       <c r="D490" s="1">
-        <v>71.50648527632606</v>
+        <v>71.506484985351563</v>
       </c>
       <c r="E490" t="s">
         <v>267</v>
@@ -86576,7 +86576,7 @@
         <v>257</v>
       </c>
       <c r="D491" s="1">
-        <v>69.414826469158925</v>
+        <v>69.414825439453125</v>
       </c>
       <c r="E491" t="s">
         <v>267</v>
@@ -86593,7 +86593,7 @@
         <v>257</v>
       </c>
       <c r="D492" s="1">
-        <v>73.666833002687909</v>
+        <v>73.666839599609375</v>
       </c>
       <c r="E492" t="s">
         <v>267</v>
@@ -86610,7 +86610,7 @@
         <v>257</v>
       </c>
       <c r="D493" s="1">
-        <v>67.767056468904315</v>
+        <v>67.767051696777344</v>
       </c>
       <c r="E493" t="s">
         <v>267</v>
@@ -86627,7 +86627,7 @@
         <v>257</v>
       </c>
       <c r="D494" s="1">
-        <v>67.971098394848596</v>
+        <v>67.971099853515625</v>
       </c>
       <c r="E494" t="s">
         <v>267</v>
@@ -86644,7 +86644,7 @@
         <v>257</v>
       </c>
       <c r="D495" s="1">
-        <v>61.695782710123616</v>
+        <v>61.695781707763672</v>
       </c>
       <c r="E495" t="s">
         <v>267</v>
@@ -86661,7 +86661,7 @@
         <v>257</v>
       </c>
       <c r="D496" s="1">
-        <v>60.33809202839327</v>
+        <v>60.338092803955078</v>
       </c>
       <c r="E496" t="s">
         <v>267</v>
@@ -86678,7 +86678,7 @@
         <v>257</v>
       </c>
       <c r="D497" s="1">
-        <v>56.079118569143667</v>
+        <v>56.079116821289063</v>
       </c>
       <c r="E497" t="s">
         <v>267</v>
@@ -86695,7 +86695,7 @@
         <v>257</v>
       </c>
       <c r="D498" s="1">
-        <v>60.840200072103961</v>
+        <v>60.840198516845703</v>
       </c>
       <c r="E498" t="s">
         <v>267</v>
@@ -86712,7 +86712,7 @@
         <v>257</v>
       </c>
       <c r="D499" s="1">
-        <v>59.440768812430164</v>
+        <v>59.440769195556641</v>
       </c>
       <c r="E499" t="s">
         <v>267</v>
@@ -86729,7 +86729,7 @@
         <v>257</v>
       </c>
       <c r="D500" s="1">
-        <v>58.601073295650849</v>
+        <v>58.60107421875</v>
       </c>
       <c r="E500" t="s">
         <v>267</v>
@@ -86746,7 +86746,7 @@
         <v>257</v>
       </c>
       <c r="D501" s="1">
-        <v>67.030759382544929</v>
+        <v>67.030754089355469</v>
       </c>
       <c r="E501" t="s">
         <v>267</v>
@@ -86763,7 +86763,7 @@
         <v>257</v>
       </c>
       <c r="D502" s="1">
-        <v>60.434329697372931</v>
+        <v>60.434329986572266</v>
       </c>
       <c r="E502" t="s">
         <v>267</v>
@@ -86780,7 +86780,7 @@
         <v>257</v>
       </c>
       <c r="D503" s="1">
-        <v>58.038747051751137</v>
+        <v>58.038745880126953</v>
       </c>
       <c r="E503" t="s">
         <v>267</v>
@@ -86797,7 +86797,7 @@
         <v>257</v>
       </c>
       <c r="D504" s="1">
-        <v>66.913599423206449</v>
+        <v>66.913604736328125</v>
       </c>
       <c r="E504" t="s">
         <v>267</v>
@@ -86814,7 +86814,7 @@
         <v>257</v>
       </c>
       <c r="D505" s="1">
-        <v>54.790093408508866</v>
+        <v>54.790092468261719</v>
       </c>
       <c r="E505" t="s">
         <v>267</v>
@@ -86831,7 +86831,7 @@
         <v>257</v>
       </c>
       <c r="D506" s="1">
-        <v>57.185923638612188</v>
+        <v>57.185920715332031</v>
       </c>
       <c r="E506" t="s">
         <v>267</v>
@@ -86848,7 +86848,7 @@
         <v>257</v>
       </c>
       <c r="D507" s="1">
-        <v>50.602446642418784</v>
+        <v>50.602443695068359</v>
       </c>
       <c r="E507" t="s">
         <v>267</v>
@@ -86865,7 +86865,7 @@
         <v>257</v>
       </c>
       <c r="D508" s="1">
-        <v>48.74198352435485</v>
+        <v>48.741985321044922</v>
       </c>
       <c r="E508" t="s">
         <v>267</v>
@@ -86882,7 +86882,7 @@
         <v>257</v>
       </c>
       <c r="D509" s="1">
-        <v>53.648420790726512</v>
+        <v>53.648422241210938</v>
       </c>
       <c r="E509" t="s">
         <v>267</v>
@@ -86899,7 +86899,7 @@
         <v>257</v>
       </c>
       <c r="D510" s="1">
-        <v>58.751536998930852</v>
+        <v>58.751533508300781</v>
       </c>
       <c r="E510" t="s">
         <v>267</v>
@@ -86916,7 +86916,7 @@
         <v>257</v>
       </c>
       <c r="D511" s="1">
-        <v>56.297980558276251</v>
+        <v>56.297981262207031</v>
       </c>
       <c r="E511" t="s">
         <v>267</v>
@@ -86933,7 +86933,7 @@
         <v>257</v>
       </c>
       <c r="D512" s="1">
-        <v>56.12877232589797</v>
+        <v>56.128772735595703</v>
       </c>
       <c r="E512" t="s">
         <v>267</v>
@@ -86950,7 +86950,7 @@
         <v>257</v>
       </c>
       <c r="D513" s="1">
-        <v>56.928094160380063</v>
+        <v>56.928092956542969</v>
       </c>
       <c r="E513" t="s">
         <v>267</v>
@@ -86967,7 +86967,7 @@
         <v>257</v>
       </c>
       <c r="D514" s="1">
-        <v>51.934934141950485</v>
+        <v>51.934932708740234</v>
       </c>
       <c r="E514" t="s">
         <v>267</v>
@@ -86984,7 +86984,7 @@
         <v>257</v>
       </c>
       <c r="D515" s="1">
-        <v>50.574955630631955</v>
+        <v>50.574958801269531</v>
       </c>
       <c r="E515" t="s">
         <v>267</v>
@@ -87001,7 +87001,7 @@
         <v>257</v>
       </c>
       <c r="D516" s="1">
-        <v>58.340996602037848</v>
+        <v>58.340995788574219</v>
       </c>
       <c r="E516" t="s">
         <v>267</v>
@@ -87018,7 +87018,7 @@
         <v>257</v>
       </c>
       <c r="D517" s="1">
-        <v>48.70502629350289</v>
+        <v>48.705028533935547</v>
       </c>
       <c r="E517" t="s">
         <v>267</v>
@@ -87035,7 +87035,7 @@
         <v>257</v>
       </c>
       <c r="D518" s="1">
-        <v>49.938329137459313</v>
+        <v>49.938327789306641</v>
       </c>
       <c r="E518" t="s">
         <v>267</v>
@@ -87052,7 +87052,7 @@
         <v>257</v>
       </c>
       <c r="D519" s="1">
-        <v>45.917105994775689</v>
+        <v>45.917106628417969</v>
       </c>
       <c r="E519" t="s">
         <v>267</v>
@@ -87069,7 +87069,7 @@
         <v>257</v>
       </c>
       <c r="D520" s="1">
-        <v>44.32301183866916</v>
+        <v>44.323013305664063</v>
       </c>
       <c r="E520" t="s">
         <v>267</v>
@@ -87086,7 +87086,7 @@
         <v>257</v>
       </c>
       <c r="D521" s="1">
-        <v>47.152246350012121</v>
+        <v>47.152244567871094</v>
       </c>
       <c r="E521" t="s">
         <v>267</v>
@@ -87103,7 +87103,7 @@
         <v>257</v>
       </c>
       <c r="D522" s="1">
-        <v>48.606931635060896</v>
+        <v>48.606929779052734</v>
       </c>
       <c r="E522" t="s">
         <v>267</v>
@@ -87120,7 +87120,7 @@
         <v>257</v>
       </c>
       <c r="D523" s="1">
-        <v>47.91466844587417</v>
+        <v>47.914669036865234</v>
       </c>
       <c r="E523" t="s">
         <v>267</v>
@@ -87137,7 +87137,7 @@
         <v>257</v>
       </c>
       <c r="D524" s="1">
-        <v>50.006954358763409</v>
+        <v>50.006954193115234</v>
       </c>
       <c r="E524" t="s">
         <v>267</v>
@@ -87154,7 +87154,7 @@
         <v>257</v>
       </c>
       <c r="D525" s="1">
-        <v>43.76793124419217</v>
+        <v>43.767929077148438</v>
       </c>
       <c r="E525" t="s">
         <v>267</v>
@@ -87171,7 +87171,7 @@
         <v>257</v>
       </c>
       <c r="D526" s="1">
-        <v>46.987764375230888</v>
+        <v>46.987766265869141</v>
       </c>
       <c r="E526" t="s">
         <v>267</v>
@@ -87188,7 +87188,7 @@
         <v>257</v>
       </c>
       <c r="D527" s="1">
-        <v>46.707995822119301</v>
+        <v>46.707996368408203</v>
       </c>
       <c r="E527" t="s">
         <v>267</v>
@@ -87205,7 +87205,7 @@
         <v>257</v>
       </c>
       <c r="D528" s="1">
-        <v>43.111662924220632</v>
+        <v>43.111663818359375</v>
       </c>
       <c r="E528" t="s">
         <v>267</v>
@@ -87222,7 +87222,7 @@
         <v>257</v>
       </c>
       <c r="D529" s="1">
-        <v>35.66740711330322</v>
+        <v>35.667407989501953</v>
       </c>
       <c r="E529" t="s">
         <v>267</v>
@@ -87239,7 +87239,7 @@
         <v>257</v>
       </c>
       <c r="D530" s="1">
-        <v>36.116596647873628</v>
+        <v>36.116596221923828</v>
       </c>
       <c r="E530" t="s">
         <v>267</v>
@@ -87256,7 +87256,7 @@
         <v>257</v>
       </c>
       <c r="D531" s="1">
-        <v>46.58643310115805</v>
+        <v>46.586433410644531</v>
       </c>
       <c r="E531" t="s">
         <v>267</v>
@@ -87273,7 +87273,7 @@
         <v>257</v>
       </c>
       <c r="D532" s="1">
-        <v>40.590247313373098</v>
+        <v>40.590244293212891</v>
       </c>
       <c r="E532" t="s">
         <v>267</v>
@@ -87290,7 +87290,7 @@
         <v>257</v>
       </c>
       <c r="D533" s="1">
-        <v>41.960029062761649</v>
+        <v>41.960025787353516</v>
       </c>
       <c r="E533" t="s">
         <v>267</v>
@@ -87307,7 +87307,7 @@
         <v>257</v>
       </c>
       <c r="D534" s="1">
-        <v>43.205300217315262</v>
+        <v>43.205299377441406</v>
       </c>
       <c r="E534" t="s">
         <v>267</v>
@@ -87324,7 +87324,7 @@
         <v>257</v>
       </c>
       <c r="D535" s="1">
-        <v>39.984777857590437</v>
+        <v>39.984775543212891</v>
       </c>
       <c r="E535" t="s">
         <v>267</v>
@@ -87341,7 +87341,7 @@
         <v>257</v>
       </c>
       <c r="D536" s="1">
-        <v>44.275736122915681</v>
+        <v>44.275733947753906</v>
       </c>
       <c r="E536" t="s">
         <v>267</v>
@@ -87358,7 +87358,7 @@
         <v>257</v>
       </c>
       <c r="D537" s="1">
-        <v>41.12159272183775</v>
+        <v>41.121593475341797</v>
       </c>
       <c r="E537" t="s">
         <v>267</v>
@@ -87375,7 +87375,7 @@
         <v>257</v>
       </c>
       <c r="D538" s="1">
-        <v>39.553359554025576</v>
+        <v>39.553359985351563</v>
       </c>
       <c r="E538" t="s">
         <v>267</v>
@@ -87392,7 +87392,7 @@
         <v>257</v>
       </c>
       <c r="D539" s="1">
-        <v>40.50913869012598</v>
+        <v>40.509140014648438</v>
       </c>
       <c r="E539" t="s">
         <v>267</v>
@@ -87409,7 +87409,7 @@
         <v>257</v>
       </c>
       <c r="D540" s="1">
-        <v>39.782991047831985</v>
+        <v>39.782993316650391</v>
       </c>
       <c r="E540" t="s">
         <v>267</v>
@@ -87426,7 +87426,7 @@
         <v>257</v>
       </c>
       <c r="D541" s="1">
-        <v>34.734255695482709</v>
+        <v>34.7342529296875</v>
       </c>
       <c r="E541" t="s">
         <v>267</v>
@@ -87443,7 +87443,7 @@
         <v>257</v>
       </c>
       <c r="D542" s="1">
-        <v>34.289894727043134</v>
+        <v>34.289894104003906</v>
       </c>
       <c r="E542" t="s">
         <v>267</v>
@@ -87460,7 +87460,7 @@
         <v>257</v>
       </c>
       <c r="D543" s="1">
-        <v>41.496865821381327</v>
+        <v>41.496868133544922</v>
       </c>
       <c r="E543" t="s">
         <v>267</v>
@@ -87477,7 +87477,7 @@
         <v>257</v>
       </c>
       <c r="D544" s="1">
-        <v>30.721349960979119</v>
+        <v>30.721349716186523</v>
       </c>
       <c r="E544" t="s">
         <v>267</v>
@@ -87494,7 +87494,7 @@
         <v>257</v>
       </c>
       <c r="D545" s="1">
-        <v>32.07662892690454</v>
+        <v>32.076629638671875</v>
       </c>
       <c r="E545" t="s">
         <v>267</v>
@@ -87511,7 +87511,7 @@
         <v>257</v>
       </c>
       <c r="D546" s="1">
-        <v>37.582504015106586</v>
+        <v>37.582504272460938</v>
       </c>
       <c r="E546" t="s">
         <v>267</v>
@@ -87528,7 +87528,7 @@
         <v>257</v>
       </c>
       <c r="D547" s="1">
-        <v>38.114485704361158</v>
+        <v>38.114482879638672</v>
       </c>
       <c r="E547" t="s">
         <v>267</v>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12846" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12839" uniqueCount="134">
   <si>
     <t>Sección</t>
   </si>
@@ -288,22 +288,22 @@
     <t>251 y más personas</t>
   </si>
   <si>
-    <t>101 a 250 personas</t>
-  </si>
-  <si>
     <t>31 a 50 personas</t>
-  </si>
-  <si>
-    <t>11 a 30 personas</t>
   </si>
   <si>
     <t>0 a 5 personas</t>
   </si>
   <si>
+    <t>101 a 250 personas</t>
+  </si>
+  <si>
+    <t>6 a 10 personas</t>
+  </si>
+  <si>
     <t>51 a 100 personas</t>
   </si>
   <si>
-    <t>6 a 10 personas</t>
+    <t>11 a 30 personas</t>
   </si>
   <si>
     <t>Establecimientos</t>
@@ -75658,7 +75658,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O56"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -75752,7 +75752,7 @@
         <v>100</v>
       </c>
       <c r="O2" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="3">
@@ -75781,7 +75781,7 @@
         <v>89</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>97</v>
@@ -75799,7 +75799,7 @@
         <v>101</v>
       </c>
       <c r="O3" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="4">
@@ -75846,7 +75846,7 @@
         <v>101</v>
       </c>
       <c r="O4" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="5">
@@ -75854,7 +75854,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1">
         <v>33</v>
@@ -75863,16 +75863,16 @@
         <v>334</v>
       </c>
       <c r="E5" s="1">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="F5" s="1">
-        <v>33441</v>
+        <v>33411</v>
       </c>
       <c r="G5" s="1">
-        <v>334410</v>
+        <v>334110</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -75884,16 +75884,16 @@
         <v>98</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="6">
@@ -75910,16 +75910,16 @@
         <v>334</v>
       </c>
       <c r="E6" s="1">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="F6" s="1">
-        <v>33411</v>
+        <v>33421</v>
       </c>
       <c r="G6" s="1">
-        <v>334110</v>
+        <v>334210</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -75931,16 +75931,16 @@
         <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="7">
@@ -75957,16 +75957,16 @@
         <v>334</v>
       </c>
       <c r="E7" s="1">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="F7" s="1">
-        <v>33411</v>
+        <v>33422</v>
       </c>
       <c r="G7" s="1">
-        <v>334110</v>
+        <v>334220</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -75978,16 +75978,16 @@
         <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O7" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="8">
@@ -76004,16 +76004,16 @@
         <v>334</v>
       </c>
       <c r="E8" s="1">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="F8" s="1">
-        <v>33421</v>
+        <v>33431</v>
       </c>
       <c r="G8" s="1">
-        <v>334210</v>
+        <v>334310</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -76025,16 +76025,16 @@
         <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O8" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="9">
@@ -76051,16 +76051,16 @@
         <v>334</v>
       </c>
       <c r="E9" s="1">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="F9" s="1">
-        <v>33422</v>
+        <v>33431</v>
       </c>
       <c r="G9" s="1">
-        <v>334220</v>
+        <v>334310</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -76072,16 +76072,16 @@
         <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O9" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="10">
@@ -76098,13 +76098,13 @@
         <v>334</v>
       </c>
       <c r="E10" s="1">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="F10" s="1">
-        <v>33431</v>
+        <v>33441</v>
       </c>
       <c r="G10" s="1">
-        <v>334310</v>
+        <v>334410</v>
       </c>
       <c r="H10" t="s">
         <v>89</v>
@@ -76119,16 +76119,16 @@
         <v>98</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O10" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="11">
@@ -76145,19 +76145,19 @@
         <v>334</v>
       </c>
       <c r="E11" s="1">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="F11" s="1">
-        <v>33431</v>
+        <v>33441</v>
       </c>
       <c r="G11" s="1">
-        <v>334310</v>
+        <v>334410</v>
       </c>
       <c r="H11" t="s">
         <v>92</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>97</v>
@@ -76166,16 +76166,16 @@
         <v>98</v>
       </c>
       <c r="L11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O11" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="12">
@@ -76204,7 +76204,7 @@
         <v>90</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>97</v>
@@ -76222,7 +76222,7 @@
         <v>101</v>
       </c>
       <c r="O12" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="13">
@@ -76269,7 +76269,7 @@
         <v>101</v>
       </c>
       <c r="O13" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="14">
@@ -76286,19 +76286,19 @@
         <v>334</v>
       </c>
       <c r="E14" s="1">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="F14" s="1">
-        <v>33441</v>
+        <v>33451</v>
       </c>
       <c r="G14" s="1">
-        <v>334410</v>
+        <v>334519</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>97</v>
@@ -76307,16 +76307,16 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N14" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O14" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="15">
@@ -76333,13 +76333,13 @@
         <v>334</v>
       </c>
       <c r="E15" s="1">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="F15" s="1">
-        <v>33441</v>
+        <v>33451</v>
       </c>
       <c r="G15" s="1">
-        <v>334410</v>
+        <v>334519</v>
       </c>
       <c r="H15" t="s">
         <v>94</v>
@@ -76354,16 +76354,16 @@
         <v>98</v>
       </c>
       <c r="L15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O15" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="16">
@@ -76380,19 +76380,19 @@
         <v>334</v>
       </c>
       <c r="E16" s="1">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="F16" s="1">
-        <v>33451</v>
+        <v>33461</v>
       </c>
       <c r="G16" s="1">
-        <v>334519</v>
+        <v>334610</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>97</v>
@@ -76401,16 +76401,16 @@
         <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O16" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="17">
@@ -76418,7 +76418,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1">
         <v>33</v>
@@ -76427,19 +76427,19 @@
         <v>334</v>
       </c>
       <c r="E17" s="1">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="F17" s="1">
-        <v>33451</v>
+        <v>33431</v>
       </c>
       <c r="G17" s="1">
-        <v>334519</v>
+        <v>334310</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>97</v>
@@ -76448,16 +76448,16 @@
         <v>98</v>
       </c>
       <c r="L17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O17" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="18">
@@ -76465,7 +76465,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1">
         <v>33</v>
@@ -76474,16 +76474,16 @@
         <v>334</v>
       </c>
       <c r="E18" s="1">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="F18" s="1">
-        <v>33461</v>
+        <v>33431</v>
       </c>
       <c r="G18" s="1">
-        <v>334610</v>
+        <v>334310</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -76495,16 +76495,16 @@
         <v>98</v>
       </c>
       <c r="L18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O18" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="19">
@@ -76521,19 +76521,19 @@
         <v>334</v>
       </c>
       <c r="E19" s="1">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="F19" s="1">
-        <v>33431</v>
+        <v>33441</v>
       </c>
       <c r="G19" s="1">
-        <v>334310</v>
+        <v>334410</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>97</v>
@@ -76542,16 +76542,16 @@
         <v>98</v>
       </c>
       <c r="L19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O19" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="20">
@@ -76559,7 +76559,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1">
         <v>33</v>
@@ -76568,16 +76568,16 @@
         <v>334</v>
       </c>
       <c r="E20" s="1">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="F20" s="1">
-        <v>33441</v>
+        <v>33411</v>
       </c>
       <c r="G20" s="1">
-        <v>334410</v>
+        <v>334110</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -76589,16 +76589,16 @@
         <v>98</v>
       </c>
       <c r="L20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O20" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="21">
@@ -76615,13 +76615,13 @@
         <v>334</v>
       </c>
       <c r="E21" s="1">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="F21" s="1">
-        <v>33411</v>
+        <v>33422</v>
       </c>
       <c r="G21" s="1">
-        <v>334110</v>
+        <v>334220</v>
       </c>
       <c r="H21" t="s">
         <v>92</v>
@@ -76636,16 +76636,16 @@
         <v>98</v>
       </c>
       <c r="L21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N21" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O21" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="22">
@@ -76662,16 +76662,16 @@
         <v>334</v>
       </c>
       <c r="E22" s="1">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="F22" s="1">
-        <v>33411</v>
+        <v>33429</v>
       </c>
       <c r="G22" s="1">
-        <v>334110</v>
+        <v>334290</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -76683,16 +76683,16 @@
         <v>98</v>
       </c>
       <c r="L22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M22" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N22" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O22" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="23">
@@ -76709,16 +76709,16 @@
         <v>334</v>
       </c>
       <c r="E23" s="1">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="F23" s="1">
-        <v>33422</v>
+        <v>33431</v>
       </c>
       <c r="G23" s="1">
-        <v>334220</v>
+        <v>334310</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -76730,16 +76730,16 @@
         <v>98</v>
       </c>
       <c r="L23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O23" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="24">
@@ -76756,13 +76756,13 @@
         <v>334</v>
       </c>
       <c r="E24" s="1">
-        <v>3342</v>
+        <v>3344</v>
       </c>
       <c r="F24" s="1">
-        <v>33429</v>
+        <v>33441</v>
       </c>
       <c r="G24" s="1">
-        <v>334290</v>
+        <v>334410</v>
       </c>
       <c r="H24" t="s">
         <v>91</v>
@@ -76777,16 +76777,16 @@
         <v>98</v>
       </c>
       <c r="L24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M24" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="N24" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O24" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="25">
@@ -76803,19 +76803,19 @@
         <v>334</v>
       </c>
       <c r="E25" s="1">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="F25" s="1">
-        <v>33431</v>
+        <v>33441</v>
       </c>
       <c r="G25" s="1">
-        <v>334310</v>
+        <v>334410</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="s">
         <v>97</v>
@@ -76824,16 +76824,16 @@
         <v>98</v>
       </c>
       <c r="L25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O25" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="26">
@@ -76859,10 +76859,10 @@
         <v>334410</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>97</v>
@@ -76880,7 +76880,7 @@
         <v>101</v>
       </c>
       <c r="O26" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="27">
@@ -76906,10 +76906,10 @@
         <v>334410</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>97</v>
@@ -76927,7 +76927,7 @@
         <v>101</v>
       </c>
       <c r="O27" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="28">
@@ -76944,16 +76944,16 @@
         <v>334</v>
       </c>
       <c r="E28" s="1">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="F28" s="1">
-        <v>33441</v>
+        <v>33451</v>
       </c>
       <c r="G28" s="1">
-        <v>334410</v>
+        <v>334519</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -76965,16 +76965,16 @@
         <v>98</v>
       </c>
       <c r="L28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N28" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O28" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="29">
@@ -76982,7 +76982,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1">
         <v>33</v>
@@ -76991,16 +76991,16 @@
         <v>334</v>
       </c>
       <c r="E29" s="1">
-        <v>3345</v>
+        <v>3341</v>
       </c>
       <c r="F29" s="1">
-        <v>33451</v>
+        <v>33411</v>
       </c>
       <c r="G29" s="1">
-        <v>334519</v>
+        <v>334110</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -77012,16 +77012,16 @@
         <v>98</v>
       </c>
       <c r="L29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N29" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O29" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="30">
@@ -77038,16 +77038,16 @@
         <v>334</v>
       </c>
       <c r="E30" s="1">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="F30" s="1">
-        <v>33411</v>
+        <v>33429</v>
       </c>
       <c r="G30" s="1">
-        <v>334110</v>
+        <v>334290</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -77059,16 +77059,16 @@
         <v>98</v>
       </c>
       <c r="L30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M30" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N30" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O30" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="31">
@@ -77076,7 +77076,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1">
         <v>33</v>
@@ -77085,19 +77085,19 @@
         <v>334</v>
       </c>
       <c r="E31" s="1">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="F31" s="1">
-        <v>33429</v>
+        <v>33411</v>
       </c>
       <c r="G31" s="1">
-        <v>334290</v>
+        <v>334110</v>
       </c>
       <c r="H31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
         <v>97</v>
@@ -77106,16 +77106,16 @@
         <v>98</v>
       </c>
       <c r="L31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M31" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="N31" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O31" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="32">
@@ -77132,19 +77132,19 @@
         <v>334</v>
       </c>
       <c r="E32" s="1">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="F32" s="1">
-        <v>33411</v>
+        <v>33422</v>
       </c>
       <c r="G32" s="1">
-        <v>334110</v>
+        <v>334220</v>
       </c>
       <c r="H32" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I32" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>97</v>
@@ -77153,16 +77153,16 @@
         <v>98</v>
       </c>
       <c r="L32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M32" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N32" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O32" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="33">
@@ -77179,16 +77179,16 @@
         <v>334</v>
       </c>
       <c r="E33" s="1">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="F33" s="1">
-        <v>33422</v>
+        <v>33431</v>
       </c>
       <c r="G33" s="1">
-        <v>334220</v>
+        <v>334310</v>
       </c>
       <c r="H33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
@@ -77200,16 +77200,16 @@
         <v>98</v>
       </c>
       <c r="L33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O33" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="34">
@@ -77226,19 +77226,19 @@
         <v>334</v>
       </c>
       <c r="E34" s="1">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="F34" s="1">
-        <v>33431</v>
+        <v>33441</v>
       </c>
       <c r="G34" s="1">
-        <v>334310</v>
+        <v>334410</v>
       </c>
       <c r="H34" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
         <v>97</v>
@@ -77247,16 +77247,16 @@
         <v>98</v>
       </c>
       <c r="L34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O34" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="35">
@@ -77282,10 +77282,10 @@
         <v>334410</v>
       </c>
       <c r="H35" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I35" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>97</v>
@@ -77303,7 +77303,7 @@
         <v>101</v>
       </c>
       <c r="O35" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="36">
@@ -77329,10 +77329,10 @@
         <v>334410</v>
       </c>
       <c r="H36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
         <v>97</v>
@@ -77350,7 +77350,7 @@
         <v>101</v>
       </c>
       <c r="O36" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="37">
@@ -77358,7 +77358,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1">
         <v>33</v>
@@ -77367,16 +77367,16 @@
         <v>334</v>
       </c>
       <c r="E37" s="1">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="F37" s="1">
-        <v>33441</v>
+        <v>33431</v>
       </c>
       <c r="G37" s="1">
-        <v>334410</v>
+        <v>334310</v>
       </c>
       <c r="H37" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I37" s="1">
         <v>2</v>
@@ -77388,16 +77388,16 @@
         <v>98</v>
       </c>
       <c r="L37" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M37" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N37" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O37" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="38">
@@ -77405,7 +77405,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="1">
         <v>33</v>
@@ -77423,7 +77423,7 @@
         <v>334410</v>
       </c>
       <c r="H38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
@@ -77444,7 +77444,7 @@
         <v>101</v>
       </c>
       <c r="O38" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="39">
@@ -77452,7 +77452,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="1">
         <v>33</v>
@@ -77461,19 +77461,19 @@
         <v>334</v>
       </c>
       <c r="E39" s="1">
-        <v>3343</v>
+        <v>3341</v>
       </c>
       <c r="F39" s="1">
-        <v>33431</v>
+        <v>33411</v>
       </c>
       <c r="G39" s="1">
-        <v>334310</v>
+        <v>334110</v>
       </c>
       <c r="H39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>97</v>
@@ -77482,16 +77482,16 @@
         <v>98</v>
       </c>
       <c r="L39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O39" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="40">
@@ -77499,7 +77499,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="1">
         <v>33</v>
@@ -77508,16 +77508,16 @@
         <v>334</v>
       </c>
       <c r="E40" s="1">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="F40" s="1">
-        <v>33441</v>
+        <v>33411</v>
       </c>
       <c r="G40" s="1">
-        <v>334410</v>
+        <v>334110</v>
       </c>
       <c r="H40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I40" s="1">
         <v>1</v>
@@ -77529,16 +77529,16 @@
         <v>98</v>
       </c>
       <c r="L40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O40" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="41">
@@ -77555,16 +77555,16 @@
         <v>334</v>
       </c>
       <c r="E41" s="1">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="F41" s="1">
-        <v>33411</v>
+        <v>33421</v>
       </c>
       <c r="G41" s="1">
-        <v>334110</v>
+        <v>334210</v>
       </c>
       <c r="H41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I41" s="1">
         <v>1</v>
@@ -77576,16 +77576,16 @@
         <v>98</v>
       </c>
       <c r="L41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M41" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N41" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O41" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="42">
@@ -77605,13 +77605,13 @@
         <v>3342</v>
       </c>
       <c r="F42" s="1">
-        <v>33421</v>
+        <v>33429</v>
       </c>
       <c r="G42" s="1">
-        <v>334210</v>
+        <v>334290</v>
       </c>
       <c r="H42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
@@ -77626,13 +77626,13 @@
         <v>102</v>
       </c>
       <c r="M42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O42" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="43">
@@ -77649,13 +77649,13 @@
         <v>334</v>
       </c>
       <c r="E43" s="1">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="F43" s="1">
-        <v>33429</v>
+        <v>33431</v>
       </c>
       <c r="G43" s="1">
-        <v>334290</v>
+        <v>334310</v>
       </c>
       <c r="H43" t="s">
         <v>94</v>
@@ -77670,16 +77670,16 @@
         <v>98</v>
       </c>
       <c r="L43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M43" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N43" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O43" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="44">
@@ -77696,19 +77696,19 @@
         <v>334</v>
       </c>
       <c r="E44" s="1">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="F44" s="1">
-        <v>33431</v>
+        <v>33441</v>
       </c>
       <c r="G44" s="1">
-        <v>334310</v>
+        <v>334410</v>
       </c>
       <c r="H44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>97</v>
@@ -77717,16 +77717,16 @@
         <v>98</v>
       </c>
       <c r="L44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O44" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="45">
@@ -77752,10 +77752,10 @@
         <v>334410</v>
       </c>
       <c r="H45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
         <v>97</v>
@@ -77773,7 +77773,7 @@
         <v>101</v>
       </c>
       <c r="O45" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="46">
@@ -77799,10 +77799,10 @@
         <v>334410</v>
       </c>
       <c r="H46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I46" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
         <v>97</v>
@@ -77820,7 +77820,7 @@
         <v>101</v>
       </c>
       <c r="O46" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="47">
@@ -77846,10 +77846,10 @@
         <v>334410</v>
       </c>
       <c r="H47" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I47" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>97</v>
@@ -77867,7 +77867,7 @@
         <v>101</v>
       </c>
       <c r="O47" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="48">
@@ -77893,7 +77893,7 @@
         <v>334410</v>
       </c>
       <c r="H48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1">
         <v>2</v>
@@ -77914,7 +77914,7 @@
         <v>101</v>
       </c>
       <c r="O48" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="49">
@@ -77940,10 +77940,10 @@
         <v>334410</v>
       </c>
       <c r="H49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I49" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J49" t="s">
         <v>97</v>
@@ -77961,7 +77961,7 @@
         <v>101</v>
       </c>
       <c r="O49" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="50">
@@ -77987,10 +77987,10 @@
         <v>334410</v>
       </c>
       <c r="H50" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
         <v>97</v>
@@ -78008,7 +78008,7 @@
         <v>101</v>
       </c>
       <c r="O50" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="51">
@@ -78025,16 +78025,16 @@
         <v>334</v>
       </c>
       <c r="E51" s="1">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="F51" s="1">
-        <v>33441</v>
+        <v>33451</v>
       </c>
       <c r="G51" s="1">
-        <v>334410</v>
+        <v>334519</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
@@ -78046,16 +78046,16 @@
         <v>98</v>
       </c>
       <c r="L51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N51" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O51" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="52">
@@ -78081,7 +78081,7 @@
         <v>334519</v>
       </c>
       <c r="H52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
@@ -78102,7 +78102,7 @@
         <v>111</v>
       </c>
       <c r="O52" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="53">
@@ -78128,10 +78128,10 @@
         <v>334519</v>
       </c>
       <c r="H53" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>97</v>
@@ -78149,7 +78149,7 @@
         <v>111</v>
       </c>
       <c r="O53" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="54">
@@ -78175,10 +78175,10 @@
         <v>334519</v>
       </c>
       <c r="H54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>97</v>
@@ -78196,7 +78196,7 @@
         <v>111</v>
       </c>
       <c r="O54" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="55">
@@ -78213,16 +78213,16 @@
         <v>334</v>
       </c>
       <c r="E55" s="1">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="F55" s="1">
-        <v>33451</v>
+        <v>33461</v>
       </c>
       <c r="G55" s="1">
-        <v>334519</v>
+        <v>334610</v>
       </c>
       <c r="H55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
@@ -78234,16 +78234,16 @@
         <v>98</v>
       </c>
       <c r="L55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N55" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O55" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="56">
@@ -78269,7 +78269,7 @@
         <v>334610</v>
       </c>
       <c r="H56" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
@@ -78290,54 +78290,7 @@
         <v>105</v>
       </c>
       <c r="O56" s="2">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>14</v>
-      </c>
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="1">
-        <v>33</v>
-      </c>
-      <c r="D57" s="1">
-        <v>334</v>
-      </c>
-      <c r="E57" s="1">
-        <v>3346</v>
-      </c>
-      <c r="F57" s="1">
-        <v>33461</v>
-      </c>
-      <c r="G57" s="1">
-        <v>334610</v>
-      </c>
-      <c r="H57" t="s">
-        <v>91</v>
-      </c>
-      <c r="I57" s="1">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>97</v>
-      </c>
-      <c r="K57" t="s">
-        <v>98</v>
-      </c>
-      <c r="L57" t="s">
-        <v>105</v>
-      </c>
-      <c r="M57" t="s">
-        <v>105</v>
-      </c>
-      <c r="N57" t="s">
-        <v>105</v>
-      </c>
-      <c r="O57" s="2">
-        <v>43922</v>
+        <v>44136</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12863" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12867" uniqueCount="134">
   <si>
     <t>Sección</t>
   </si>
@@ -91587,7 +91587,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D175"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -92813,13 +92813,13 @@
         <v>113</v>
       </c>
       <c r="B88" s="2">
-        <v>36161</v>
+        <v>44013</v>
       </c>
       <c r="C88" s="1">
-        <v>25.830188</v>
+        <v>-43.650501230000003</v>
       </c>
       <c r="D88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89">
@@ -92827,10 +92827,10 @@
         <v>113</v>
       </c>
       <c r="B89" s="2">
-        <v>36251</v>
+        <v>36161</v>
       </c>
       <c r="C89" s="1">
-        <v>81.291089999999997</v>
+        <v>25.830188</v>
       </c>
       <c r="D89" t="s">
         <v>133</v>
@@ -92841,10 +92841,10 @@
         <v>113</v>
       </c>
       <c r="B90" s="2">
-        <v>36342</v>
+        <v>36251</v>
       </c>
       <c r="C90" s="1">
-        <v>96.165655999999998</v>
+        <v>81.291089999999997</v>
       </c>
       <c r="D90" t="s">
         <v>133</v>
@@ -92855,10 +92855,10 @@
         <v>113</v>
       </c>
       <c r="B91" s="2">
-        <v>36434</v>
+        <v>36342</v>
       </c>
       <c r="C91" s="1">
-        <v>87.421719999999993</v>
+        <v>96.165655999999998</v>
       </c>
       <c r="D91" t="s">
         <v>133</v>
@@ -92869,10 +92869,10 @@
         <v>113</v>
       </c>
       <c r="B92" s="2">
-        <v>36526</v>
+        <v>36434</v>
       </c>
       <c r="C92" s="1">
-        <v>73.656339000000003</v>
+        <v>87.421719999999993</v>
       </c>
       <c r="D92" t="s">
         <v>133</v>
@@ -92883,10 +92883,10 @@
         <v>113</v>
       </c>
       <c r="B93" s="2">
-        <v>36617</v>
+        <v>36526</v>
       </c>
       <c r="C93" s="1">
-        <v>52.150294000000002</v>
+        <v>73.656339000000003</v>
       </c>
       <c r="D93" t="s">
         <v>133</v>
@@ -92897,10 +92897,10 @@
         <v>113</v>
       </c>
       <c r="B94" s="2">
-        <v>36708</v>
+        <v>36617</v>
       </c>
       <c r="C94" s="1">
-        <v>106.96198800000001</v>
+        <v>52.150294000000002</v>
       </c>
       <c r="D94" t="s">
         <v>133</v>
@@ -92911,10 +92911,10 @@
         <v>113</v>
       </c>
       <c r="B95" s="2">
-        <v>36800</v>
+        <v>36708</v>
       </c>
       <c r="C95" s="1">
-        <v>55.866529999999997</v>
+        <v>106.96198800000001</v>
       </c>
       <c r="D95" t="s">
         <v>133</v>
@@ -92925,10 +92925,10 @@
         <v>113</v>
       </c>
       <c r="B96" s="2">
-        <v>36892</v>
+        <v>36800</v>
       </c>
       <c r="C96" s="1">
-        <v>111.044776</v>
+        <v>55.866529999999997</v>
       </c>
       <c r="D96" t="s">
         <v>133</v>
@@ -92939,10 +92939,10 @@
         <v>113</v>
       </c>
       <c r="B97" s="2">
-        <v>36982</v>
+        <v>36892</v>
       </c>
       <c r="C97" s="1">
-        <v>26.406939000000001</v>
+        <v>111.044776</v>
       </c>
       <c r="D97" t="s">
         <v>133</v>
@@ -92953,10 +92953,10 @@
         <v>113</v>
       </c>
       <c r="B98" s="2">
-        <v>37073</v>
+        <v>36982</v>
       </c>
       <c r="C98" s="1">
-        <v>55.853051000000001</v>
+        <v>26.406939000000001</v>
       </c>
       <c r="D98" t="s">
         <v>133</v>
@@ -92967,10 +92967,10 @@
         <v>113</v>
       </c>
       <c r="B99" s="2">
-        <v>37165</v>
+        <v>37073</v>
       </c>
       <c r="C99" s="1">
-        <v>193.65250900000001</v>
+        <v>55.853051000000001</v>
       </c>
       <c r="D99" t="s">
         <v>133</v>
@@ -92981,10 +92981,10 @@
         <v>113</v>
       </c>
       <c r="B100" s="2">
-        <v>37257</v>
+        <v>37165</v>
       </c>
       <c r="C100" s="1">
-        <v>-6.2241619999999998</v>
+        <v>193.65250900000001</v>
       </c>
       <c r="D100" t="s">
         <v>133</v>
@@ -92995,10 +92995,10 @@
         <v>113</v>
       </c>
       <c r="B101" s="2">
-        <v>37347</v>
+        <v>37257</v>
       </c>
       <c r="C101" s="1">
-        <v>32.163097</v>
+        <v>-6.2241619999999998</v>
       </c>
       <c r="D101" t="s">
         <v>133</v>
@@ -93009,10 +93009,10 @@
         <v>113</v>
       </c>
       <c r="B102" s="2">
-        <v>37438</v>
+        <v>37347</v>
       </c>
       <c r="C102" s="1">
-        <v>27.891642000000001</v>
+        <v>32.163097</v>
       </c>
       <c r="D102" t="s">
         <v>133</v>
@@ -93023,10 +93023,10 @@
         <v>113</v>
       </c>
       <c r="B103" s="2">
-        <v>37530</v>
+        <v>37438</v>
       </c>
       <c r="C103" s="1">
-        <v>19.941931</v>
+        <v>27.891642000000001</v>
       </c>
       <c r="D103" t="s">
         <v>133</v>
@@ -93037,10 +93037,10 @@
         <v>113</v>
       </c>
       <c r="B104" s="2">
-        <v>37622</v>
+        <v>37530</v>
       </c>
       <c r="C104" s="1">
-        <v>71.769583999999995</v>
+        <v>19.941931</v>
       </c>
       <c r="D104" t="s">
         <v>133</v>
@@ -93051,10 +93051,10 @@
         <v>113</v>
       </c>
       <c r="B105" s="2">
-        <v>37712</v>
+        <v>37622</v>
       </c>
       <c r="C105" s="1">
-        <v>11.460283</v>
+        <v>71.769583999999995</v>
       </c>
       <c r="D105" t="s">
         <v>133</v>
@@ -93065,10 +93065,10 @@
         <v>113</v>
       </c>
       <c r="B106" s="2">
-        <v>37803</v>
+        <v>37712</v>
       </c>
       <c r="C106" s="1">
-        <v>26.810509</v>
+        <v>11.460283</v>
       </c>
       <c r="D106" t="s">
         <v>133</v>
@@ -93079,10 +93079,10 @@
         <v>113</v>
       </c>
       <c r="B107" s="2">
-        <v>37895</v>
+        <v>37803</v>
       </c>
       <c r="C107" s="1">
-        <v>-10.716157000000001</v>
+        <v>26.810509</v>
       </c>
       <c r="D107" t="s">
         <v>133</v>
@@ -93093,10 +93093,10 @@
         <v>113</v>
       </c>
       <c r="B108" s="2">
-        <v>37987</v>
+        <v>37895</v>
       </c>
       <c r="C108" s="1">
-        <v>34.712980999999999</v>
+        <v>-10.716157000000001</v>
       </c>
       <c r="D108" t="s">
         <v>133</v>
@@ -93107,10 +93107,10 @@
         <v>113</v>
       </c>
       <c r="B109" s="2">
-        <v>38078</v>
+        <v>37987</v>
       </c>
       <c r="C109" s="1">
-        <v>68.545222999999993</v>
+        <v>34.712980999999999</v>
       </c>
       <c r="D109" t="s">
         <v>133</v>
@@ -93121,10 +93121,10 @@
         <v>113</v>
       </c>
       <c r="B110" s="2">
-        <v>38169</v>
+        <v>38078</v>
       </c>
       <c r="C110" s="1">
-        <v>-20.971969999999999</v>
+        <v>68.545222999999993</v>
       </c>
       <c r="D110" t="s">
         <v>133</v>
@@ -93135,10 +93135,10 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>38261</v>
+        <v>38169</v>
       </c>
       <c r="C111" s="1">
-        <v>21.862244</v>
+        <v>-20.971969999999999</v>
       </c>
       <c r="D111" t="s">
         <v>133</v>
@@ -93149,10 +93149,10 @@
         <v>113</v>
       </c>
       <c r="B112" s="2">
-        <v>38353</v>
+        <v>38261</v>
       </c>
       <c r="C112" s="1">
-        <v>15.255686000000001</v>
+        <v>21.862244</v>
       </c>
       <c r="D112" t="s">
         <v>133</v>
@@ -93163,10 +93163,10 @@
         <v>113</v>
       </c>
       <c r="B113" s="2">
-        <v>38443</v>
+        <v>38353</v>
       </c>
       <c r="C113" s="1">
-        <v>142.419645</v>
+        <v>15.255686000000001</v>
       </c>
       <c r="D113" t="s">
         <v>133</v>
@@ -93177,10 +93177,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>38534</v>
+        <v>38443</v>
       </c>
       <c r="C114" s="1">
-        <v>33.889707000000001</v>
+        <v>142.419645</v>
       </c>
       <c r="D114" t="s">
         <v>133</v>
@@ -93191,10 +93191,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>38626</v>
+        <v>38534</v>
       </c>
       <c r="C115" s="1">
-        <v>0.63599399999999995</v>
+        <v>33.889707000000001</v>
       </c>
       <c r="D115" t="s">
         <v>133</v>
@@ -93205,10 +93205,10 @@
         <v>113</v>
       </c>
       <c r="B116" s="2">
-        <v>38718</v>
+        <v>38626</v>
       </c>
       <c r="C116" s="1">
-        <v>13.078110000000001</v>
+        <v>0.63599399999999795</v>
       </c>
       <c r="D116" t="s">
         <v>133</v>
@@ -93219,10 +93219,10 @@
         <v>113</v>
       </c>
       <c r="B117" s="2">
-        <v>38808</v>
+        <v>38718</v>
       </c>
       <c r="C117" s="1">
-        <v>138.40542400000001</v>
+        <v>13.078110000000001</v>
       </c>
       <c r="D117" t="s">
         <v>133</v>
@@ -93233,10 +93233,10 @@
         <v>113</v>
       </c>
       <c r="B118" s="2">
-        <v>38899</v>
+        <v>38808</v>
       </c>
       <c r="C118" s="1">
-        <v>-17.017171000000001</v>
+        <v>138.40542400000001</v>
       </c>
       <c r="D118" t="s">
         <v>133</v>
@@ -93247,10 +93247,10 @@
         <v>113</v>
       </c>
       <c r="B119" s="2">
-        <v>38991</v>
+        <v>38899</v>
       </c>
       <c r="C119" s="1">
-        <v>20.382918</v>
+        <v>-17.017171000000001</v>
       </c>
       <c r="D119" t="s">
         <v>133</v>
@@ -93261,10 +93261,10 @@
         <v>113</v>
       </c>
       <c r="B120" s="2">
-        <v>39083</v>
+        <v>38991</v>
       </c>
       <c r="C120" s="1">
-        <v>48.069566999999999</v>
+        <v>20.382918</v>
       </c>
       <c r="D120" t="s">
         <v>133</v>
@@ -93275,10 +93275,10 @@
         <v>113</v>
       </c>
       <c r="B121" s="2">
-        <v>39173</v>
+        <v>39083</v>
       </c>
       <c r="C121" s="1">
-        <v>18.610693999999999</v>
+        <v>48.069566999999999</v>
       </c>
       <c r="D121" t="s">
         <v>133</v>
@@ -93289,10 +93289,10 @@
         <v>113</v>
       </c>
       <c r="B122" s="2">
-        <v>39264</v>
+        <v>39173</v>
       </c>
       <c r="C122" s="1">
-        <v>14.284140000000001</v>
+        <v>18.610693999999999</v>
       </c>
       <c r="D122" t="s">
         <v>133</v>
@@ -93303,10 +93303,10 @@
         <v>113</v>
       </c>
       <c r="B123" s="2">
-        <v>39356</v>
+        <v>39264</v>
       </c>
       <c r="C123" s="1">
-        <v>52.699478999999997</v>
+        <v>14.284140000000001</v>
       </c>
       <c r="D123" t="s">
         <v>133</v>
@@ -93317,10 +93317,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="2">
-        <v>39448</v>
+        <v>39356</v>
       </c>
       <c r="C124" s="1">
-        <v>-31.090745999999999</v>
+        <v>52.699478999999997</v>
       </c>
       <c r="D124" t="s">
         <v>133</v>
@@ -93331,10 +93331,10 @@
         <v>113</v>
       </c>
       <c r="B125" s="2">
-        <v>39539</v>
+        <v>39448</v>
       </c>
       <c r="C125" s="1">
-        <v>42.924930000000003</v>
+        <v>-31.090745999999999</v>
       </c>
       <c r="D125" t="s">
         <v>133</v>
@@ -93345,10 +93345,10 @@
         <v>113</v>
       </c>
       <c r="B126" s="2">
-        <v>39630</v>
+        <v>39539</v>
       </c>
       <c r="C126" s="1">
-        <v>-1.822506</v>
+        <v>42.924930000000003</v>
       </c>
       <c r="D126" t="s">
         <v>133</v>
@@ -93359,10 +93359,10 @@
         <v>113</v>
       </c>
       <c r="B127" s="2">
-        <v>39722</v>
+        <v>39630</v>
       </c>
       <c r="C127" s="1">
-        <v>136.43665899999999</v>
+        <v>-1.82250599999998</v>
       </c>
       <c r="D127" t="s">
         <v>133</v>
@@ -93373,10 +93373,10 @@
         <v>113</v>
       </c>
       <c r="B128" s="2">
-        <v>39814</v>
+        <v>39722</v>
       </c>
       <c r="C128" s="1">
-        <v>150.62429499999999</v>
+        <v>136.43665899999999</v>
       </c>
       <c r="D128" t="s">
         <v>133</v>
@@ -93387,10 +93387,10 @@
         <v>113</v>
       </c>
       <c r="B129" s="2">
-        <v>39904</v>
+        <v>39814</v>
       </c>
       <c r="C129" s="1">
-        <v>90.918205</v>
+        <v>150.62429499999999</v>
       </c>
       <c r="D129" t="s">
         <v>133</v>
@@ -93401,10 +93401,10 @@
         <v>113</v>
       </c>
       <c r="B130" s="2">
-        <v>39995</v>
+        <v>39904</v>
       </c>
       <c r="C130" s="1">
-        <v>113.11171400000001</v>
+        <v>90.918205</v>
       </c>
       <c r="D130" t="s">
         <v>133</v>
@@ -93415,10 +93415,10 @@
         <v>113</v>
       </c>
       <c r="B131" s="2">
-        <v>40087</v>
+        <v>39995</v>
       </c>
       <c r="C131" s="1">
-        <v>-167.771311</v>
+        <v>113.11171400000001</v>
       </c>
       <c r="D131" t="s">
         <v>133</v>
@@ -93429,10 +93429,10 @@
         <v>113</v>
       </c>
       <c r="B132" s="2">
-        <v>40179</v>
+        <v>40087</v>
       </c>
       <c r="C132" s="1">
-        <v>38.356920000000002</v>
+        <v>-167.771311</v>
       </c>
       <c r="D132" t="s">
         <v>133</v>
@@ -93443,10 +93443,10 @@
         <v>113</v>
       </c>
       <c r="B133" s="2">
-        <v>40269</v>
+        <v>40179</v>
       </c>
       <c r="C133" s="1">
-        <v>88.073937000000001</v>
+        <v>38.356920000000002</v>
       </c>
       <c r="D133" t="s">
         <v>133</v>
@@ -93457,10 +93457,10 @@
         <v>113</v>
       </c>
       <c r="B134" s="2">
-        <v>40360</v>
+        <v>40269</v>
       </c>
       <c r="C134" s="1">
-        <v>241.55914000000001</v>
+        <v>88.073937000000001</v>
       </c>
       <c r="D134" t="s">
         <v>133</v>
@@ -93471,10 +93471,10 @@
         <v>113</v>
       </c>
       <c r="B135" s="2">
-        <v>40452</v>
+        <v>40360</v>
       </c>
       <c r="C135" s="1">
-        <v>55.225392130000003</v>
+        <v>241.55914000000001</v>
       </c>
       <c r="D135" t="s">
         <v>133</v>
@@ -93485,10 +93485,10 @@
         <v>113</v>
       </c>
       <c r="B136" s="2">
-        <v>40544</v>
+        <v>40452</v>
       </c>
       <c r="C136" s="1">
-        <v>25.332747999999999</v>
+        <v>55.225392130000003</v>
       </c>
       <c r="D136" t="s">
         <v>133</v>
@@ -93499,10 +93499,10 @@
         <v>113</v>
       </c>
       <c r="B137" s="2">
-        <v>40634</v>
+        <v>40544</v>
       </c>
       <c r="C137" s="1">
-        <v>107.21753099999999</v>
+        <v>25.332747999999999</v>
       </c>
       <c r="D137" t="s">
         <v>133</v>
@@ -93513,10 +93513,10 @@
         <v>113</v>
       </c>
       <c r="B138" s="2">
-        <v>40725</v>
+        <v>40634</v>
       </c>
       <c r="C138" s="1">
-        <v>-71.340270000000004</v>
+        <v>107.21753099999999</v>
       </c>
       <c r="D138" t="s">
         <v>133</v>
@@ -93527,10 +93527,10 @@
         <v>113</v>
       </c>
       <c r="B139" s="2">
-        <v>40817</v>
+        <v>40725</v>
       </c>
       <c r="C139" s="1">
-        <v>30.663326000000001</v>
+        <v>-71.340270000000004</v>
       </c>
       <c r="D139" t="s">
         <v>133</v>
@@ -93541,10 +93541,10 @@
         <v>113</v>
       </c>
       <c r="B140" s="2">
-        <v>40909</v>
+        <v>40817</v>
       </c>
       <c r="C140" s="1">
-        <v>42.988233889999997</v>
+        <v>30.663326000000001</v>
       </c>
       <c r="D140" t="s">
         <v>133</v>
@@ -93555,10 +93555,10 @@
         <v>113</v>
       </c>
       <c r="B141" s="2">
-        <v>41000</v>
+        <v>40909</v>
       </c>
       <c r="C141" s="1">
-        <v>34.485554370000003</v>
+        <v>42.988233889999997</v>
       </c>
       <c r="D141" t="s">
         <v>133</v>
@@ -93569,10 +93569,10 @@
         <v>113</v>
       </c>
       <c r="B142" s="2">
-        <v>41091</v>
+        <v>41000</v>
       </c>
       <c r="C142" s="1">
-        <v>22.484316629999999</v>
+        <v>34.485554370000003</v>
       </c>
       <c r="D142" t="s">
         <v>133</v>
@@ -93583,10 +93583,10 @@
         <v>113</v>
       </c>
       <c r="B143" s="2">
-        <v>41183</v>
+        <v>41091</v>
       </c>
       <c r="C143" s="1">
-        <v>40.756138999999997</v>
+        <v>22.484316629999999</v>
       </c>
       <c r="D143" t="s">
         <v>133</v>
@@ -93597,10 +93597,10 @@
         <v>113</v>
       </c>
       <c r="B144" s="2">
-        <v>41275</v>
+        <v>41183</v>
       </c>
       <c r="C144" s="1">
-        <v>90.506898419999999</v>
+        <v>40.756138999999997</v>
       </c>
       <c r="D144" t="s">
         <v>133</v>
@@ -93611,10 +93611,10 @@
         <v>113</v>
       </c>
       <c r="B145" s="2">
-        <v>41365</v>
+        <v>41275</v>
       </c>
       <c r="C145" s="1">
-        <v>75.493291350000007</v>
+        <v>90.506898419999999</v>
       </c>
       <c r="D145" t="s">
         <v>133</v>
@@ -93625,10 +93625,10 @@
         <v>113</v>
       </c>
       <c r="B146" s="2">
-        <v>41456</v>
+        <v>41365</v>
       </c>
       <c r="C146" s="1">
-        <v>100.8861387</v>
+        <v>75.493291350000007</v>
       </c>
       <c r="D146" t="s">
         <v>133</v>
@@ -93639,10 +93639,10 @@
         <v>113</v>
       </c>
       <c r="B147" s="2">
-        <v>41548</v>
+        <v>41456</v>
       </c>
       <c r="C147" s="1">
-        <v>41.759126899999998</v>
+        <v>100.88613872000001</v>
       </c>
       <c r="D147" t="s">
         <v>133</v>
@@ -93653,10 +93653,10 @@
         <v>113</v>
       </c>
       <c r="B148" s="2">
-        <v>41640</v>
+        <v>41548</v>
       </c>
       <c r="C148" s="1">
-        <v>49.412751919999998</v>
+        <v>41.759126899999998</v>
       </c>
       <c r="D148" t="s">
         <v>133</v>
@@ -93667,10 +93667,10 @@
         <v>113</v>
       </c>
       <c r="B149" s="2">
-        <v>41730</v>
+        <v>41640</v>
       </c>
       <c r="C149" s="1">
-        <v>-168.96485659999999</v>
+        <v>49.412751919999998</v>
       </c>
       <c r="D149" t="s">
         <v>133</v>
@@ -93681,10 +93681,10 @@
         <v>113</v>
       </c>
       <c r="B150" s="2">
-        <v>41821</v>
+        <v>41730</v>
       </c>
       <c r="C150" s="1">
-        <v>53.302174739999998</v>
+        <v>-168.96485659999999</v>
       </c>
       <c r="D150" t="s">
         <v>133</v>
@@ -93695,10 +93695,10 @@
         <v>113</v>
       </c>
       <c r="B151" s="2">
-        <v>41913</v>
+        <v>41821</v>
       </c>
       <c r="C151" s="1">
-        <v>105.5287831</v>
+        <v>53.302174739999998</v>
       </c>
       <c r="D151" t="s">
         <v>133</v>
@@ -93709,10 +93709,10 @@
         <v>113</v>
       </c>
       <c r="B152" s="2">
-        <v>42005</v>
+        <v>41913</v>
       </c>
       <c r="C152" s="1">
-        <v>38.48841711</v>
+        <v>105.5287831</v>
       </c>
       <c r="D152" t="s">
         <v>133</v>
@@ -93723,10 +93723,10 @@
         <v>113</v>
       </c>
       <c r="B153" s="2">
-        <v>42095</v>
+        <v>42005</v>
       </c>
       <c r="C153" s="1">
-        <v>20.930662000000002</v>
+        <v>38.48841711</v>
       </c>
       <c r="D153" t="s">
         <v>133</v>
@@ -93737,10 +93737,10 @@
         <v>113</v>
       </c>
       <c r="B154" s="2">
-        <v>42186</v>
+        <v>42095</v>
       </c>
       <c r="C154" s="1">
-        <v>34.547607999999997</v>
+        <v>20.930662000000002</v>
       </c>
       <c r="D154" t="s">
         <v>133</v>
@@ -93751,10 +93751,10 @@
         <v>113</v>
       </c>
       <c r="B155" s="2">
-        <v>42278</v>
+        <v>42186</v>
       </c>
       <c r="C155" s="1">
-        <v>39.132633609999999</v>
+        <v>34.547607999999997</v>
       </c>
       <c r="D155" t="s">
         <v>133</v>
@@ -93765,10 +93765,10 @@
         <v>113</v>
       </c>
       <c r="B156" s="2">
-        <v>42370</v>
+        <v>42278</v>
       </c>
       <c r="C156" s="1">
-        <v>154.73856050000001</v>
+        <v>39.132633609999999</v>
       </c>
       <c r="D156" t="s">
         <v>133</v>
@@ -93779,10 +93779,10 @@
         <v>113</v>
       </c>
       <c r="B157" s="2">
-        <v>42461</v>
+        <v>42370</v>
       </c>
       <c r="C157" s="1">
-        <v>147.7311871</v>
+        <v>154.73856044999999</v>
       </c>
       <c r="D157" t="s">
         <v>133</v>
@@ -93793,10 +93793,10 @@
         <v>113</v>
       </c>
       <c r="B158" s="2">
-        <v>42552</v>
+        <v>42461</v>
       </c>
       <c r="C158" s="1">
-        <v>-21.99493258</v>
+        <v>147.73118711000001</v>
       </c>
       <c r="D158" t="s">
         <v>133</v>
@@ -93807,10 +93807,10 @@
         <v>113</v>
       </c>
       <c r="B159" s="2">
-        <v>42644</v>
+        <v>42552</v>
       </c>
       <c r="C159" s="1">
-        <v>-18.07753808</v>
+        <v>-21.99493258</v>
       </c>
       <c r="D159" t="s">
         <v>133</v>
@@ -93821,10 +93821,10 @@
         <v>113</v>
       </c>
       <c r="B160" s="2">
-        <v>42736</v>
+        <v>42644</v>
       </c>
       <c r="C160" s="1">
-        <v>-17.698147989999999</v>
+        <v>-18.07753808</v>
       </c>
       <c r="D160" t="s">
         <v>133</v>
@@ -93835,10 +93835,10 @@
         <v>113</v>
       </c>
       <c r="B161" s="2">
-        <v>42826</v>
+        <v>42736</v>
       </c>
       <c r="C161" s="1">
-        <v>11.193113840000001</v>
+        <v>-17.698147989999999</v>
       </c>
       <c r="D161" t="s">
         <v>133</v>
@@ -93849,10 +93849,10 @@
         <v>113</v>
       </c>
       <c r="B162" s="2">
-        <v>42917</v>
+        <v>42826</v>
       </c>
       <c r="C162" s="1">
-        <v>8.8968669699999996</v>
+        <v>11.193113840000001</v>
       </c>
       <c r="D162" t="s">
         <v>133</v>
@@ -93863,10 +93863,10 @@
         <v>113</v>
       </c>
       <c r="B163" s="2">
-        <v>43009</v>
+        <v>42917</v>
       </c>
       <c r="C163" s="1">
-        <v>44.056273959999999</v>
+        <v>8.8968669699999996</v>
       </c>
       <c r="D163" t="s">
         <v>133</v>
@@ -93877,10 +93877,10 @@
         <v>113</v>
       </c>
       <c r="B164" s="2">
-        <v>43101</v>
+        <v>43009</v>
       </c>
       <c r="C164" s="1">
-        <v>110.99698739999999</v>
+        <v>44.056273959999999</v>
       </c>
       <c r="D164" t="s">
         <v>133</v>
@@ -93891,10 +93891,10 @@
         <v>113</v>
       </c>
       <c r="B165" s="2">
-        <v>43191</v>
+        <v>43101</v>
       </c>
       <c r="C165" s="1">
-        <v>49.795634700000001</v>
+        <v>110.99698742</v>
       </c>
       <c r="D165" t="s">
         <v>133</v>
@@ -93905,10 +93905,10 @@
         <v>113</v>
       </c>
       <c r="B166" s="2">
-        <v>43282</v>
+        <v>43191</v>
       </c>
       <c r="C166" s="1">
-        <v>-18.528992550000002</v>
+        <v>49.795634700000001</v>
       </c>
       <c r="D166" t="s">
         <v>133</v>
@@ -93919,10 +93919,10 @@
         <v>113</v>
       </c>
       <c r="B167" s="2">
-        <v>43374</v>
+        <v>43282</v>
       </c>
       <c r="C167" s="1">
-        <v>95.98911914</v>
+        <v>-18.528992550000002</v>
       </c>
       <c r="D167" t="s">
         <v>133</v>
@@ -93933,10 +93933,10 @@
         <v>113</v>
       </c>
       <c r="B168" s="2">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="C168" s="1">
-        <v>76.618677640000001</v>
+        <v>95.98911914</v>
       </c>
       <c r="D168" t="s">
         <v>133</v>
@@ -93947,10 +93947,10 @@
         <v>113</v>
       </c>
       <c r="B169" s="2">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="C169" s="1">
-        <v>24.28454056</v>
+        <v>76.618677640000001</v>
       </c>
       <c r="D169" t="s">
         <v>133</v>
@@ -93961,10 +93961,10 @@
         <v>113</v>
       </c>
       <c r="B170" s="2">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="C170" s="1">
-        <v>19.350123150000002</v>
+        <v>24.28454056</v>
       </c>
       <c r="D170" t="s">
         <v>133</v>
@@ -93975,10 +93975,10 @@
         <v>113</v>
       </c>
       <c r="B171" s="2">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="C171" s="1">
-        <v>6.7639555800000002</v>
+        <v>19.350123150000002</v>
       </c>
       <c r="D171" t="s">
         <v>133</v>
@@ -93989,10 +93989,10 @@
         <v>113</v>
       </c>
       <c r="B172" s="2">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="C172" s="1">
-        <v>79.221580209999999</v>
+        <v>6.7639555800000002</v>
       </c>
       <c r="D172" t="s">
         <v>133</v>
@@ -94003,12 +94003,40 @@
         <v>113</v>
       </c>
       <c r="B173" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C173" s="1">
+        <v>84.634219669999993</v>
+      </c>
+      <c r="D173" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>113</v>
+      </c>
+      <c r="B174" s="2">
         <v>43922</v>
       </c>
-      <c r="C173" s="1">
-        <v>110.1369456</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="C174" s="1">
+        <v>111.10784296999999</v>
+      </c>
+      <c r="D174" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>113</v>
+      </c>
+      <c r="B175" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C175" s="1">
+        <v>-43.650501230000003</v>
+      </c>
+      <c r="D175" t="s">
         <v>133</v>
       </c>
     </row>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12929" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12930" uniqueCount="135">
   <si>
     <t>Sección</t>
   </si>
@@ -91408,7 +91408,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -92014,6 +92014,17 @@
       </c>
       <c r="C55" s="1">
         <v>2379739</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2572456</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12995" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12734" uniqueCount="139">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/18/2021</t>
+    <t xml:space="preserve"> 02/11/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -443,13 +443,10 @@
     <t>Miles de pesos</t>
   </si>
   <si>
-    <t>cifras</t>
+    <t>Inversión extranjera directa, cifras preliminares</t>
   </si>
   <si>
-    <t>Preliminares</t>
-  </si>
-  <si>
-    <t>Revisadas</t>
+    <t>Inversión extranjera directa, cifras revisadas</t>
   </si>
 </sst>
 </file>
@@ -93058,7 +93055,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D88"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -93069,10 +93066,10 @@
         <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
@@ -93085,8 +93082,8 @@
       <c r="C2" s="4">
         <v>25.830188</v>
       </c>
-      <c r="D2" t="s">
-        <v>138</v>
+      <c r="D2" s="4">
+        <v>25.830188</v>
       </c>
     </row>
     <row r="3">
@@ -93099,8 +93096,8 @@
       <c r="C3" s="4">
         <v>81.291089999999997</v>
       </c>
-      <c r="D3" t="s">
-        <v>138</v>
+      <c r="D3" s="4">
+        <v>81.291089999999997</v>
       </c>
     </row>
     <row r="4">
@@ -93113,8 +93110,8 @@
       <c r="C4" s="4">
         <v>96.165655999999998</v>
       </c>
-      <c r="D4" t="s">
-        <v>138</v>
+      <c r="D4" s="4">
+        <v>96.165655999999998</v>
       </c>
     </row>
     <row r="5">
@@ -93127,8 +93124,8 @@
       <c r="C5" s="4">
         <v>87.421719999999993</v>
       </c>
-      <c r="D5" t="s">
-        <v>138</v>
+      <c r="D5" s="4">
+        <v>87.421719999999993</v>
       </c>
     </row>
     <row r="6">
@@ -93141,8 +93138,8 @@
       <c r="C6" s="4">
         <v>73.656339000000003</v>
       </c>
-      <c r="D6" t="s">
-        <v>138</v>
+      <c r="D6" s="4">
+        <v>73.656339000000003</v>
       </c>
     </row>
     <row r="7">
@@ -93155,8 +93152,8 @@
       <c r="C7" s="4">
         <v>52.150294000000002</v>
       </c>
-      <c r="D7" t="s">
-        <v>138</v>
+      <c r="D7" s="4">
+        <v>52.150294000000002</v>
       </c>
     </row>
     <row r="8">
@@ -93169,8 +93166,8 @@
       <c r="C8" s="4">
         <v>106.96198800000001</v>
       </c>
-      <c r="D8" t="s">
-        <v>138</v>
+      <c r="D8" s="4">
+        <v>106.96198800000001</v>
       </c>
     </row>
     <row r="9">
@@ -93183,8 +93180,8 @@
       <c r="C9" s="4">
         <v>55.866529999999997</v>
       </c>
-      <c r="D9" t="s">
-        <v>138</v>
+      <c r="D9" s="4">
+        <v>55.866529999999997</v>
       </c>
     </row>
     <row r="10">
@@ -93197,8 +93194,8 @@
       <c r="C10" s="4">
         <v>111.044776</v>
       </c>
-      <c r="D10" t="s">
-        <v>138</v>
+      <c r="D10" s="4">
+        <v>111.044776</v>
       </c>
     </row>
     <row r="11">
@@ -93211,8 +93208,8 @@
       <c r="C11" s="4">
         <v>26.406939000000001</v>
       </c>
-      <c r="D11" t="s">
-        <v>138</v>
+      <c r="D11" s="4">
+        <v>26.406939000000001</v>
       </c>
     </row>
     <row r="12">
@@ -93225,8 +93222,8 @@
       <c r="C12" s="4">
         <v>55.853051000000001</v>
       </c>
-      <c r="D12" t="s">
-        <v>138</v>
+      <c r="D12" s="4">
+        <v>55.853051000000001</v>
       </c>
     </row>
     <row r="13">
@@ -93239,8 +93236,8 @@
       <c r="C13" s="4">
         <v>193.65250900000001</v>
       </c>
-      <c r="D13" t="s">
-        <v>138</v>
+      <c r="D13" s="4">
+        <v>193.65250900000001</v>
       </c>
     </row>
     <row r="14">
@@ -93253,8 +93250,8 @@
       <c r="C14" s="4">
         <v>-6.2241619999999998</v>
       </c>
-      <c r="D14" t="s">
-        <v>138</v>
+      <c r="D14" s="4">
+        <v>-6.2241619999999998</v>
       </c>
     </row>
     <row r="15">
@@ -93267,8 +93264,8 @@
       <c r="C15" s="4">
         <v>32.163097</v>
       </c>
-      <c r="D15" t="s">
-        <v>138</v>
+      <c r="D15" s="4">
+        <v>32.163097</v>
       </c>
     </row>
     <row r="16">
@@ -93281,8 +93278,8 @@
       <c r="C16" s="4">
         <v>27.891642000000001</v>
       </c>
-      <c r="D16" t="s">
-        <v>138</v>
+      <c r="D16" s="4">
+        <v>27.891642000000001</v>
       </c>
     </row>
     <row r="17">
@@ -93295,8 +93292,8 @@
       <c r="C17" s="4">
         <v>19.941931</v>
       </c>
-      <c r="D17" t="s">
-        <v>138</v>
+      <c r="D17" s="4">
+        <v>19.941931</v>
       </c>
     </row>
     <row r="18">
@@ -93309,8 +93306,8 @@
       <c r="C18" s="4">
         <v>71.769583999999995</v>
       </c>
-      <c r="D18" t="s">
-        <v>138</v>
+      <c r="D18" s="4">
+        <v>71.769583999999995</v>
       </c>
     </row>
     <row r="19">
@@ -93323,8 +93320,8 @@
       <c r="C19" s="4">
         <v>11.460283</v>
       </c>
-      <c r="D19" t="s">
-        <v>138</v>
+      <c r="D19" s="4">
+        <v>11.460283</v>
       </c>
     </row>
     <row r="20">
@@ -93337,8 +93334,8 @@
       <c r="C20" s="4">
         <v>26.810509</v>
       </c>
-      <c r="D20" t="s">
-        <v>138</v>
+      <c r="D20" s="4">
+        <v>26.810509</v>
       </c>
     </row>
     <row r="21">
@@ -93351,8 +93348,8 @@
       <c r="C21" s="4">
         <v>-10.716157000000001</v>
       </c>
-      <c r="D21" t="s">
-        <v>138</v>
+      <c r="D21" s="4">
+        <v>-10.716157000000001</v>
       </c>
     </row>
     <row r="22">
@@ -93365,8 +93362,8 @@
       <c r="C22" s="4">
         <v>34.712980999999999</v>
       </c>
-      <c r="D22" t="s">
-        <v>138</v>
+      <c r="D22" s="4">
+        <v>34.712980999999999</v>
       </c>
     </row>
     <row r="23">
@@ -93379,8 +93376,8 @@
       <c r="C23" s="4">
         <v>68.545222999999993</v>
       </c>
-      <c r="D23" t="s">
-        <v>138</v>
+      <c r="D23" s="4">
+        <v>68.545222999999993</v>
       </c>
     </row>
     <row r="24">
@@ -93393,8 +93390,8 @@
       <c r="C24" s="4">
         <v>-20.971969999999999</v>
       </c>
-      <c r="D24" t="s">
-        <v>138</v>
+      <c r="D24" s="4">
+        <v>-20.971969999999999</v>
       </c>
     </row>
     <row r="25">
@@ -93407,8 +93404,8 @@
       <c r="C25" s="4">
         <v>21.862244</v>
       </c>
-      <c r="D25" t="s">
-        <v>138</v>
+      <c r="D25" s="4">
+        <v>21.862244</v>
       </c>
     </row>
     <row r="26">
@@ -93421,8 +93418,8 @@
       <c r="C26" s="4">
         <v>15.255686000000001</v>
       </c>
-      <c r="D26" t="s">
-        <v>138</v>
+      <c r="D26" s="4">
+        <v>15.255686000000001</v>
       </c>
     </row>
     <row r="27">
@@ -93435,8 +93432,8 @@
       <c r="C27" s="4">
         <v>142.419645</v>
       </c>
-      <c r="D27" t="s">
-        <v>138</v>
+      <c r="D27" s="4">
+        <v>142.419645</v>
       </c>
     </row>
     <row r="28">
@@ -93449,8 +93446,8 @@
       <c r="C28" s="4">
         <v>33.889707000000001</v>
       </c>
-      <c r="D28" t="s">
-        <v>138</v>
+      <c r="D28" s="4">
+        <v>33.889707000000001</v>
       </c>
     </row>
     <row r="29">
@@ -93463,8 +93460,8 @@
       <c r="C29" s="4">
         <v>0.63599399999999995</v>
       </c>
-      <c r="D29" t="s">
-        <v>138</v>
+      <c r="D29" s="4">
+        <v>0.63599399999999795</v>
       </c>
     </row>
     <row r="30">
@@ -93477,8 +93474,8 @@
       <c r="C30" s="4">
         <v>13.078110000000001</v>
       </c>
-      <c r="D30" t="s">
-        <v>138</v>
+      <c r="D30" s="4">
+        <v>13.078110000000001</v>
       </c>
     </row>
     <row r="31">
@@ -93491,8 +93488,8 @@
       <c r="C31" s="4">
         <v>138.40542400000001</v>
       </c>
-      <c r="D31" t="s">
-        <v>138</v>
+      <c r="D31" s="4">
+        <v>138.40542400000001</v>
       </c>
     </row>
     <row r="32">
@@ -93505,8 +93502,8 @@
       <c r="C32" s="4">
         <v>-17.017171000000001</v>
       </c>
-      <c r="D32" t="s">
-        <v>138</v>
+      <c r="D32" s="4">
+        <v>-17.017171000000001</v>
       </c>
     </row>
     <row r="33">
@@ -93519,8 +93516,8 @@
       <c r="C33" s="4">
         <v>20.382918</v>
       </c>
-      <c r="D33" t="s">
-        <v>138</v>
+      <c r="D33" s="4">
+        <v>20.382918</v>
       </c>
     </row>
     <row r="34">
@@ -93533,8 +93530,8 @@
       <c r="C34" s="4">
         <v>48.069566999999999</v>
       </c>
-      <c r="D34" t="s">
-        <v>138</v>
+      <c r="D34" s="4">
+        <v>48.069566999999999</v>
       </c>
     </row>
     <row r="35">
@@ -93547,8 +93544,8 @@
       <c r="C35" s="4">
         <v>18.610693999999999</v>
       </c>
-      <c r="D35" t="s">
-        <v>138</v>
+      <c r="D35" s="4">
+        <v>18.610693999999999</v>
       </c>
     </row>
     <row r="36">
@@ -93561,8 +93558,8 @@
       <c r="C36" s="4">
         <v>14.284140000000001</v>
       </c>
-      <c r="D36" t="s">
-        <v>138</v>
+      <c r="D36" s="4">
+        <v>14.284140000000001</v>
       </c>
     </row>
     <row r="37">
@@ -93575,8 +93572,8 @@
       <c r="C37" s="4">
         <v>52.699478999999997</v>
       </c>
-      <c r="D37" t="s">
-        <v>138</v>
+      <c r="D37" s="4">
+        <v>52.699478999999997</v>
       </c>
     </row>
     <row r="38">
@@ -93589,8 +93586,8 @@
       <c r="C38" s="4">
         <v>-31.090745999999999</v>
       </c>
-      <c r="D38" t="s">
-        <v>138</v>
+      <c r="D38" s="4">
+        <v>-31.090745999999999</v>
       </c>
     </row>
     <row r="39">
@@ -93603,8 +93600,8 @@
       <c r="C39" s="4">
         <v>42.924930000000003</v>
       </c>
-      <c r="D39" t="s">
-        <v>138</v>
+      <c r="D39" s="4">
+        <v>42.924930000000003</v>
       </c>
     </row>
     <row r="40">
@@ -93617,8 +93614,8 @@
       <c r="C40" s="4">
         <v>-1.822506</v>
       </c>
-      <c r="D40" t="s">
-        <v>138</v>
+      <c r="D40" s="4">
+        <v>-1.82250599999998</v>
       </c>
     </row>
     <row r="41">
@@ -93631,8 +93628,8 @@
       <c r="C41" s="4">
         <v>136.43665899999999</v>
       </c>
-      <c r="D41" t="s">
-        <v>138</v>
+      <c r="D41" s="4">
+        <v>136.43665899999999</v>
       </c>
     </row>
     <row r="42">
@@ -93645,8 +93642,8 @@
       <c r="C42" s="4">
         <v>150.62429499999999</v>
       </c>
-      <c r="D42" t="s">
-        <v>138</v>
+      <c r="D42" s="4">
+        <v>150.62429499999999</v>
       </c>
     </row>
     <row r="43">
@@ -93659,8 +93656,8 @@
       <c r="C43" s="4">
         <v>90.918205</v>
       </c>
-      <c r="D43" t="s">
-        <v>138</v>
+      <c r="D43" s="4">
+        <v>90.918205</v>
       </c>
     </row>
     <row r="44">
@@ -93673,8 +93670,8 @@
       <c r="C44" s="4">
         <v>113.11171400000001</v>
       </c>
-      <c r="D44" t="s">
-        <v>138</v>
+      <c r="D44" s="4">
+        <v>113.11171400000001</v>
       </c>
     </row>
     <row r="45">
@@ -93687,8 +93684,8 @@
       <c r="C45" s="4">
         <v>-167.771311</v>
       </c>
-      <c r="D45" t="s">
-        <v>138</v>
+      <c r="D45" s="4">
+        <v>-167.771311</v>
       </c>
     </row>
     <row r="46">
@@ -93701,8 +93698,8 @@
       <c r="C46" s="4">
         <v>38.356920000000002</v>
       </c>
-      <c r="D46" t="s">
-        <v>138</v>
+      <c r="D46" s="4">
+        <v>38.356920000000002</v>
       </c>
     </row>
     <row r="47">
@@ -93715,8 +93712,8 @@
       <c r="C47" s="4">
         <v>88.073937000000001</v>
       </c>
-      <c r="D47" t="s">
-        <v>138</v>
+      <c r="D47" s="4">
+        <v>88.073937000000001</v>
       </c>
     </row>
     <row r="48">
@@ -93729,8 +93726,8 @@
       <c r="C48" s="4">
         <v>241.55914000000001</v>
       </c>
-      <c r="D48" t="s">
-        <v>138</v>
+      <c r="D48" s="4">
+        <v>241.55914000000001</v>
       </c>
     </row>
     <row r="49">
@@ -93743,8 +93740,8 @@
       <c r="C49" s="4">
         <v>55.225392130000003</v>
       </c>
-      <c r="D49" t="s">
-        <v>138</v>
+      <c r="D49" s="4">
+        <v>55.225392130000003</v>
       </c>
     </row>
     <row r="50">
@@ -93757,8 +93754,8 @@
       <c r="C50" s="4">
         <v>25.332747999999999</v>
       </c>
-      <c r="D50" t="s">
-        <v>138</v>
+      <c r="D50" s="4">
+        <v>25.332747999999999</v>
       </c>
     </row>
     <row r="51">
@@ -93771,8 +93768,8 @@
       <c r="C51" s="4">
         <v>107.21753099999999</v>
       </c>
-      <c r="D51" t="s">
-        <v>138</v>
+      <c r="D51" s="4">
+        <v>107.21753099999999</v>
       </c>
     </row>
     <row r="52">
@@ -93785,8 +93782,8 @@
       <c r="C52" s="4">
         <v>-71.340270000000004</v>
       </c>
-      <c r="D52" t="s">
-        <v>138</v>
+      <c r="D52" s="4">
+        <v>-71.340270000000004</v>
       </c>
     </row>
     <row r="53">
@@ -93799,8 +93796,8 @@
       <c r="C53" s="4">
         <v>30.663326000000001</v>
       </c>
-      <c r="D53" t="s">
-        <v>138</v>
+      <c r="D53" s="4">
+        <v>30.663326000000001</v>
       </c>
     </row>
     <row r="54">
@@ -93813,8 +93810,8 @@
       <c r="C54" s="4">
         <v>42.988233889999997</v>
       </c>
-      <c r="D54" t="s">
-        <v>138</v>
+      <c r="D54" s="4">
+        <v>42.988233889999997</v>
       </c>
     </row>
     <row r="55">
@@ -93827,8 +93824,8 @@
       <c r="C55" s="4">
         <v>34.485554370000003</v>
       </c>
-      <c r="D55" t="s">
-        <v>138</v>
+      <c r="D55" s="4">
+        <v>34.485554370000003</v>
       </c>
     </row>
     <row r="56">
@@ -93841,8 +93838,8 @@
       <c r="C56" s="4">
         <v>22.484316629999999</v>
       </c>
-      <c r="D56" t="s">
-        <v>138</v>
+      <c r="D56" s="4">
+        <v>22.484316629999999</v>
       </c>
     </row>
     <row r="57">
@@ -93855,8 +93852,8 @@
       <c r="C57" s="4">
         <v>40.756138999999997</v>
       </c>
-      <c r="D57" t="s">
-        <v>138</v>
+      <c r="D57" s="4">
+        <v>40.756138999999997</v>
       </c>
     </row>
     <row r="58">
@@ -93869,8 +93866,8 @@
       <c r="C58" s="4">
         <v>90.506898419999999</v>
       </c>
-      <c r="D58" t="s">
-        <v>138</v>
+      <c r="D58" s="4">
+        <v>90.506898419999999</v>
       </c>
     </row>
     <row r="59">
@@ -93883,8 +93880,8 @@
       <c r="C59" s="4">
         <v>75.493291350000007</v>
       </c>
-      <c r="D59" t="s">
-        <v>138</v>
+      <c r="D59" s="4">
+        <v>75.493291350000007</v>
       </c>
     </row>
     <row r="60">
@@ -93897,8 +93894,8 @@
       <c r="C60" s="4">
         <v>100.8861387</v>
       </c>
-      <c r="D60" t="s">
-        <v>138</v>
+      <c r="D60" s="4">
+        <v>100.88613872000001</v>
       </c>
     </row>
     <row r="61">
@@ -93911,8 +93908,8 @@
       <c r="C61" s="4">
         <v>41.759126899999998</v>
       </c>
-      <c r="D61" t="s">
-        <v>138</v>
+      <c r="D61" s="4">
+        <v>41.759126899999998</v>
       </c>
     </row>
     <row r="62">
@@ -93925,8 +93922,8 @@
       <c r="C62" s="4">
         <v>49.412751919999998</v>
       </c>
-      <c r="D62" t="s">
-        <v>138</v>
+      <c r="D62" s="4">
+        <v>49.412751919999998</v>
       </c>
     </row>
     <row r="63">
@@ -93939,8 +93936,8 @@
       <c r="C63" s="4">
         <v>-168.96485659999999</v>
       </c>
-      <c r="D63" t="s">
-        <v>138</v>
+      <c r="D63" s="4">
+        <v>-168.96485659999999</v>
       </c>
     </row>
     <row r="64">
@@ -93953,8 +93950,8 @@
       <c r="C64" s="4">
         <v>53.302174739999998</v>
       </c>
-      <c r="D64" t="s">
-        <v>138</v>
+      <c r="D64" s="4">
+        <v>53.302174739999998</v>
       </c>
     </row>
     <row r="65">
@@ -93967,8 +93964,8 @@
       <c r="C65" s="4">
         <v>105.5287831</v>
       </c>
-      <c r="D65" t="s">
-        <v>138</v>
+      <c r="D65" s="4">
+        <v>105.5287831</v>
       </c>
     </row>
     <row r="66">
@@ -93981,8 +93978,8 @@
       <c r="C66" s="4">
         <v>38.48841711</v>
       </c>
-      <c r="D66" t="s">
-        <v>138</v>
+      <c r="D66" s="4">
+        <v>38.48841711</v>
       </c>
     </row>
     <row r="67">
@@ -93995,8 +93992,8 @@
       <c r="C67" s="4">
         <v>20.930662000000002</v>
       </c>
-      <c r="D67" t="s">
-        <v>138</v>
+      <c r="D67" s="4">
+        <v>20.930662000000002</v>
       </c>
     </row>
     <row r="68">
@@ -94009,8 +94006,8 @@
       <c r="C68" s="4">
         <v>34.547607999999997</v>
       </c>
-      <c r="D68" t="s">
-        <v>138</v>
+      <c r="D68" s="4">
+        <v>34.547607999999997</v>
       </c>
     </row>
     <row r="69">
@@ -94023,8 +94020,8 @@
       <c r="C69" s="4">
         <v>39.132633609999999</v>
       </c>
-      <c r="D69" t="s">
-        <v>138</v>
+      <c r="D69" s="4">
+        <v>39.132633609999999</v>
       </c>
     </row>
     <row r="70">
@@ -94037,8 +94034,8 @@
       <c r="C70" s="4">
         <v>154.73856050000001</v>
       </c>
-      <c r="D70" t="s">
-        <v>138</v>
+      <c r="D70" s="4">
+        <v>154.73856044999999</v>
       </c>
     </row>
     <row r="71">
@@ -94051,8 +94048,8 @@
       <c r="C71" s="4">
         <v>147.7311871</v>
       </c>
-      <c r="D71" t="s">
-        <v>138</v>
+      <c r="D71" s="4">
+        <v>147.73118711000001</v>
       </c>
     </row>
     <row r="72">
@@ -94065,8 +94062,8 @@
       <c r="C72" s="4">
         <v>-21.99493258</v>
       </c>
-      <c r="D72" t="s">
-        <v>138</v>
+      <c r="D72" s="4">
+        <v>-21.99493258</v>
       </c>
     </row>
     <row r="73">
@@ -94079,8 +94076,8 @@
       <c r="C73" s="4">
         <v>-18.07753808</v>
       </c>
-      <c r="D73" t="s">
-        <v>138</v>
+      <c r="D73" s="4">
+        <v>-18.07753808</v>
       </c>
     </row>
     <row r="74">
@@ -94093,8 +94090,8 @@
       <c r="C74" s="4">
         <v>24.114299689999999</v>
       </c>
-      <c r="D74" t="s">
-        <v>138</v>
+      <c r="D74" s="4">
+        <v>-17.698147989999999</v>
       </c>
     </row>
     <row r="75">
@@ -94107,8 +94104,8 @@
       <c r="C75" s="4">
         <v>1.24752912</v>
       </c>
-      <c r="D75" t="s">
-        <v>138</v>
+      <c r="D75" s="4">
+        <v>11.193113840000001</v>
       </c>
     </row>
     <row r="76">
@@ -94121,8 +94118,8 @@
       <c r="C76" s="4">
         <v>12.851929030000001</v>
       </c>
-      <c r="D76" t="s">
-        <v>138</v>
+      <c r="D76" s="4">
+        <v>8.8968669699999996</v>
       </c>
     </row>
     <row r="77">
@@ -94135,8 +94132,8 @@
       <c r="C77" s="4">
         <v>47.647475149999998</v>
       </c>
-      <c r="D77" t="s">
-        <v>138</v>
+      <c r="D77" s="4">
+        <v>44.056273959999999</v>
       </c>
     </row>
     <row r="78">
@@ -94149,8 +94146,8 @@
       <c r="C78" s="4">
         <v>106.47428619999999</v>
       </c>
-      <c r="D78" t="s">
-        <v>138</v>
+      <c r="D78" s="4">
+        <v>110.99698742</v>
       </c>
     </row>
     <row r="79">
@@ -94163,8 +94160,8 @@
       <c r="C79" s="4">
         <v>37.724342630000002</v>
       </c>
-      <c r="D79" t="s">
-        <v>138</v>
+      <c r="D79" s="4">
+        <v>49.795634700000001</v>
       </c>
     </row>
     <row r="80">
@@ -94177,8 +94174,8 @@
       <c r="C80" s="4">
         <v>-11.798475</v>
       </c>
-      <c r="D80" t="s">
-        <v>138</v>
+      <c r="D80" s="4">
+        <v>-18.528992550000002</v>
       </c>
     </row>
     <row r="81">
@@ -94191,8 +94188,8 @@
       <c r="C81" s="4">
         <v>78.531758300000007</v>
       </c>
-      <c r="D81" t="s">
-        <v>138</v>
+      <c r="D81" s="4">
+        <v>95.98911914</v>
       </c>
     </row>
     <row r="82">
@@ -94205,8 +94202,8 @@
       <c r="C82" s="4">
         <v>68.950922109999993</v>
       </c>
-      <c r="D82" t="s">
-        <v>138</v>
+      <c r="D82" s="4">
+        <v>76.618677640000001</v>
       </c>
     </row>
     <row r="83">
@@ -94219,8 +94216,8 @@
       <c r="C83" s="4">
         <v>48.503736510000003</v>
       </c>
-      <c r="D83" t="s">
-        <v>138</v>
+      <c r="D83" s="4">
+        <v>24.28454056</v>
       </c>
     </row>
     <row r="84">
@@ -94233,8 +94230,8 @@
       <c r="C84" s="4">
         <v>16.188561809999999</v>
       </c>
-      <c r="D84" t="s">
-        <v>138</v>
+      <c r="D84" s="4">
+        <v>19.350123150000002</v>
       </c>
     </row>
     <row r="85">
@@ -94247,8 +94244,8 @@
       <c r="C85" s="4">
         <v>6.7639555800000002</v>
       </c>
-      <c r="D85" t="s">
-        <v>138</v>
+      <c r="D85" s="4">
+        <v>6.7639555800000002</v>
       </c>
     </row>
     <row r="86">
@@ -94261,8 +94258,8 @@
       <c r="C86" s="4">
         <v>79.203450309999994</v>
       </c>
-      <c r="D86" t="s">
-        <v>138</v>
+      <c r="D86" s="4">
+        <v>84.634219669999993</v>
       </c>
     </row>
     <row r="87">
@@ -94275,8 +94272,8 @@
       <c r="C87" s="4">
         <v>110.1369456</v>
       </c>
-      <c r="D87" t="s">
-        <v>138</v>
+      <c r="D87" s="4">
+        <v>111.10784296999999</v>
       </c>
     </row>
     <row r="88">
@@ -94289,1226 +94286,8 @@
       <c r="C88" s="4">
         <v>-43.650501230000003</v>
       </c>
-      <c r="D88" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="5">
-        <v>36161</v>
-      </c>
-      <c r="C89" s="4">
-        <v>25.830188</v>
-      </c>
-      <c r="D89" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>119</v>
-      </c>
-      <c r="B90" s="5">
-        <v>36251</v>
-      </c>
-      <c r="C90" s="4">
-        <v>81.291089999999997</v>
-      </c>
-      <c r="D90" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>119</v>
-      </c>
-      <c r="B91" s="5">
-        <v>36342</v>
-      </c>
-      <c r="C91" s="4">
-        <v>96.165655999999998</v>
-      </c>
-      <c r="D91" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>119</v>
-      </c>
-      <c r="B92" s="5">
-        <v>36434</v>
-      </c>
-      <c r="C92" s="4">
-        <v>87.421719999999993</v>
-      </c>
-      <c r="D92" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>119</v>
-      </c>
-      <c r="B93" s="5">
-        <v>36526</v>
-      </c>
-      <c r="C93" s="4">
-        <v>73.656339000000003</v>
-      </c>
-      <c r="D93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" s="5">
-        <v>36617</v>
-      </c>
-      <c r="C94" s="4">
-        <v>52.150294000000002</v>
-      </c>
-      <c r="D94" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>119</v>
-      </c>
-      <c r="B95" s="5">
-        <v>36708</v>
-      </c>
-      <c r="C95" s="4">
-        <v>106.96198800000001</v>
-      </c>
-      <c r="D95" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>119</v>
-      </c>
-      <c r="B96" s="5">
-        <v>36800</v>
-      </c>
-      <c r="C96" s="4">
-        <v>55.866529999999997</v>
-      </c>
-      <c r="D96" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>119</v>
-      </c>
-      <c r="B97" s="5">
-        <v>36892</v>
-      </c>
-      <c r="C97" s="4">
-        <v>111.044776</v>
-      </c>
-      <c r="D97" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>119</v>
-      </c>
-      <c r="B98" s="5">
-        <v>36982</v>
-      </c>
-      <c r="C98" s="4">
-        <v>26.406939000000001</v>
-      </c>
-      <c r="D98" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>119</v>
-      </c>
-      <c r="B99" s="5">
-        <v>37073</v>
-      </c>
-      <c r="C99" s="4">
-        <v>55.853051000000001</v>
-      </c>
-      <c r="D99" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>119</v>
-      </c>
-      <c r="B100" s="5">
-        <v>37165</v>
-      </c>
-      <c r="C100" s="4">
-        <v>193.65250900000001</v>
-      </c>
-      <c r="D100" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>119</v>
-      </c>
-      <c r="B101" s="5">
-        <v>37257</v>
-      </c>
-      <c r="C101" s="4">
-        <v>-6.2241619999999998</v>
-      </c>
-      <c r="D101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>119</v>
-      </c>
-      <c r="B102" s="5">
-        <v>37347</v>
-      </c>
-      <c r="C102" s="4">
-        <v>32.163097</v>
-      </c>
-      <c r="D102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>119</v>
-      </c>
-      <c r="B103" s="5">
-        <v>37438</v>
-      </c>
-      <c r="C103" s="4">
-        <v>27.891642000000001</v>
-      </c>
-      <c r="D103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>119</v>
-      </c>
-      <c r="B104" s="5">
-        <v>37530</v>
-      </c>
-      <c r="C104" s="4">
-        <v>19.941931</v>
-      </c>
-      <c r="D104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>119</v>
-      </c>
-      <c r="B105" s="5">
-        <v>37622</v>
-      </c>
-      <c r="C105" s="4">
-        <v>71.769583999999995</v>
-      </c>
-      <c r="D105" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>119</v>
-      </c>
-      <c r="B106" s="5">
-        <v>37712</v>
-      </c>
-      <c r="C106" s="4">
-        <v>11.460283</v>
-      </c>
-      <c r="D106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>119</v>
-      </c>
-      <c r="B107" s="5">
-        <v>37803</v>
-      </c>
-      <c r="C107" s="4">
-        <v>26.810509</v>
-      </c>
-      <c r="D107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>119</v>
-      </c>
-      <c r="B108" s="5">
-        <v>37895</v>
-      </c>
-      <c r="C108" s="4">
-        <v>-10.716157000000001</v>
-      </c>
-      <c r="D108" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>119</v>
-      </c>
-      <c r="B109" s="5">
-        <v>37987</v>
-      </c>
-      <c r="C109" s="4">
-        <v>34.712980999999999</v>
-      </c>
-      <c r="D109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>119</v>
-      </c>
-      <c r="B110" s="5">
-        <v>38078</v>
-      </c>
-      <c r="C110" s="4">
-        <v>68.545222999999993</v>
-      </c>
-      <c r="D110" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>119</v>
-      </c>
-      <c r="B111" s="5">
-        <v>38169</v>
-      </c>
-      <c r="C111" s="4">
-        <v>-20.971969999999999</v>
-      </c>
-      <c r="D111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>119</v>
-      </c>
-      <c r="B112" s="5">
-        <v>38261</v>
-      </c>
-      <c r="C112" s="4">
-        <v>21.862244</v>
-      </c>
-      <c r="D112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113" s="5">
-        <v>38353</v>
-      </c>
-      <c r="C113" s="4">
-        <v>15.255686000000001</v>
-      </c>
-      <c r="D113" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114" s="5">
-        <v>38443</v>
-      </c>
-      <c r="C114" s="4">
-        <v>142.419645</v>
-      </c>
-      <c r="D114" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>119</v>
-      </c>
-      <c r="B115" s="5">
-        <v>38534</v>
-      </c>
-      <c r="C115" s="4">
-        <v>33.889707000000001</v>
-      </c>
-      <c r="D115" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116" s="5">
-        <v>38626</v>
-      </c>
-      <c r="C116" s="4">
-        <v>0.63599399999999795</v>
-      </c>
-      <c r="D116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" s="5">
-        <v>38718</v>
-      </c>
-      <c r="C117" s="4">
-        <v>13.078110000000001</v>
-      </c>
-      <c r="D117" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" s="5">
-        <v>38808</v>
-      </c>
-      <c r="C118" s="4">
-        <v>138.40542400000001</v>
-      </c>
-      <c r="D118" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" s="5">
-        <v>38899</v>
-      </c>
-      <c r="C119" s="4">
-        <v>-17.017171000000001</v>
-      </c>
-      <c r="D119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120" s="5">
-        <v>38991</v>
-      </c>
-      <c r="C120" s="4">
-        <v>20.382918</v>
-      </c>
-      <c r="D120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" s="5">
-        <v>39083</v>
-      </c>
-      <c r="C121" s="4">
-        <v>48.069566999999999</v>
-      </c>
-      <c r="D121" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>119</v>
-      </c>
-      <c r="B122" s="5">
-        <v>39173</v>
-      </c>
-      <c r="C122" s="4">
-        <v>18.610693999999999</v>
-      </c>
-      <c r="D122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>119</v>
-      </c>
-      <c r="B123" s="5">
-        <v>39264</v>
-      </c>
-      <c r="C123" s="4">
-        <v>14.284140000000001</v>
-      </c>
-      <c r="D123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>119</v>
-      </c>
-      <c r="B124" s="5">
-        <v>39356</v>
-      </c>
-      <c r="C124" s="4">
-        <v>52.699478999999997</v>
-      </c>
-      <c r="D124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>119</v>
-      </c>
-      <c r="B125" s="5">
-        <v>39448</v>
-      </c>
-      <c r="C125" s="4">
-        <v>-31.090745999999999</v>
-      </c>
-      <c r="D125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>119</v>
-      </c>
-      <c r="B126" s="5">
-        <v>39539</v>
-      </c>
-      <c r="C126" s="4">
-        <v>42.924930000000003</v>
-      </c>
-      <c r="D126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>119</v>
-      </c>
-      <c r="B127" s="5">
-        <v>39630</v>
-      </c>
-      <c r="C127" s="4">
-        <v>-1.82250599999998</v>
-      </c>
-      <c r="D127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>119</v>
-      </c>
-      <c r="B128" s="5">
-        <v>39722</v>
-      </c>
-      <c r="C128" s="4">
-        <v>136.43665899999999</v>
-      </c>
-      <c r="D128" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>119</v>
-      </c>
-      <c r="B129" s="5">
-        <v>39814</v>
-      </c>
-      <c r="C129" s="4">
-        <v>150.62429499999999</v>
-      </c>
-      <c r="D129" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>119</v>
-      </c>
-      <c r="B130" s="5">
-        <v>39904</v>
-      </c>
-      <c r="C130" s="4">
-        <v>90.918205</v>
-      </c>
-      <c r="D130" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>119</v>
-      </c>
-      <c r="B131" s="5">
-        <v>39995</v>
-      </c>
-      <c r="C131" s="4">
-        <v>113.11171400000001</v>
-      </c>
-      <c r="D131" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>119</v>
-      </c>
-      <c r="B132" s="5">
-        <v>40087</v>
-      </c>
-      <c r="C132" s="4">
-        <v>-167.771311</v>
-      </c>
-      <c r="D132" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>119</v>
-      </c>
-      <c r="B133" s="5">
-        <v>40179</v>
-      </c>
-      <c r="C133" s="4">
-        <v>38.356920000000002</v>
-      </c>
-      <c r="D133" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>119</v>
-      </c>
-      <c r="B134" s="5">
-        <v>40269</v>
-      </c>
-      <c r="C134" s="4">
-        <v>88.073937000000001</v>
-      </c>
-      <c r="D134" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>119</v>
-      </c>
-      <c r="B135" s="5">
-        <v>40360</v>
-      </c>
-      <c r="C135" s="4">
-        <v>241.55914000000001</v>
-      </c>
-      <c r="D135" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>119</v>
-      </c>
-      <c r="B136" s="5">
-        <v>40452</v>
-      </c>
-      <c r="C136" s="4">
-        <v>55.225392130000003</v>
-      </c>
-      <c r="D136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>119</v>
-      </c>
-      <c r="B137" s="5">
-        <v>40544</v>
-      </c>
-      <c r="C137" s="4">
-        <v>25.332747999999999</v>
-      </c>
-      <c r="D137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>119</v>
-      </c>
-      <c r="B138" s="5">
-        <v>40634</v>
-      </c>
-      <c r="C138" s="4">
-        <v>107.21753099999999</v>
-      </c>
-      <c r="D138" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>119</v>
-      </c>
-      <c r="B139" s="5">
-        <v>40725</v>
-      </c>
-      <c r="C139" s="4">
-        <v>-71.340270000000004</v>
-      </c>
-      <c r="D139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>119</v>
-      </c>
-      <c r="B140" s="5">
-        <v>40817</v>
-      </c>
-      <c r="C140" s="4">
-        <v>30.663326000000001</v>
-      </c>
-      <c r="D140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>119</v>
-      </c>
-      <c r="B141" s="5">
-        <v>40909</v>
-      </c>
-      <c r="C141" s="4">
-        <v>42.988233889999997</v>
-      </c>
-      <c r="D141" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>119</v>
-      </c>
-      <c r="B142" s="5">
-        <v>41000</v>
-      </c>
-      <c r="C142" s="4">
-        <v>34.485554370000003</v>
-      </c>
-      <c r="D142" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>119</v>
-      </c>
-      <c r="B143" s="5">
-        <v>41091</v>
-      </c>
-      <c r="C143" s="4">
-        <v>22.484316629999999</v>
-      </c>
-      <c r="D143" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>119</v>
-      </c>
-      <c r="B144" s="5">
-        <v>41183</v>
-      </c>
-      <c r="C144" s="4">
-        <v>40.756138999999997</v>
-      </c>
-      <c r="D144" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>119</v>
-      </c>
-      <c r="B145" s="5">
-        <v>41275</v>
-      </c>
-      <c r="C145" s="4">
-        <v>90.506898419999999</v>
-      </c>
-      <c r="D145" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>119</v>
-      </c>
-      <c r="B146" s="5">
-        <v>41365</v>
-      </c>
-      <c r="C146" s="4">
-        <v>75.493291350000007</v>
-      </c>
-      <c r="D146" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>119</v>
-      </c>
-      <c r="B147" s="5">
-        <v>41456</v>
-      </c>
-      <c r="C147" s="4">
-        <v>100.88613872000001</v>
-      </c>
-      <c r="D147" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>119</v>
-      </c>
-      <c r="B148" s="5">
-        <v>41548</v>
-      </c>
-      <c r="C148" s="4">
-        <v>41.759126899999998</v>
-      </c>
-      <c r="D148" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>119</v>
-      </c>
-      <c r="B149" s="5">
-        <v>41640</v>
-      </c>
-      <c r="C149" s="4">
-        <v>49.412751919999998</v>
-      </c>
-      <c r="D149" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>119</v>
-      </c>
-      <c r="B150" s="5">
-        <v>41730</v>
-      </c>
-      <c r="C150" s="4">
-        <v>-168.96485659999999</v>
-      </c>
-      <c r="D150" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>119</v>
-      </c>
-      <c r="B151" s="5">
-        <v>41821</v>
-      </c>
-      <c r="C151" s="4">
-        <v>53.302174739999998</v>
-      </c>
-      <c r="D151" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>119</v>
-      </c>
-      <c r="B152" s="5">
-        <v>41913</v>
-      </c>
-      <c r="C152" s="4">
-        <v>105.5287831</v>
-      </c>
-      <c r="D152" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>119</v>
-      </c>
-      <c r="B153" s="5">
-        <v>42005</v>
-      </c>
-      <c r="C153" s="4">
-        <v>38.48841711</v>
-      </c>
-      <c r="D153" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>119</v>
-      </c>
-      <c r="B154" s="5">
-        <v>42095</v>
-      </c>
-      <c r="C154" s="4">
-        <v>20.930662000000002</v>
-      </c>
-      <c r="D154" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>119</v>
-      </c>
-      <c r="B155" s="5">
-        <v>42186</v>
-      </c>
-      <c r="C155" s="4">
-        <v>34.547607999999997</v>
-      </c>
-      <c r="D155" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>119</v>
-      </c>
-      <c r="B156" s="5">
-        <v>42278</v>
-      </c>
-      <c r="C156" s="4">
-        <v>39.132633609999999</v>
-      </c>
-      <c r="D156" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>119</v>
-      </c>
-      <c r="B157" s="5">
-        <v>42370</v>
-      </c>
-      <c r="C157" s="4">
-        <v>154.73856044999999</v>
-      </c>
-      <c r="D157" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>119</v>
-      </c>
-      <c r="B158" s="5">
-        <v>42461</v>
-      </c>
-      <c r="C158" s="4">
-        <v>147.73118711000001</v>
-      </c>
-      <c r="D158" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>119</v>
-      </c>
-      <c r="B159" s="5">
-        <v>42552</v>
-      </c>
-      <c r="C159" s="4">
-        <v>-21.99493258</v>
-      </c>
-      <c r="D159" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>119</v>
-      </c>
-      <c r="B160" s="5">
-        <v>42644</v>
-      </c>
-      <c r="C160" s="4">
-        <v>-18.07753808</v>
-      </c>
-      <c r="D160" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>119</v>
-      </c>
-      <c r="B161" s="5">
-        <v>42736</v>
-      </c>
-      <c r="C161" s="4">
-        <v>-17.698147989999999</v>
-      </c>
-      <c r="D161" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>119</v>
-      </c>
-      <c r="B162" s="5">
-        <v>42826</v>
-      </c>
-      <c r="C162" s="4">
-        <v>11.193113840000001</v>
-      </c>
-      <c r="D162" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>119</v>
-      </c>
-      <c r="B163" s="5">
-        <v>42917</v>
-      </c>
-      <c r="C163" s="4">
-        <v>8.8968669699999996</v>
-      </c>
-      <c r="D163" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>119</v>
-      </c>
-      <c r="B164" s="5">
-        <v>43009</v>
-      </c>
-      <c r="C164" s="4">
-        <v>44.056273959999999</v>
-      </c>
-      <c r="D164" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>119</v>
-      </c>
-      <c r="B165" s="5">
-        <v>43101</v>
-      </c>
-      <c r="C165" s="4">
-        <v>110.99698742</v>
-      </c>
-      <c r="D165" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>119</v>
-      </c>
-      <c r="B166" s="5">
-        <v>43191</v>
-      </c>
-      <c r="C166" s="4">
-        <v>49.795634700000001</v>
-      </c>
-      <c r="D166" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>119</v>
-      </c>
-      <c r="B167" s="5">
-        <v>43282</v>
-      </c>
-      <c r="C167" s="4">
-        <v>-18.528992550000002</v>
-      </c>
-      <c r="D167" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>119</v>
-      </c>
-      <c r="B168" s="5">
-        <v>43374</v>
-      </c>
-      <c r="C168" s="4">
-        <v>95.98911914</v>
-      </c>
-      <c r="D168" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>119</v>
-      </c>
-      <c r="B169" s="5">
-        <v>43466</v>
-      </c>
-      <c r="C169" s="4">
-        <v>76.618677640000001</v>
-      </c>
-      <c r="D169" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>119</v>
-      </c>
-      <c r="B170" s="5">
-        <v>43556</v>
-      </c>
-      <c r="C170" s="4">
-        <v>24.28454056</v>
-      </c>
-      <c r="D170" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>119</v>
-      </c>
-      <c r="B171" s="5">
-        <v>43647</v>
-      </c>
-      <c r="C171" s="4">
-        <v>19.350123150000002</v>
-      </c>
-      <c r="D171" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>119</v>
-      </c>
-      <c r="B172" s="5">
-        <v>43739</v>
-      </c>
-      <c r="C172" s="4">
-        <v>6.7639555800000002</v>
-      </c>
-      <c r="D172" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>119</v>
-      </c>
-      <c r="B173" s="5">
-        <v>43831</v>
-      </c>
-      <c r="C173" s="4">
-        <v>84.634219669999993</v>
-      </c>
-      <c r="D173" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>119</v>
-      </c>
-      <c r="B174" s="5">
-        <v>43922</v>
-      </c>
-      <c r="C174" s="4">
-        <v>111.10784296999999</v>
-      </c>
-      <c r="D174" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>119</v>
-      </c>
-      <c r="B175" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C175" s="4">
+      <c r="D88" s="4">
         <v>-43.650501230000003</v>
-      </c>
-      <c r="D175" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12827" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12914" uniqueCount="142">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/12/2021</t>
+    <t xml:space="preserve"> 02/14/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -93541,8 +93541,8 @@
       <c r="D2" s="4">
         <v>25.830188</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -93558,8 +93558,8 @@
       <c r="D3" s="4">
         <v>81.291089999999997</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4">
@@ -93575,8 +93575,8 @@
       <c r="D4" s="4">
         <v>96.165655999999998</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5">
@@ -93592,8 +93592,8 @@
       <c r="D5" s="4">
         <v>87.421719999999993</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6">
@@ -93609,8 +93609,8 @@
       <c r="D6" s="4">
         <v>73.656339000000003</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7">
@@ -93626,8 +93626,8 @@
       <c r="D7" s="4">
         <v>52.150294000000002</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8">
@@ -93643,8 +93643,8 @@
       <c r="D8" s="4">
         <v>106.96198800000001</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9">
@@ -93660,8 +93660,8 @@
       <c r="D9" s="4">
         <v>55.866529999999997</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10">
@@ -93677,8 +93677,8 @@
       <c r="D10" s="4">
         <v>111.044776</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -93694,8 +93694,8 @@
       <c r="D11" s="4">
         <v>26.406939000000001</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="12">
@@ -93711,8 +93711,8 @@
       <c r="D12" s="4">
         <v>55.853051000000001</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13">
@@ -93728,8 +93728,8 @@
       <c r="D13" s="4">
         <v>193.65250900000001</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -93745,8 +93745,8 @@
       <c r="D14" s="4">
         <v>-6.2241619999999998</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
+      <c r="E14" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -93762,8 +93762,8 @@
       <c r="D15" s="4">
         <v>32.163097</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
+      <c r="E15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="16">
@@ -93779,8 +93779,8 @@
       <c r="D16" s="4">
         <v>27.891642000000001</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
+      <c r="E16" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="17">
@@ -93796,8 +93796,8 @@
       <c r="D17" s="4">
         <v>19.941931</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
+      <c r="E17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="18">
@@ -93813,8 +93813,8 @@
       <c r="D18" s="4">
         <v>71.769583999999995</v>
       </c>
-      <c r="E18" s="4">
-        <v>0</v>
+      <c r="E18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19">
@@ -93830,8 +93830,8 @@
       <c r="D19" s="4">
         <v>11.460283</v>
       </c>
-      <c r="E19" s="4">
-        <v>0</v>
+      <c r="E19" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20">
@@ -93847,8 +93847,8 @@
       <c r="D20" s="4">
         <v>26.810509</v>
       </c>
-      <c r="E20" s="4">
-        <v>0</v>
+      <c r="E20" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="21">
@@ -93864,8 +93864,8 @@
       <c r="D21" s="4">
         <v>-10.716157000000001</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
+      <c r="E21" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="22">
@@ -93881,8 +93881,8 @@
       <c r="D22" s="4">
         <v>34.712980999999999</v>
       </c>
-      <c r="E22" s="4">
-        <v>0</v>
+      <c r="E22" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23">
@@ -93898,8 +93898,8 @@
       <c r="D23" s="4">
         <v>68.545222999999993</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
+      <c r="E23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24">
@@ -93915,8 +93915,8 @@
       <c r="D24" s="4">
         <v>-20.971969999999999</v>
       </c>
-      <c r="E24" s="4">
-        <v>0</v>
+      <c r="E24" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="25">
@@ -93932,8 +93932,8 @@
       <c r="D25" s="4">
         <v>21.862244</v>
       </c>
-      <c r="E25" s="4">
-        <v>0</v>
+      <c r="E25" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="26">
@@ -93949,8 +93949,8 @@
       <c r="D26" s="4">
         <v>15.255686000000001</v>
       </c>
-      <c r="E26" s="4">
-        <v>0</v>
+      <c r="E26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="27">
@@ -93966,8 +93966,8 @@
       <c r="D27" s="4">
         <v>142.419645</v>
       </c>
-      <c r="E27" s="4">
-        <v>0</v>
+      <c r="E27" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="28">
@@ -93983,8 +93983,8 @@
       <c r="D28" s="4">
         <v>33.889707000000001</v>
       </c>
-      <c r="E28" s="4">
-        <v>0</v>
+      <c r="E28" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="29">
@@ -94000,8 +94000,8 @@
       <c r="D29" s="4">
         <v>0.63599399999999795</v>
       </c>
-      <c r="E29" s="4">
-        <v>0</v>
+      <c r="E29" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="30">
@@ -94017,8 +94017,8 @@
       <c r="D30" s="4">
         <v>13.078110000000001</v>
       </c>
-      <c r="E30" s="4">
-        <v>0</v>
+      <c r="E30" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="31">
@@ -94034,8 +94034,8 @@
       <c r="D31" s="4">
         <v>138.40542400000001</v>
       </c>
-      <c r="E31" s="4">
-        <v>0</v>
+      <c r="E31" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="32">
@@ -94051,8 +94051,8 @@
       <c r="D32" s="4">
         <v>-17.017171000000001</v>
       </c>
-      <c r="E32" s="4">
-        <v>0</v>
+      <c r="E32" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="33">
@@ -94068,8 +94068,8 @@
       <c r="D33" s="4">
         <v>20.382918</v>
       </c>
-      <c r="E33" s="4">
-        <v>0</v>
+      <c r="E33" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="34">
@@ -94085,8 +94085,8 @@
       <c r="D34" s="4">
         <v>48.069566999999999</v>
       </c>
-      <c r="E34" s="4">
-        <v>0</v>
+      <c r="E34" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="35">
@@ -94102,8 +94102,8 @@
       <c r="D35" s="4">
         <v>18.610693999999999</v>
       </c>
-      <c r="E35" s="4">
-        <v>0</v>
+      <c r="E35" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="36">
@@ -94119,8 +94119,8 @@
       <c r="D36" s="4">
         <v>14.284140000000001</v>
       </c>
-      <c r="E36" s="4">
-        <v>0</v>
+      <c r="E36" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="37">
@@ -94136,8 +94136,8 @@
       <c r="D37" s="4">
         <v>52.699478999999997</v>
       </c>
-      <c r="E37" s="4">
-        <v>0</v>
+      <c r="E37" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="38">
@@ -94153,8 +94153,8 @@
       <c r="D38" s="4">
         <v>-31.090745999999999</v>
       </c>
-      <c r="E38" s="4">
-        <v>0</v>
+      <c r="E38" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="39">
@@ -94170,8 +94170,8 @@
       <c r="D39" s="4">
         <v>42.924930000000003</v>
       </c>
-      <c r="E39" s="4">
-        <v>0</v>
+      <c r="E39" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="40">
@@ -94187,8 +94187,8 @@
       <c r="D40" s="4">
         <v>-1.82250599999998</v>
       </c>
-      <c r="E40" s="4">
-        <v>0</v>
+      <c r="E40" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="41">
@@ -94204,8 +94204,8 @@
       <c r="D41" s="4">
         <v>136.43665899999999</v>
       </c>
-      <c r="E41" s="4">
-        <v>0</v>
+      <c r="E41" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="42">
@@ -94221,8 +94221,8 @@
       <c r="D42" s="4">
         <v>150.62429499999999</v>
       </c>
-      <c r="E42" s="4">
-        <v>0</v>
+      <c r="E42" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="43">
@@ -94238,8 +94238,8 @@
       <c r="D43" s="4">
         <v>90.918205</v>
       </c>
-      <c r="E43" s="4">
-        <v>0</v>
+      <c r="E43" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="44">
@@ -94255,8 +94255,8 @@
       <c r="D44" s="4">
         <v>113.11171400000001</v>
       </c>
-      <c r="E44" s="4">
-        <v>0</v>
+      <c r="E44" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="45">
@@ -94272,8 +94272,8 @@
       <c r="D45" s="4">
         <v>-167.771311</v>
       </c>
-      <c r="E45" s="4">
-        <v>0</v>
+      <c r="E45" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="46">
@@ -94289,8 +94289,8 @@
       <c r="D46" s="4">
         <v>38.356920000000002</v>
       </c>
-      <c r="E46" s="4">
-        <v>0</v>
+      <c r="E46" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="47">
@@ -94306,8 +94306,8 @@
       <c r="D47" s="4">
         <v>88.073937000000001</v>
       </c>
-      <c r="E47" s="4">
-        <v>0</v>
+      <c r="E47" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="48">
@@ -94323,8 +94323,8 @@
       <c r="D48" s="4">
         <v>241.55914000000001</v>
       </c>
-      <c r="E48" s="4">
-        <v>0</v>
+      <c r="E48" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="49">
@@ -94340,8 +94340,8 @@
       <c r="D49" s="4">
         <v>55.225392130000003</v>
       </c>
-      <c r="E49" s="4">
-        <v>0</v>
+      <c r="E49" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="50">
@@ -94357,8 +94357,8 @@
       <c r="D50" s="4">
         <v>25.332747999999999</v>
       </c>
-      <c r="E50" s="4">
-        <v>0</v>
+      <c r="E50" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="51">
@@ -94374,8 +94374,8 @@
       <c r="D51" s="4">
         <v>107.21753099999999</v>
       </c>
-      <c r="E51" s="4">
-        <v>0</v>
+      <c r="E51" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="52">
@@ -94391,8 +94391,8 @@
       <c r="D52" s="4">
         <v>-71.340270000000004</v>
       </c>
-      <c r="E52" s="4">
-        <v>0</v>
+      <c r="E52" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="53">
@@ -94408,8 +94408,8 @@
       <c r="D53" s="4">
         <v>30.663326000000001</v>
       </c>
-      <c r="E53" s="4">
-        <v>0</v>
+      <c r="E53" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="54">
@@ -94425,8 +94425,8 @@
       <c r="D54" s="4">
         <v>42.988233889999997</v>
       </c>
-      <c r="E54" s="4">
-        <v>0</v>
+      <c r="E54" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="55">
@@ -94442,8 +94442,8 @@
       <c r="D55" s="4">
         <v>34.485554370000003</v>
       </c>
-      <c r="E55" s="4">
-        <v>0</v>
+      <c r="E55" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="56">
@@ -94459,8 +94459,8 @@
       <c r="D56" s="4">
         <v>22.484316629999999</v>
       </c>
-      <c r="E56" s="4">
-        <v>0</v>
+      <c r="E56" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="57">
@@ -94476,8 +94476,8 @@
       <c r="D57" s="4">
         <v>40.756138999999997</v>
       </c>
-      <c r="E57" s="4">
-        <v>0</v>
+      <c r="E57" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="58">
@@ -94493,8 +94493,8 @@
       <c r="D58" s="4">
         <v>90.506898419999999</v>
       </c>
-      <c r="E58" s="4">
-        <v>0</v>
+      <c r="E58" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -94510,8 +94510,8 @@
       <c r="D59" s="4">
         <v>75.493291350000007</v>
       </c>
-      <c r="E59" s="4">
-        <v>0</v>
+      <c r="E59" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -94527,8 +94527,8 @@
       <c r="D60" s="4">
         <v>100.88613872000001</v>
       </c>
-      <c r="E60" s="4">
-        <v>0</v>
+      <c r="E60" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -94544,8 +94544,8 @@
       <c r="D61" s="4">
         <v>41.759126899999998</v>
       </c>
-      <c r="E61" s="4">
-        <v>0</v>
+      <c r="E61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
@@ -94561,8 +94561,8 @@
       <c r="D62" s="4">
         <v>49.412751919999998</v>
       </c>
-      <c r="E62" s="4">
-        <v>0</v>
+      <c r="E62" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -94578,8 +94578,8 @@
       <c r="D63" s="4">
         <v>-168.96485659999999</v>
       </c>
-      <c r="E63" s="4">
-        <v>0</v>
+      <c r="E63" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -94595,8 +94595,8 @@
       <c r="D64" s="4">
         <v>53.302174739999998</v>
       </c>
-      <c r="E64" s="4">
-        <v>0</v>
+      <c r="E64" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -94612,8 +94612,8 @@
       <c r="D65" s="4">
         <v>105.5287831</v>
       </c>
-      <c r="E65" s="4">
-        <v>0</v>
+      <c r="E65" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="66">
@@ -94629,8 +94629,8 @@
       <c r="D66" s="4">
         <v>38.48841711</v>
       </c>
-      <c r="E66" s="4">
-        <v>0</v>
+      <c r="E66" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="67">
@@ -94646,8 +94646,8 @@
       <c r="D67" s="4">
         <v>20.930662000000002</v>
       </c>
-      <c r="E67" s="4">
-        <v>0</v>
+      <c r="E67" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="68">
@@ -94663,8 +94663,8 @@
       <c r="D68" s="4">
         <v>34.547607999999997</v>
       </c>
-      <c r="E68" s="4">
-        <v>0</v>
+      <c r="E68" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="69">
@@ -94680,8 +94680,8 @@
       <c r="D69" s="4">
         <v>39.132633609999999</v>
       </c>
-      <c r="E69" s="4">
-        <v>0</v>
+      <c r="E69" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="70">
@@ -94697,8 +94697,8 @@
       <c r="D70" s="4">
         <v>154.73856044999999</v>
       </c>
-      <c r="E70" s="4">
-        <v>0</v>
+      <c r="E70" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="71">
@@ -94714,8 +94714,8 @@
       <c r="D71" s="4">
         <v>147.73118711000001</v>
       </c>
-      <c r="E71" s="4">
-        <v>0</v>
+      <c r="E71" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="72">
@@ -94731,8 +94731,8 @@
       <c r="D72" s="4">
         <v>-21.99493258</v>
       </c>
-      <c r="E72" s="4">
-        <v>0</v>
+      <c r="E72" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="73">
@@ -94748,8 +94748,8 @@
       <c r="D73" s="4">
         <v>-18.07753808</v>
       </c>
-      <c r="E73" s="4">
-        <v>0</v>
+      <c r="E73" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="74">
@@ -94765,8 +94765,8 @@
       <c r="D74" s="4">
         <v>-17.698147989999999</v>
       </c>
-      <c r="E74" s="4">
-        <v>0</v>
+      <c r="E74" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -94782,8 +94782,8 @@
       <c r="D75" s="4">
         <v>11.193113840000001</v>
       </c>
-      <c r="E75" s="4">
-        <v>0</v>
+      <c r="E75" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -94799,8 +94799,8 @@
       <c r="D76" s="4">
         <v>8.8968669699999996</v>
       </c>
-      <c r="E76" s="4">
-        <v>0</v>
+      <c r="E76" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -94816,8 +94816,8 @@
       <c r="D77" s="4">
         <v>44.056273959999999</v>
       </c>
-      <c r="E77" s="4">
-        <v>0</v>
+      <c r="E77" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -94833,8 +94833,8 @@
       <c r="D78" s="4">
         <v>110.99698742</v>
       </c>
-      <c r="E78" s="4">
-        <v>0</v>
+      <c r="E78" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="79">
@@ -94850,8 +94850,8 @@
       <c r="D79" s="4">
         <v>49.795634700000001</v>
       </c>
-      <c r="E79" s="4">
-        <v>0</v>
+      <c r="E79" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="80">
@@ -94867,8 +94867,8 @@
       <c r="D80" s="4">
         <v>-18.528992550000002</v>
       </c>
-      <c r="E80" s="4">
-        <v>0</v>
+      <c r="E80" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="81">
@@ -94884,8 +94884,8 @@
       <c r="D81" s="4">
         <v>95.98911914</v>
       </c>
-      <c r="E81" s="4">
-        <v>0</v>
+      <c r="E81" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="82">
@@ -94901,8 +94901,8 @@
       <c r="D82" s="4">
         <v>76.618677640000001</v>
       </c>
-      <c r="E82" s="4">
-        <v>0</v>
+      <c r="E82" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="83">
@@ -94918,8 +94918,8 @@
       <c r="D83" s="4">
         <v>24.28454056</v>
       </c>
-      <c r="E83" s="4">
-        <v>0</v>
+      <c r="E83" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="84">
@@ -94935,8 +94935,8 @@
       <c r="D84" s="4">
         <v>19.350123150000002</v>
       </c>
-      <c r="E84" s="4">
-        <v>0</v>
+      <c r="E84" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="85">
@@ -94952,8 +94952,8 @@
       <c r="D85" s="4">
         <v>6.7639555800000002</v>
       </c>
-      <c r="E85" s="4">
-        <v>0</v>
+      <c r="E85" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="86">
@@ -94969,8 +94969,8 @@
       <c r="D86" s="4">
         <v>84.634219669999993</v>
       </c>
-      <c r="E86" s="4">
-        <v>0</v>
+      <c r="E86" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="87">
@@ -94986,8 +94986,8 @@
       <c r="D87" s="4">
         <v>111.10784296999999</v>
       </c>
-      <c r="E87" s="4">
-        <v>0</v>
+      <c r="E87" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="88">
@@ -95003,8 +95003,8 @@
       <c r="D88" s="4">
         <v>-43.650501230000003</v>
       </c>
-      <c r="E88" s="4">
-        <v>0</v>
+      <c r="E88" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/14/2021</t>
+    <t xml:space="preserve"> 02/15/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12938" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12884" uniqueCount="141">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/18/2021</t>
+    <t xml:space="preserve"> 02/19/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -443,12 +443,6 @@
     <t>Miles de pesos</t>
   </si>
   <si>
-    <t>parcial</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Inversión extranjera directa, cifras preliminares</t>
   </si>
   <si>
@@ -456,6 +450,9 @@
   </si>
   <si>
     <t>(sum) c</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -92851,7 +92848,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:C56"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -92864,9 +92861,6 @@
       <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="5">
@@ -92878,9 +92872,6 @@
       <c r="C2" s="4">
         <v>2276334</v>
       </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
@@ -92892,9 +92883,6 @@
       <c r="C3" s="4">
         <v>2531791</v>
       </c>
-      <c r="D3" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
@@ -92906,9 +92894,6 @@
       <c r="C4" s="4">
         <v>2967361</v>
       </c>
-      <c r="D4" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
@@ -92920,9 +92905,6 @@
       <c r="C5" s="4">
         <v>2569148</v>
       </c>
-      <c r="D5" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
@@ -92934,9 +92916,6 @@
       <c r="C6" s="4">
         <v>2273486</v>
       </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
@@ -92948,9 +92927,6 @@
       <c r="C7" s="4">
         <v>2943458</v>
       </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
@@ -92962,9 +92938,6 @@
       <c r="C8" s="4">
         <v>3274893</v>
       </c>
-      <c r="D8" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
@@ -92976,9 +92949,6 @@
       <c r="C9" s="4">
         <v>2870190</v>
       </c>
-      <c r="D9" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
@@ -92990,9 +92960,6 @@
       <c r="C10" s="4">
         <v>2743862</v>
       </c>
-      <c r="D10" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
@@ -93004,9 +92971,6 @@
       <c r="C11" s="4">
         <v>2941072</v>
       </c>
-      <c r="D11" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
@@ -93018,9 +92982,6 @@
       <c r="C12" s="4">
         <v>2908862</v>
       </c>
-      <c r="D12" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
@@ -93032,9 +92993,6 @@
       <c r="C13" s="4">
         <v>3211458</v>
       </c>
-      <c r="D13" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
@@ -93046,9 +93004,6 @@
       <c r="C14" s="4">
         <v>3317179</v>
       </c>
-      <c r="D14" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
@@ -93060,9 +93015,6 @@
       <c r="C15" s="4">
         <v>3514825</v>
       </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
@@ -93074,9 +93026,6 @@
       <c r="C16" s="4">
         <v>4131386</v>
       </c>
-      <c r="D16" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
@@ -93088,9 +93037,6 @@
       <c r="C17" s="4">
         <v>3953204</v>
       </c>
-      <c r="D17" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
@@ -93102,9 +93048,6 @@
       <c r="C18" s="4">
         <v>2690403</v>
       </c>
-      <c r="D18" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
@@ -93116,9 +93059,6 @@
       <c r="C19" s="4">
         <v>2703389</v>
       </c>
-      <c r="D19" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
@@ -93130,9 +93070,6 @@
       <c r="C20" s="4">
         <v>2826640</v>
       </c>
-      <c r="D20" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
@@ -93144,9 +93081,6 @@
       <c r="C21" s="4">
         <v>2744532</v>
       </c>
-      <c r="D21" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
@@ -93158,9 +93092,6 @@
       <c r="C22" s="4">
         <v>3029351</v>
       </c>
-      <c r="D22" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
@@ -93172,9 +93103,6 @@
       <c r="C23" s="4">
         <v>3421878</v>
       </c>
-      <c r="D23" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
@@ -93186,9 +93114,6 @@
       <c r="C24" s="4">
         <v>3395867</v>
       </c>
-      <c r="D24" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
@@ -93200,9 +93125,6 @@
       <c r="C25" s="4">
         <v>3469061</v>
       </c>
-      <c r="D25" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
@@ -93214,9 +93136,6 @@
       <c r="C26" s="4">
         <v>2966558</v>
       </c>
-      <c r="D26" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
@@ -93228,9 +93147,6 @@
       <c r="C27" s="4">
         <v>3515759</v>
       </c>
-      <c r="D27" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
@@ -93242,9 +93158,6 @@
       <c r="C28" s="4">
         <v>3739523</v>
       </c>
-      <c r="D28" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
@@ -93256,9 +93169,6 @@
       <c r="C29" s="4">
         <v>3588086</v>
       </c>
-      <c r="D29" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
@@ -93270,9 +93180,6 @@
       <c r="C30" s="4">
         <v>2606921</v>
       </c>
-      <c r="D30" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
@@ -93284,9 +93191,6 @@
       <c r="C31" s="4">
         <v>2580222</v>
       </c>
-      <c r="D31" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
@@ -93298,9 +93202,6 @@
       <c r="C32" s="4">
         <v>2800217</v>
       </c>
-      <c r="D32" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
@@ -93312,9 +93213,6 @@
       <c r="C33" s="4">
         <v>2879920</v>
       </c>
-      <c r="D33" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
@@ -93326,9 +93224,6 @@
       <c r="C34" s="4">
         <v>2682012</v>
       </c>
-      <c r="D34" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
@@ -93340,9 +93235,6 @@
       <c r="C35" s="4">
         <v>2817138</v>
       </c>
-      <c r="D35" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
@@ -93354,9 +93246,6 @@
       <c r="C36" s="4">
         <v>2978464</v>
       </c>
-      <c r="D36" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
@@ -93368,9 +93257,6 @@
       <c r="C37" s="4">
         <v>2961068</v>
       </c>
-      <c r="D37" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
@@ -93382,9 +93268,6 @@
       <c r="C38" s="4">
         <v>2440608</v>
       </c>
-      <c r="D38" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
@@ -93396,9 +93279,6 @@
       <c r="C39" s="4">
         <v>2576100</v>
       </c>
-      <c r="D39" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
@@ -93410,9 +93290,6 @@
       <c r="C40" s="4">
         <v>2650471</v>
       </c>
-      <c r="D40" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
@@ -93424,9 +93301,6 @@
       <c r="C41" s="4">
         <v>1839242</v>
       </c>
-      <c r="D41" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
@@ -93438,9 +93312,6 @@
       <c r="C42" s="4">
         <v>2482593</v>
       </c>
-      <c r="D42" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
@@ -93452,9 +93323,6 @@
       <c r="C43" s="4">
         <v>2433231</v>
       </c>
-      <c r="D43" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
@@ -93466,9 +93334,6 @@
       <c r="C44" s="4">
         <v>2605916</v>
       </c>
-      <c r="D44" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="5">
@@ -93480,9 +93345,6 @@
       <c r="C45" s="4">
         <v>3193409</v>
       </c>
-      <c r="D45" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="5">
@@ -93494,9 +93356,6 @@
       <c r="C46" s="4">
         <v>2637708</v>
       </c>
-      <c r="D46" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="5">
@@ -93508,9 +93367,6 @@
       <c r="C47" s="4">
         <v>3109392</v>
       </c>
-      <c r="D47" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="5">
@@ -93522,9 +93378,6 @@
       <c r="C48" s="4">
         <v>3046680</v>
       </c>
-      <c r="D48" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="5">
@@ -93536,9 +93389,6 @@
       <c r="C49" s="4">
         <v>3392335</v>
       </c>
-      <c r="D49" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="5">
@@ -93550,9 +93400,6 @@
       <c r="C50" s="4">
         <v>2738364</v>
       </c>
-      <c r="D50" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="5">
@@ -93564,9 +93411,6 @@
       <c r="C51" s="4">
         <v>3140832</v>
       </c>
-      <c r="D51" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="5">
@@ -93578,9 +93422,6 @@
       <c r="C52" s="4">
         <v>2895659</v>
       </c>
-      <c r="D52" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="5">
@@ -93592,9 +93433,6 @@
       <c r="C53" s="4">
         <v>2858915</v>
       </c>
-      <c r="D53" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="5">
@@ -93606,9 +93444,6 @@
       <c r="C54" s="4">
         <v>2737998</v>
       </c>
-      <c r="D54" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="5">
@@ -93620,9 +93455,6 @@
       <c r="C55" s="4">
         <v>2379739</v>
       </c>
-      <c r="D55" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="5">
@@ -93633,9 +93465,6 @@
       </c>
       <c r="C56" s="4">
         <v>2572456</v>
-      </c>
-      <c r="D56" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -93644,7 +93473,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -93655,13 +93484,13 @@
         <v>35</v>
       </c>
       <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
         <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2">
@@ -93678,7 +93507,7 @@
         <v>25.830188</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -93695,7 +93524,7 @@
         <v>81.291089999999997</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -93712,7 +93541,7 @@
         <v>96.165655999999998</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -93729,7 +93558,7 @@
         <v>87.421719999999993</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -93746,7 +93575,7 @@
         <v>73.656339000000003</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -93763,7 +93592,7 @@
         <v>52.150294000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
@@ -93780,7 +93609,7 @@
         <v>106.96198800000001</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -93797,7 +93626,7 @@
         <v>55.866529999999997</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -93814,7 +93643,7 @@
         <v>111.044776</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -93831,7 +93660,7 @@
         <v>26.406939000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -93848,7 +93677,7 @@
         <v>55.853051000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -93865,7 +93694,7 @@
         <v>193.65250900000001</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -93882,7 +93711,7 @@
         <v>-6.2241619999999998</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -93899,7 +93728,7 @@
         <v>32.163097</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -93916,7 +93745,7 @@
         <v>27.891642000000001</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -93933,7 +93762,7 @@
         <v>19.941931</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
@@ -93950,7 +93779,7 @@
         <v>71.769583999999995</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -93967,7 +93796,7 @@
         <v>11.460283</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
@@ -93984,7 +93813,7 @@
         <v>26.810509</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
@@ -94001,7 +93830,7 @@
         <v>-10.716157000000001</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22">
@@ -94018,7 +93847,7 @@
         <v>34.712980999999999</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23">
@@ -94035,7 +93864,7 @@
         <v>68.545222999999993</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
@@ -94052,7 +93881,7 @@
         <v>-20.971969999999999</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
@@ -94069,7 +93898,7 @@
         <v>21.862244</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26">
@@ -94086,7 +93915,7 @@
         <v>15.255686000000001</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
@@ -94103,7 +93932,7 @@
         <v>142.419645</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
@@ -94120,7 +93949,7 @@
         <v>33.889707000000001</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -94134,10 +93963,10 @@
         <v>0.63599399999999995</v>
       </c>
       <c r="D29" s="4">
-        <v>0.63599399999999795</v>
+        <v>0.63599400000000195</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30">
@@ -94154,7 +93983,7 @@
         <v>13.078110000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
@@ -94171,7 +94000,7 @@
         <v>138.40542400000001</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
@@ -94188,7 +94017,7 @@
         <v>-17.017171000000001</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33">
@@ -94205,7 +94034,7 @@
         <v>20.382918</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34">
@@ -94222,7 +94051,7 @@
         <v>48.069566999999999</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
@@ -94239,7 +94068,7 @@
         <v>18.610693999999999</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36">
@@ -94256,7 +94085,7 @@
         <v>14.284140000000001</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37">
@@ -94273,7 +94102,7 @@
         <v>52.699478999999997</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38">
@@ -94290,7 +94119,7 @@
         <v>-31.090745999999999</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39">
@@ -94307,7 +94136,7 @@
         <v>42.924930000000003</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40">
@@ -94324,7 +94153,7 @@
         <v>-1.82250599999998</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41">
@@ -94341,7 +94170,7 @@
         <v>136.43665899999999</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42">
@@ -94358,7 +94187,7 @@
         <v>150.62429499999999</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43">
@@ -94375,7 +94204,7 @@
         <v>90.918205</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44">
@@ -94392,7 +94221,7 @@
         <v>113.11171400000001</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45">
@@ -94409,7 +94238,7 @@
         <v>-167.771311</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46">
@@ -94426,7 +94255,7 @@
         <v>38.356920000000002</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47">
@@ -94443,7 +94272,7 @@
         <v>88.073937000000001</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48">
@@ -94460,7 +94289,7 @@
         <v>241.55914000000001</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49">
@@ -94477,7 +94306,7 @@
         <v>55.225392130000003</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50">
@@ -94494,7 +94323,7 @@
         <v>25.332747999999999</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51">
@@ -94511,7 +94340,7 @@
         <v>107.21753099999999</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52">
@@ -94528,7 +94357,7 @@
         <v>-71.340270000000004</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53">
@@ -94545,7 +94374,7 @@
         <v>30.663326000000001</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54">
@@ -94562,7 +94391,7 @@
         <v>42.988233889999997</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55">
@@ -94579,7 +94408,7 @@
         <v>34.485554370000003</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56">
@@ -94596,7 +94425,7 @@
         <v>22.484316629999999</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57">
@@ -94613,7 +94442,7 @@
         <v>40.756138999999997</v>
       </c>
       <c r="E57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
@@ -94630,7 +94459,7 @@
         <v>90.506898419999999</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
@@ -94647,7 +94476,7 @@
         <v>75.493291350000007</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
@@ -94664,7 +94493,7 @@
         <v>100.88613872000001</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61">
@@ -94681,7 +94510,7 @@
         <v>41.759126899999998</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62">
@@ -94698,7 +94527,7 @@
         <v>49.412751919999998</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -94715,7 +94544,7 @@
         <v>-168.96485659999999</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64">
@@ -94732,7 +94561,7 @@
         <v>53.302174739999998</v>
       </c>
       <c r="E64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -94749,7 +94578,7 @@
         <v>105.5287831</v>
       </c>
       <c r="E65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -94766,7 +94595,7 @@
         <v>38.48841711</v>
       </c>
       <c r="E66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -94783,7 +94612,7 @@
         <v>20.930662000000002</v>
       </c>
       <c r="E67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -94800,7 +94629,7 @@
         <v>34.547607999999997</v>
       </c>
       <c r="E68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69">
@@ -94817,7 +94646,7 @@
         <v>39.132633609999999</v>
       </c>
       <c r="E69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -94834,7 +94663,7 @@
         <v>154.73856044999999</v>
       </c>
       <c r="E70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -94851,7 +94680,7 @@
         <v>147.73118711000001</v>
       </c>
       <c r="E71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
@@ -94868,7 +94697,7 @@
         <v>-21.99493258</v>
       </c>
       <c r="E72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73">
@@ -94885,7 +94714,7 @@
         <v>-18.07753808</v>
       </c>
       <c r="E73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -94902,7 +94731,7 @@
         <v>-17.698147989999999</v>
       </c>
       <c r="E74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
@@ -94919,7 +94748,7 @@
         <v>11.193113840000001</v>
       </c>
       <c r="E75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
@@ -94936,7 +94765,7 @@
         <v>8.8968669699999996</v>
       </c>
       <c r="E76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
@@ -94953,7 +94782,7 @@
         <v>44.056273959999999</v>
       </c>
       <c r="E77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
@@ -94970,7 +94799,7 @@
         <v>110.99698742</v>
       </c>
       <c r="E78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
@@ -94987,7 +94816,7 @@
         <v>49.795634700000001</v>
       </c>
       <c r="E79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
@@ -95004,7 +94833,7 @@
         <v>-18.528992550000002</v>
       </c>
       <c r="E80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
@@ -95021,7 +94850,7 @@
         <v>95.98911914</v>
       </c>
       <c r="E81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82">
@@ -95038,7 +94867,7 @@
         <v>76.618677640000001</v>
       </c>
       <c r="E82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
@@ -95055,7 +94884,7 @@
         <v>24.28454056</v>
       </c>
       <c r="E83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -95072,7 +94901,7 @@
         <v>19.350123150000002</v>
       </c>
       <c r="E84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -95089,7 +94918,7 @@
         <v>6.7639555800000002</v>
       </c>
       <c r="E85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86">
@@ -95106,7 +94935,7 @@
         <v>84.634219669999993</v>
       </c>
       <c r="E86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
@@ -95123,7 +94952,7 @@
         <v>111.10784296999999</v>
       </c>
       <c r="E87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
@@ -95140,7 +94969,24 @@
         <v>-43.650501230000003</v>
       </c>
       <c r="E88" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C89" s="4">
+        <v>-32.865227949999998</v>
+      </c>
+      <c r="D89" s="4">
+        <v>-32.865227949999998</v>
+      </c>
+      <c r="E89" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/19/2021</t>
+    <t xml:space="preserve"> 03/08/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -449,7 +449,7 @@
     <t>Inversión extranjera directa, cifras revisadas</t>
   </si>
   <si>
-    <t>(sum) c</t>
+    <t>Nota</t>
   </si>
   <si>
     <t/>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/16/2021</t>
+    <t xml:space="preserve"> 03/22/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04/08/2021</t>
+    <t xml:space="preserve"> 04/12/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/13/2021</t>
+    <t xml:space="preserve"> 05/17/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13065" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13067" uniqueCount="141">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/18/2021</t>
+    <t xml:space="preserve"> 05/21/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -94720,7 +94720,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -95210,7 +95210,7 @@
         <v>0.63599399999999995</v>
       </c>
       <c r="D29" s="4">
-        <v>0.63599400000000195</v>
+        <v>0.63599400000000095</v>
       </c>
       <c r="E29" t="s">
         <v>140</v>
@@ -95397,7 +95397,7 @@
         <v>-1.822506</v>
       </c>
       <c r="D40" s="4">
-        <v>-1.82250599999998</v>
+        <v>-1.82250599999999</v>
       </c>
       <c r="E40" t="s">
         <v>140</v>
@@ -96230,9 +96230,26 @@
         <v>-32.865227949999998</v>
       </c>
       <c r="D89" s="4">
-        <v>-32.865227949999998</v>
+        <v>-28.6800709</v>
       </c>
       <c r="E89" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="5">
+        <v>44197</v>
+      </c>
+      <c r="C90" s="4">
+        <v>30.084558619999999</v>
+      </c>
+      <c r="D90" s="4">
+        <v>30.084558619999999</v>
+      </c>
+      <c r="E90" t="s">
         <v>140</v>
       </c>
     </row>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13067" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13053" uniqueCount="141">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/21/2021</t>
+    <t xml:space="preserve"> 05/25/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -77785,7 +77785,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P54"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -77911,10 +77911,10 @@
         <v>334410</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>102</v>
@@ -77961,10 +77961,10 @@
         <v>334410</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>102</v>
@@ -78161,7 +78161,7 @@
         <v>334310</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -78211,7 +78211,7 @@
         <v>334310</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -78311,7 +78311,7 @@
         <v>334410</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
@@ -78361,10 +78361,10 @@
         <v>334410</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I12" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>102</v>
@@ -78411,10 +78411,10 @@
         <v>334410</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I13" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
         <v>102</v>
@@ -78961,10 +78961,10 @@
         <v>334410</v>
       </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I24" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>102</v>
@@ -79011,7 +79011,7 @@
         <v>334410</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
@@ -79061,10 +79061,10 @@
         <v>334410</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>102</v>
@@ -79111,10 +79111,10 @@
         <v>334410</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I27" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>102</v>
@@ -79511,10 +79511,10 @@
         <v>334410</v>
       </c>
       <c r="H35" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I35" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>102</v>
@@ -79561,10 +79561,10 @@
         <v>334410</v>
       </c>
       <c r="H36" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I36" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
         <v>102</v>
@@ -79711,7 +79711,7 @@
         <v>334110</v>
       </c>
       <c r="H39" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I39" s="4">
         <v>1</v>
@@ -79761,7 +79761,7 @@
         <v>334110</v>
       </c>
       <c r="H40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I40" s="4">
         <v>1</v>
@@ -79961,10 +79961,10 @@
         <v>334410</v>
       </c>
       <c r="H44" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I44" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
         <v>102</v>
@@ -80011,10 +80011,10 @@
         <v>334410</v>
       </c>
       <c r="H45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I45" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
         <v>102</v>
@@ -80061,10 +80061,10 @@
         <v>334410</v>
       </c>
       <c r="H46" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I46" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>102</v>
@@ -80111,10 +80111,10 @@
         <v>334410</v>
       </c>
       <c r="H47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I47" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J47" t="s">
         <v>102</v>
@@ -80161,10 +80161,10 @@
         <v>334410</v>
       </c>
       <c r="H48" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I48" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
         <v>102</v>
@@ -80211,7 +80211,7 @@
         <v>334410</v>
       </c>
       <c r="H49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I49" s="4">
         <v>2</v>
@@ -80252,13 +80252,13 @@
         <v>334</v>
       </c>
       <c r="E50" s="4">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="F50" s="4">
-        <v>33441</v>
+        <v>33451</v>
       </c>
       <c r="G50" s="4">
-        <v>334410</v>
+        <v>334519</v>
       </c>
       <c r="H50" t="s">
         <v>98</v>
@@ -80273,13 +80273,13 @@
         <v>103</v>
       </c>
       <c r="L50" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M50" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N50" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O50" s="4">
         <v>120</v>
@@ -80311,10 +80311,10 @@
         <v>334519</v>
       </c>
       <c r="H51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I51" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>102</v>
@@ -80361,10 +80361,10 @@
         <v>334519</v>
       </c>
       <c r="H52" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I52" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>102</v>
@@ -80402,16 +80402,16 @@
         <v>334</v>
       </c>
       <c r="E53" s="4">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="F53" s="4">
-        <v>33451</v>
+        <v>33461</v>
       </c>
       <c r="G53" s="4">
-        <v>334519</v>
+        <v>334610</v>
       </c>
       <c r="H53" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I53" s="4">
         <v>1</v>
@@ -80423,13 +80423,13 @@
         <v>103</v>
       </c>
       <c r="L53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N53" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O53" s="4">
         <v>120</v>
@@ -80452,16 +80452,16 @@
         <v>334</v>
       </c>
       <c r="E54" s="4">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="F54" s="4">
-        <v>33451</v>
+        <v>33461</v>
       </c>
       <c r="G54" s="4">
-        <v>334519</v>
+        <v>334610</v>
       </c>
       <c r="H54" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I54" s="4">
         <v>1</v>
@@ -80473,118 +80473,18 @@
         <v>103</v>
       </c>
       <c r="L54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N54" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O54" s="4">
         <v>120</v>
       </c>
       <c r="P54" s="5">
-        <v>44136</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="4">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="4">
-        <v>33</v>
-      </c>
-      <c r="D55" s="4">
-        <v>334</v>
-      </c>
-      <c r="E55" s="4">
-        <v>3346</v>
-      </c>
-      <c r="F55" s="4">
-        <v>33461</v>
-      </c>
-      <c r="G55" s="4">
-        <v>334610</v>
-      </c>
-      <c r="H55" t="s">
-        <v>99</v>
-      </c>
-      <c r="I55" s="4">
-        <v>1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>102</v>
-      </c>
-      <c r="K55" t="s">
-        <v>103</v>
-      </c>
-      <c r="L55" t="s">
-        <v>110</v>
-      </c>
-      <c r="M55" t="s">
-        <v>110</v>
-      </c>
-      <c r="N55" t="s">
-        <v>110</v>
-      </c>
-      <c r="O55" s="4">
-        <v>120</v>
-      </c>
-      <c r="P55" s="5">
-        <v>44136</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4">
-        <v>14</v>
-      </c>
-      <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="4">
-        <v>33</v>
-      </c>
-      <c r="D56" s="4">
-        <v>334</v>
-      </c>
-      <c r="E56" s="4">
-        <v>3346</v>
-      </c>
-      <c r="F56" s="4">
-        <v>33461</v>
-      </c>
-      <c r="G56" s="4">
-        <v>334610</v>
-      </c>
-      <c r="H56" t="s">
-        <v>93</v>
-      </c>
-      <c r="I56" s="4">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>102</v>
-      </c>
-      <c r="K56" t="s">
-        <v>103</v>
-      </c>
-      <c r="L56" t="s">
-        <v>110</v>
-      </c>
-      <c r="M56" t="s">
-        <v>110</v>
-      </c>
-      <c r="N56" t="s">
-        <v>110</v>
-      </c>
-      <c r="O56" s="4">
-        <v>120</v>
-      </c>
-      <c r="P56" s="5">
         <v>44136</v>
       </c>
     </row>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13113" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13114" uniqueCount="141">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/21/2021</t>
+    <t xml:space="preserve"> 06/30/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -94396,7 +94396,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -95024,6 +95024,17 @@
       </c>
       <c r="C57" s="4">
         <v>3091709</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>44197</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2596888</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/30/2021</t>
+    <t xml:space="preserve"> 07/08/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -1384,10 +1384,10 @@
         <v>83916.724000000002</v>
       </c>
       <c r="E17" s="4">
-        <v>1208080.7709999999</v>
+        <v>1208076.0220000001</v>
       </c>
       <c r="F17" s="4">
-        <v>0.069462842232425534</v>
+        <v>0.069463115293914829</v>
       </c>
     </row>
     <row r="18">
@@ -1401,13 +1401,13 @@
         <v>2019</v>
       </c>
       <c r="D18" s="4">
-        <v>85373.895000000004</v>
+        <v>85321.217999999993</v>
       </c>
       <c r="E18" s="4">
-        <v>1216771.2960000001</v>
+        <v>1217549.8500000001</v>
       </c>
       <c r="F18" s="4">
-        <v>0.070164290759206077</v>
+        <v>0.070076159920680031</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13210" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13212" uniqueCount="141">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/12/2021</t>
+    <t xml:space="preserve"> 08/17/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -95731,7 +95731,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -96221,7 +96221,7 @@
         <v>0.63599399999999995</v>
       </c>
       <c r="D29" s="4">
-        <v>0.63599400000000095</v>
+        <v>0.63599400000000195</v>
       </c>
       <c r="E29" t="s">
         <v>140</v>
@@ -96408,7 +96408,7 @@
         <v>-1.822506</v>
       </c>
       <c r="D40" s="4">
-        <v>-1.82250599999999</v>
+        <v>-1.82250599999998</v>
       </c>
       <c r="E40" t="s">
         <v>140</v>
@@ -97264,6 +97264,23 @@
         <v>140</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="5">
+        <v>44287</v>
+      </c>
+      <c r="C91" s="4">
+        <v>-49.421154700000002</v>
+      </c>
+      <c r="D91" s="4">
+        <v>-49.421154700000002</v>
+      </c>
+      <c r="E91" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/18/2021</t>
+    <t xml:space="preserve"> 08/24/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13296" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13297" uniqueCount="141">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/17/2021</t>
+    <t xml:space="preserve"> 09/30/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -95632,7 +95632,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -96271,6 +96271,17 @@
       </c>
       <c r="C58" s="4">
         <v>2596888</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>44287</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="4">
+        <v>2957425</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/30/2021</t>
+    <t xml:space="preserve"> 10/06/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13417" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13419" uniqueCount="370">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11/19/2021</t>
+    <t xml:space="preserve"> 11/22/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -1138,6 +1138,9 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -97798,7 +97801,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -98288,7 +98291,7 @@
         <v>0.63599399999999995</v>
       </c>
       <c r="D29" s="4">
-        <v>0.63599400000000195</v>
+        <v>0.63599400000000095</v>
       </c>
       <c r="E29" t="s">
         <v>306</v>
@@ -98475,7 +98478,7 @@
         <v>-1.822506</v>
       </c>
       <c r="D40" s="4">
-        <v>-1.82250599999998</v>
+        <v>-1.82250599999999</v>
       </c>
       <c r="E40" t="s">
         <v>317</v>
@@ -99342,10 +99345,27 @@
         <v>-49.421154700000002</v>
       </c>
       <c r="D91" s="4">
-        <v>-49.421154700000002</v>
+        <v>-49.420654990000003</v>
       </c>
       <c r="E91" t="s">
         <v>368</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C92" s="4">
+        <v>-16.093854610000001</v>
+      </c>
+      <c r="D92" s="4">
+        <v>-16.093854610000001</v>
+      </c>
+      <c r="E92" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13481" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13482" uniqueCount="374">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12/17/2021</t>
+    <t xml:space="preserve"> 01/04/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -84978,7 +84978,7 @@
         <v>257</v>
       </c>
       <c r="D108" s="4">
-        <v>209.81019592285156</v>
+        <v>209.81019615506753</v>
       </c>
       <c r="E108" t="s">
         <v>267</v>
@@ -84995,7 +84995,7 @@
         <v>257</v>
       </c>
       <c r="D109" s="4">
-        <v>212.99566650390625</v>
+        <v>212.99567142643912</v>
       </c>
       <c r="E109" t="s">
         <v>267</v>
@@ -85012,7 +85012,7 @@
         <v>257</v>
       </c>
       <c r="D110" s="4">
-        <v>215.63896179199219</v>
+        <v>215.63896122512364</v>
       </c>
       <c r="E110" t="s">
         <v>267</v>
@@ -85029,7 +85029,7 @@
         <v>257</v>
       </c>
       <c r="D111" s="4">
-        <v>213.8155517578125</v>
+        <v>213.81555326838841</v>
       </c>
       <c r="E111" t="s">
         <v>267</v>
@@ -85046,7 +85046,7 @@
         <v>257</v>
       </c>
       <c r="D112" s="4">
-        <v>211.60015869140625</v>
+        <v>211.60015694601518</v>
       </c>
       <c r="E112" t="s">
         <v>267</v>
@@ -85063,7 +85063,7 @@
         <v>257</v>
       </c>
       <c r="D113" s="4">
-        <v>201.62594604492188</v>
+        <v>201.62594322673374</v>
       </c>
       <c r="E113" t="s">
         <v>267</v>
@@ -85080,7 +85080,7 @@
         <v>257</v>
       </c>
       <c r="D114" s="4">
-        <v>207.92779541015625</v>
+        <v>207.92778828839096</v>
       </c>
       <c r="E114" t="s">
         <v>267</v>
@@ -85097,7 +85097,7 @@
         <v>257</v>
       </c>
       <c r="D115" s="4">
-        <v>205.18804931640625</v>
+        <v>205.18804416120636</v>
       </c>
       <c r="E115" t="s">
         <v>267</v>
@@ -85114,7 +85114,7 @@
         <v>257</v>
       </c>
       <c r="D116" s="4">
-        <v>208.66676330566406</v>
+        <v>208.66676026018999</v>
       </c>
       <c r="E116" t="s">
         <v>267</v>
@@ -85131,7 +85131,7 @@
         <v>257</v>
       </c>
       <c r="D117" s="4">
-        <v>226.69557189941406</v>
+        <v>226.69557884592217</v>
       </c>
       <c r="E117" t="s">
         <v>267</v>
@@ -85148,7 +85148,7 @@
         <v>257</v>
       </c>
       <c r="D118" s="4">
-        <v>206.63743591308594</v>
+        <v>206.63742978220165</v>
       </c>
       <c r="E118" t="s">
         <v>267</v>
@@ -85165,7 +85165,7 @@
         <v>257</v>
       </c>
       <c r="D119" s="4">
-        <v>214.36065673828125</v>
+        <v>214.36065093810234</v>
       </c>
       <c r="E119" t="s">
         <v>267</v>
@@ -85182,7 +85182,7 @@
         <v>257</v>
       </c>
       <c r="D120" s="4">
-        <v>216.80555725097656</v>
+        <v>216.80555555555554</v>
       </c>
       <c r="E120" t="s">
         <v>267</v>
@@ -85199,7 +85199,7 @@
         <v>257</v>
       </c>
       <c r="D121" s="4">
-        <v>206.07942199707031</v>
+        <v>206.079424742605</v>
       </c>
       <c r="E121" t="s">
         <v>267</v>
@@ -85216,7 +85216,7 @@
         <v>257</v>
       </c>
       <c r="D122" s="4">
-        <v>219.21907043457031</v>
+        <v>219.21907769163701</v>
       </c>
       <c r="E122" t="s">
         <v>267</v>
@@ -85233,7 +85233,7 @@
         <v>257</v>
       </c>
       <c r="D123" s="4">
-        <v>212.7060546875</v>
+        <v>212.70606197962641</v>
       </c>
       <c r="E123" t="s">
         <v>267</v>
@@ -85250,7 +85250,7 @@
         <v>257</v>
       </c>
       <c r="D124" s="4">
-        <v>220.025634765625</v>
+        <v>220.02563128915892</v>
       </c>
       <c r="E124" t="s">
         <v>267</v>
@@ -85267,7 +85267,7 @@
         <v>257</v>
       </c>
       <c r="D125" s="4">
-        <v>214.00201416015625</v>
+        <v>214.00202110408685</v>
       </c>
       <c r="E125" t="s">
         <v>267</v>
@@ -85284,7 +85284,7 @@
         <v>257</v>
       </c>
       <c r="D126" s="4">
-        <v>221.28898620605469</v>
+        <v>221.28898327328258</v>
       </c>
       <c r="E126" t="s">
         <v>267</v>
@@ -85301,7 +85301,7 @@
         <v>257</v>
       </c>
       <c r="D127" s="4">
-        <v>217.77427673339844</v>
+        <v>217.77427505157507</v>
       </c>
       <c r="E127" t="s">
         <v>267</v>
@@ -85318,7 +85318,7 @@
         <v>257</v>
       </c>
       <c r="D128" s="4">
-        <v>212.17561340332031</v>
+        <v>212.17561612534683</v>
       </c>
       <c r="E128" t="s">
         <v>267</v>
@@ -85335,7 +85335,7 @@
         <v>257</v>
       </c>
       <c r="D129" s="4">
-        <v>224.77842712402344</v>
+        <v>224.77843169182813</v>
       </c>
       <c r="E129" t="s">
         <v>267</v>
@@ -85352,7 +85352,7 @@
         <v>257</v>
       </c>
       <c r="D130" s="4">
-        <v>199.545654296875</v>
+        <v>199.54565272264165</v>
       </c>
       <c r="E130" t="s">
         <v>267</v>
@@ -85369,7 +85369,7 @@
         <v>257</v>
       </c>
       <c r="D131" s="4">
-        <v>216.88885498046875</v>
+        <v>216.88884738402635</v>
       </c>
       <c r="E131" t="s">
         <v>267</v>
@@ -85386,7 +85386,7 @@
         <v>257</v>
       </c>
       <c r="D132" s="4">
-        <v>222.66363525390625</v>
+        <v>222.66363527581669</v>
       </c>
       <c r="E132" t="s">
         <v>267</v>
@@ -85403,7 +85403,7 @@
         <v>257</v>
       </c>
       <c r="D133" s="4">
-        <v>207.15873718261719</v>
+        <v>207.1587404059967</v>
       </c>
       <c r="E133" t="s">
         <v>267</v>
@@ -85420,7 +85420,7 @@
         <v>257</v>
       </c>
       <c r="D134" s="4">
-        <v>219.00914001464844</v>
+        <v>219.00914310014883</v>
       </c>
       <c r="E134" t="s">
         <v>267</v>
@@ -85437,7 +85437,7 @@
         <v>257</v>
       </c>
       <c r="D135" s="4">
-        <v>220.27581787109375</v>
+        <v>220.27581950675307</v>
       </c>
       <c r="E135" t="s">
         <v>267</v>
@@ -85454,7 +85454,7 @@
         <v>257</v>
       </c>
       <c r="D136" s="4">
-        <v>214.81221008300781</v>
+        <v>214.81221481221482</v>
       </c>
       <c r="E136" t="s">
         <v>267</v>
@@ -85471,7 +85471,7 @@
         <v>257</v>
       </c>
       <c r="D137" s="4">
-        <v>219.33680725097656</v>
+        <v>219.33680485110796</v>
       </c>
       <c r="E137" t="s">
         <v>267</v>
@@ -85488,7 +85488,7 @@
         <v>257</v>
       </c>
       <c r="D138" s="4">
-        <v>224.15243530273438</v>
+        <v>224.15242984863238</v>
       </c>
       <c r="E138" t="s">
         <v>267</v>
@@ -85505,7 +85505,7 @@
         <v>257</v>
       </c>
       <c r="D139" s="4">
-        <v>216.2071533203125</v>
+        <v>216.20715849680505</v>
       </c>
       <c r="E139" t="s">
         <v>267</v>
@@ -85522,7 +85522,7 @@
         <v>257</v>
       </c>
       <c r="D140" s="4">
-        <v>216.04428100585938</v>
+        <v>216.04428472578738</v>
       </c>
       <c r="E140" t="s">
         <v>267</v>
@@ -85539,7 +85539,7 @@
         <v>257</v>
       </c>
       <c r="D141" s="4">
-        <v>224.10792541503906</v>
+        <v>224.10791993037424</v>
       </c>
       <c r="E141" t="s">
         <v>267</v>
@@ -85556,7 +85556,7 @@
         <v>257</v>
       </c>
       <c r="D142" s="4">
-        <v>211.42608642578125</v>
+        <v>211.42608884544367</v>
       </c>
       <c r="E142" t="s">
         <v>267</v>
@@ -85573,7 +85573,7 @@
         <v>257</v>
       </c>
       <c r="D143" s="4">
-        <v>221.2156982421875</v>
+        <v>221.2157017198372</v>
       </c>
       <c r="E143" t="s">
         <v>267</v>
@@ -85590,7 +85590,7 @@
         <v>257</v>
       </c>
       <c r="D144" s="4">
-        <v>204.35633850097656</v>
+        <v>204.35633871757219</v>
       </c>
       <c r="E144" t="s">
         <v>267</v>
@@ -85607,7 +85607,7 @@
         <v>257</v>
       </c>
       <c r="D145" s="4">
-        <v>204.95655822753906</v>
+        <v>204.95655258024473</v>
       </c>
       <c r="E145" t="s">
         <v>267</v>
@@ -85624,7 +85624,7 @@
         <v>257</v>
       </c>
       <c r="D146" s="4">
-        <v>209.1461181640625</v>
+        <v>209.14612519950344</v>
       </c>
       <c r="E146" t="s">
         <v>267</v>
@@ -85641,7 +85641,7 @@
         <v>257</v>
       </c>
       <c r="D147" s="4">
-        <v>215.84062194824219</v>
+        <v>215.84061548039935</v>
       </c>
       <c r="E147" t="s">
         <v>267</v>
@@ -85658,7 +85658,7 @@
         <v>257</v>
       </c>
       <c r="D148" s="4">
-        <v>208.14520263671875</v>
+        <v>208.14519698981852</v>
       </c>
       <c r="E148" t="s">
         <v>267</v>
@@ -85675,7 +85675,7 @@
         <v>257</v>
       </c>
       <c r="D149" s="4">
-        <v>210.80732727050781</v>
+        <v>210.80731969860065</v>
       </c>
       <c r="E149" t="s">
         <v>267</v>
@@ -85692,7 +85692,7 @@
         <v>257</v>
       </c>
       <c r="D150" s="4">
-        <v>199.54725646972656</v>
+        <v>199.54726006919233</v>
       </c>
       <c r="E150" t="s">
         <v>267</v>
@@ -85709,7 +85709,7 @@
         <v>257</v>
       </c>
       <c r="D151" s="4">
-        <v>202.68949890136719</v>
+        <v>202.68950179785088</v>
       </c>
       <c r="E151" t="s">
         <v>267</v>
@@ -85726,7 +85726,7 @@
         <v>257</v>
       </c>
       <c r="D152" s="4">
-        <v>197.21846008300781</v>
+        <v>197.21845456201794</v>
       </c>
       <c r="E152" t="s">
         <v>267</v>
@@ -85743,7 +85743,7 @@
         <v>257</v>
       </c>
       <c r="D153" s="4">
-        <v>199.67758178710938</v>
+        <v>199.67758627552442</v>
       </c>
       <c r="E153" t="s">
         <v>267</v>
@@ -85760,7 +85760,7 @@
         <v>257</v>
       </c>
       <c r="D154" s="4">
-        <v>193.55284118652344</v>
+        <v>193.55284456551777</v>
       </c>
       <c r="E154" t="s">
         <v>267</v>
@@ -85777,7 +85777,7 @@
         <v>257</v>
       </c>
       <c r="D155" s="4">
-        <v>201.76640319824219</v>
+        <v>201.76639872978069</v>
       </c>
       <c r="E155" t="s">
         <v>267</v>
@@ -85794,7 +85794,7 @@
         <v>257</v>
       </c>
       <c r="D156" s="4">
-        <v>202.77900695800781</v>
+        <v>202.77900132142713</v>
       </c>
       <c r="E156" t="s">
         <v>267</v>
@@ -85811,7 +85811,7 @@
         <v>257</v>
       </c>
       <c r="D157" s="4">
-        <v>193.14532470703125</v>
+        <v>193.14532729518319</v>
       </c>
       <c r="E157" t="s">
         <v>267</v>
@@ -85828,7 +85828,7 @@
         <v>257</v>
       </c>
       <c r="D158" s="4">
-        <v>209.91435241699219</v>
+        <v>209.91434518091577</v>
       </c>
       <c r="E158" t="s">
         <v>267</v>
@@ -85845,7 +85845,7 @@
         <v>257</v>
       </c>
       <c r="D159" s="4">
-        <v>195.2088623046875</v>
+        <v>195.20886186261788</v>
       </c>
       <c r="E159" t="s">
         <v>267</v>
@@ -85862,7 +85862,7 @@
         <v>257</v>
       </c>
       <c r="D160" s="4">
-        <v>203.02397155761719</v>
+        <v>203.02397294339997</v>
       </c>
       <c r="E160" t="s">
         <v>267</v>
@@ -85879,7 +85879,7 @@
         <v>257</v>
       </c>
       <c r="D161" s="4">
-        <v>207.47581481933594</v>
+        <v>207.47581016740901</v>
       </c>
       <c r="E161" t="s">
         <v>267</v>
@@ -85896,7 +85896,7 @@
         <v>257</v>
       </c>
       <c r="D162" s="4">
-        <v>199.06423950195313</v>
+        <v>199.06424397301714</v>
       </c>
       <c r="E162" t="s">
         <v>267</v>
@@ -85913,7 +85913,7 @@
         <v>257</v>
       </c>
       <c r="D163" s="4">
-        <v>202.65060424804688</v>
+        <v>202.65061125591981</v>
       </c>
       <c r="E163" t="s">
         <v>267</v>
@@ -85930,7 +85930,7 @@
         <v>257</v>
       </c>
       <c r="D164" s="4">
-        <v>205.71553039550781</v>
+        <v>205.71553228621292</v>
       </c>
       <c r="E164" t="s">
         <v>267</v>
@@ -85947,7 +85947,7 @@
         <v>257</v>
       </c>
       <c r="D165" s="4">
-        <v>202.77713012695313</v>
+        <v>202.77712994025941</v>
       </c>
       <c r="E165" t="s">
         <v>267</v>
@@ -85964,7 +85964,7 @@
         <v>257</v>
       </c>
       <c r="D166" s="4">
-        <v>198.22549438476563</v>
+        <v>198.22548843878832</v>
       </c>
       <c r="E166" t="s">
         <v>267</v>
@@ -85981,7 +85981,7 @@
         <v>257</v>
       </c>
       <c r="D167" s="4">
-        <v>204.71627807617188</v>
+        <v>204.71628058609386</v>
       </c>
       <c r="E167" t="s">
         <v>267</v>
@@ -85998,7 +85998,7 @@
         <v>257</v>
       </c>
       <c r="D168" s="4">
-        <v>196.67390441894531</v>
+        <v>196.67391098932251</v>
       </c>
       <c r="E168" t="s">
         <v>267</v>
@@ -86015,7 +86015,7 @@
         <v>257</v>
       </c>
       <c r="D169" s="4">
-        <v>190.52864074707031</v>
+        <v>190.52863436123349</v>
       </c>
       <c r="E169" t="s">
         <v>267</v>
@@ -86032,7 +86032,7 @@
         <v>257</v>
       </c>
       <c r="D170" s="4">
-        <v>201.74124145507813</v>
+        <v>201.74124163046983</v>
       </c>
       <c r="E170" t="s">
         <v>267</v>
@@ -86049,7 +86049,7 @@
         <v>257</v>
       </c>
       <c r="D171" s="4">
-        <v>197.76673889160156</v>
+        <v>197.76673573039477</v>
       </c>
       <c r="E171" t="s">
         <v>267</v>
@@ -86066,7 +86066,7 @@
         <v>257</v>
       </c>
       <c r="D172" s="4">
-        <v>202.79202270507813</v>
+        <v>202.79202485010475</v>
       </c>
       <c r="E172" t="s">
         <v>267</v>
@@ -86083,7 +86083,7 @@
         <v>257</v>
       </c>
       <c r="D173" s="4">
-        <v>203.72390747070313</v>
+        <v>203.72390975326459</v>
       </c>
       <c r="E173" t="s">
         <v>267</v>
@@ -86100,7 +86100,7 @@
         <v>257</v>
       </c>
       <c r="D174" s="4">
-        <v>198.06153869628906</v>
+        <v>198.06154005632246</v>
       </c>
       <c r="E174" t="s">
         <v>267</v>
@@ -86117,7 +86117,7 @@
         <v>257</v>
       </c>
       <c r="D175" s="4">
-        <v>206.079833984375</v>
+        <v>206.07983348440595</v>
       </c>
       <c r="E175" t="s">
         <v>267</v>
@@ -86134,7 +86134,7 @@
         <v>257</v>
       </c>
       <c r="D176" s="4">
-        <v>200.2113037109375</v>
+        <v>200.21130480718438</v>
       </c>
       <c r="E176" t="s">
         <v>267</v>
@@ -86151,7 +86151,7 @@
         <v>257</v>
       </c>
       <c r="D177" s="4">
-        <v>203.09646606445313</v>
+        <v>203.09646423929317</v>
       </c>
       <c r="E177" t="s">
         <v>267</v>
@@ -86168,7 +86168,7 @@
         <v>257</v>
       </c>
       <c r="D178" s="4">
-        <v>205.592529296875</v>
+        <v>205.59253458626989</v>
       </c>
       <c r="E178" t="s">
         <v>267</v>
@@ -86185,7 +86185,7 @@
         <v>257</v>
       </c>
       <c r="D179" s="4">
-        <v>200.50071716308594</v>
+        <v>200.50071998952743</v>
       </c>
       <c r="E179" t="s">
         <v>267</v>
@@ -86202,7 +86202,7 @@
         <v>257</v>
       </c>
       <c r="D180" s="4">
-        <v>187.30865478515625</v>
+        <v>187.30865106318907</v>
       </c>
       <c r="E180" t="s">
         <v>267</v>
@@ -86219,7 +86219,7 @@
         <v>257</v>
       </c>
       <c r="D181" s="4">
-        <v>181.21214294433594</v>
+        <v>181.21215041845372</v>
       </c>
       <c r="E181" t="s">
         <v>267</v>
@@ -86236,7 +86236,7 @@
         <v>257</v>
       </c>
       <c r="D182" s="4">
-        <v>188.73348999023438</v>
+        <v>188.73348622371523</v>
       </c>
       <c r="E182" t="s">
         <v>267</v>
@@ -86253,7 +86253,7 @@
         <v>257</v>
       </c>
       <c r="D183" s="4">
-        <v>184.99179077148438</v>
+        <v>184.99179707218576</v>
       </c>
       <c r="E183" t="s">
         <v>267</v>
@@ -86270,7 +86270,7 @@
         <v>257</v>
       </c>
       <c r="D184" s="4">
-        <v>201.54904174804688</v>
+        <v>201.54904522771281</v>
       </c>
       <c r="E184" t="s">
         <v>267</v>
@@ -86287,7 +86287,7 @@
         <v>257</v>
       </c>
       <c r="D185" s="4">
-        <v>186.70597839355469</v>
+        <v>186.70597860483784</v>
       </c>
       <c r="E185" t="s">
         <v>267</v>
@@ -86304,7 +86304,7 @@
         <v>257</v>
       </c>
       <c r="D186" s="4">
-        <v>196.72030639648438</v>
+        <v>196.72030932404138</v>
       </c>
       <c r="E186" t="s">
         <v>267</v>
@@ -86321,7 +86321,7 @@
         <v>257</v>
       </c>
       <c r="D187" s="4">
-        <v>200.43536376953125</v>
+        <v>200.43536756813955</v>
       </c>
       <c r="E187" t="s">
         <v>267</v>
@@ -86338,7 +86338,7 @@
         <v>257</v>
       </c>
       <c r="D188" s="4">
-        <v>180.75346374511719</v>
+        <v>180.75346476673823</v>
       </c>
       <c r="E188" t="s">
         <v>267</v>
@@ -86355,7 +86355,7 @@
         <v>257</v>
       </c>
       <c r="D189" s="4">
-        <v>189.04049682617188</v>
+        <v>189.04049979796724</v>
       </c>
       <c r="E189" t="s">
         <v>267</v>
@@ -86372,7 +86372,7 @@
         <v>257</v>
       </c>
       <c r="D190" s="4">
-        <v>205.153076171875</v>
+        <v>205.15307479311045</v>
       </c>
       <c r="E190" t="s">
         <v>267</v>
@@ -86389,7 +86389,7 @@
         <v>257</v>
       </c>
       <c r="D191" s="4">
-        <v>198.69876098632813</v>
+        <v>198.69876177573332</v>
       </c>
       <c r="E191" t="s">
         <v>267</v>
@@ -86406,7 +86406,7 @@
         <v>257</v>
       </c>
       <c r="D192" s="4">
-        <v>195.82182312011719</v>
+        <v>195.82182542231357</v>
       </c>
       <c r="E192" t="s">
         <v>267</v>
@@ -86423,7 +86423,7 @@
         <v>257</v>
       </c>
       <c r="D193" s="4">
-        <v>179.60273742675781</v>
+        <v>179.60274281299294</v>
       </c>
       <c r="E193" t="s">
         <v>267</v>
@@ -86440,7 +86440,7 @@
         <v>257</v>
       </c>
       <c r="D194" s="4">
-        <v>186.92106628417969</v>
+        <v>186.92106721558071</v>
       </c>
       <c r="E194" t="s">
         <v>267</v>
@@ -86457,7 +86457,7 @@
         <v>257</v>
       </c>
       <c r="D195" s="4">
-        <v>190.25959777832031</v>
+        <v>190.25959805259345</v>
       </c>
       <c r="E195" t="s">
         <v>267</v>
@@ -86474,7 +86474,7 @@
         <v>257</v>
       </c>
       <c r="D196" s="4">
-        <v>193.59945678710938</v>
+        <v>193.59946100724272</v>
       </c>
       <c r="E196" t="s">
         <v>267</v>
@@ -86491,7 +86491,7 @@
         <v>257</v>
       </c>
       <c r="D197" s="4">
-        <v>185.83598327636719</v>
+        <v>185.83597737618982</v>
       </c>
       <c r="E197" t="s">
         <v>267</v>
@@ -86508,7 +86508,7 @@
         <v>257</v>
       </c>
       <c r="D198" s="4">
-        <v>205.50112915039063</v>
+        <v>205.50112267809757</v>
       </c>
       <c r="E198" t="s">
         <v>267</v>
@@ -86525,7 +86525,7 @@
         <v>257</v>
       </c>
       <c r="D199" s="4">
-        <v>184.32405090332031</v>
+        <v>184.32404891304347</v>
       </c>
       <c r="E199" t="s">
         <v>267</v>
@@ -86542,7 +86542,7 @@
         <v>257</v>
       </c>
       <c r="D200" s="4">
-        <v>184.832275390625</v>
+        <v>184.83227837389569</v>
       </c>
       <c r="E200" t="s">
         <v>267</v>
@@ -86559,7 +86559,7 @@
         <v>257</v>
       </c>
       <c r="D201" s="4">
-        <v>199.13331604003906</v>
+        <v>199.13331286040878</v>
       </c>
       <c r="E201" t="s">
         <v>267</v>
@@ -86576,7 +86576,7 @@
         <v>257</v>
       </c>
       <c r="D202" s="4">
-        <v>184.27099609375</v>
+        <v>184.2709917215746</v>
       </c>
       <c r="E202" t="s">
         <v>267</v>
@@ -86593,7 +86593,7 @@
         <v>257</v>
       </c>
       <c r="D203" s="4">
-        <v>192.63247680664063</v>
+        <v>192.63247663160712</v>
       </c>
       <c r="E203" t="s">
         <v>267</v>
@@ -86610,7 +86610,7 @@
         <v>257</v>
       </c>
       <c r="D204" s="4">
-        <v>193.93109130859375</v>
+        <v>193.93108583807202</v>
       </c>
       <c r="E204" t="s">
         <v>267</v>
@@ -86627,7 +86627,7 @@
         <v>257</v>
       </c>
       <c r="D205" s="4">
-        <v>176.70498657226563</v>
+        <v>176.70498335601724</v>
       </c>
       <c r="E205" t="s">
         <v>267</v>
@@ -86644,7 +86644,7 @@
         <v>257</v>
       </c>
       <c r="D206" s="4">
-        <v>187.6099853515625</v>
+        <v>187.60999079710027</v>
       </c>
       <c r="E206" t="s">
         <v>267</v>
@@ -86661,7 +86661,7 @@
         <v>257</v>
       </c>
       <c r="D207" s="4">
-        <v>194.10594177246094</v>
+        <v>194.10593775792591</v>
       </c>
       <c r="E207" t="s">
         <v>267</v>
@@ -86678,7 +86678,7 @@
         <v>257</v>
       </c>
       <c r="D208" s="4">
-        <v>184.41255187988281</v>
+        <v>184.41255547277379</v>
       </c>
       <c r="E208" t="s">
         <v>267</v>
@@ -86695,7 +86695,7 @@
         <v>257</v>
       </c>
       <c r="D209" s="4">
-        <v>187.58314514160156</v>
+        <v>187.58314855875832</v>
       </c>
       <c r="E209" t="s">
         <v>267</v>
@@ -86712,7 +86712,7 @@
         <v>257</v>
       </c>
       <c r="D210" s="4">
-        <v>201.62905883789063</v>
+        <v>201.62905370155332</v>
       </c>
       <c r="E210" t="s">
         <v>267</v>
@@ -86729,7 +86729,7 @@
         <v>257</v>
       </c>
       <c r="D211" s="4">
-        <v>185.34585571289063</v>
+        <v>185.34585013725555</v>
       </c>
       <c r="E211" t="s">
         <v>267</v>
@@ -86746,7 +86746,7 @@
         <v>257</v>
       </c>
       <c r="D212" s="4">
-        <v>192.18736267089844</v>
+        <v>192.18736788703814</v>
       </c>
       <c r="E212" t="s">
         <v>267</v>
@@ -86763,7 +86763,7 @@
         <v>257</v>
       </c>
       <c r="D213" s="4">
-        <v>193.231201171875</v>
+        <v>193.23119919565107</v>
       </c>
       <c r="E213" t="s">
         <v>267</v>
@@ -90384,7 +90384,7 @@
         <v>260</v>
       </c>
       <c r="D426" s="4">
-        <v>169.55519104003906</v>
+        <v>169.55518913732536</v>
       </c>
       <c r="E426" t="s">
         <v>270</v>
@@ -90401,7 +90401,7 @@
         <v>260</v>
       </c>
       <c r="D427" s="4">
-        <v>225.48567199707031</v>
+        <v>225.48567388959253</v>
       </c>
       <c r="E427" t="s">
         <v>270</v>
@@ -90418,7 +90418,7 @@
         <v>260</v>
       </c>
       <c r="D428" s="4">
-        <v>184.12471008300781</v>
+        <v>184.12471241485784</v>
       </c>
       <c r="E428" t="s">
         <v>270</v>
@@ -90435,7 +90435,7 @@
         <v>260</v>
       </c>
       <c r="D429" s="4">
-        <v>204.48831176757813</v>
+        <v>204.48830709709048</v>
       </c>
       <c r="E429" t="s">
         <v>270</v>
@@ -90452,7 +90452,7 @@
         <v>260</v>
       </c>
       <c r="D430" s="4">
-        <v>198.89889526367188</v>
+        <v>198.89889993724933</v>
       </c>
       <c r="E430" t="s">
         <v>270</v>
@@ -90469,7 +90469,7 @@
         <v>260</v>
       </c>
       <c r="D431" s="4">
-        <v>203.36534118652344</v>
+        <v>203.36534841217414</v>
       </c>
       <c r="E431" t="s">
         <v>270</v>
@@ -90486,7 +90486,7 @@
         <v>260</v>
       </c>
       <c r="D432" s="4">
-        <v>209.32228088378906</v>
+        <v>209.32227518073674</v>
       </c>
       <c r="E432" t="s">
         <v>270</v>
@@ -90503,7 +90503,7 @@
         <v>260</v>
       </c>
       <c r="D433" s="4">
-        <v>243.96418762207031</v>
+        <v>243.96418246439737</v>
       </c>
       <c r="E433" t="s">
         <v>270</v>
@@ -90520,7 +90520,7 @@
         <v>260</v>
       </c>
       <c r="D434" s="4">
-        <v>267.05648803710938</v>
+        <v>267.05648084439855</v>
       </c>
       <c r="E434" t="s">
         <v>270</v>
@@ -90537,7 +90537,7 @@
         <v>260</v>
       </c>
       <c r="D435" s="4">
-        <v>267.51806640625</v>
+        <v>267.5180794138945</v>
       </c>
       <c r="E435" t="s">
         <v>270</v>
@@ -90554,7 +90554,7 @@
         <v>260</v>
       </c>
       <c r="D436" s="4">
-        <v>301.82009887695313</v>
+        <v>301.82010280256145</v>
       </c>
       <c r="E436" t="s">
         <v>270</v>
@@ -90571,7 +90571,7 @@
         <v>260</v>
       </c>
       <c r="D437" s="4">
-        <v>266.37713623046875</v>
+        <v>266.377147799417</v>
       </c>
       <c r="E437" t="s">
         <v>270</v>
@@ -90588,7 +90588,7 @@
         <v>260</v>
       </c>
       <c r="D438" s="4">
-        <v>243.02250671386719</v>
+        <v>243.02251290677074</v>
       </c>
       <c r="E438" t="s">
         <v>270</v>
@@ -90605,7 +90605,7 @@
         <v>260</v>
       </c>
       <c r="D439" s="4">
-        <v>273.43704223632813</v>
+        <v>273.43704199494812</v>
       </c>
       <c r="E439" t="s">
         <v>270</v>
@@ -90622,7 +90622,7 @@
         <v>260</v>
       </c>
       <c r="D440" s="4">
-        <v>251.18914794921875</v>
+        <v>251.1891531938077</v>
       </c>
       <c r="E440" t="s">
         <v>270</v>
@@ -90639,7 +90639,7 @@
         <v>260</v>
       </c>
       <c r="D441" s="4">
-        <v>285.18759155273438</v>
+        <v>285.18760307160454</v>
       </c>
       <c r="E441" t="s">
         <v>270</v>
@@ -90656,7 +90656,7 @@
         <v>260</v>
       </c>
       <c r="D442" s="4">
-        <v>292.25982666015625</v>
+        <v>292.2598123456703</v>
       </c>
       <c r="E442" t="s">
         <v>270</v>
@@ -90673,7 +90673,7 @@
         <v>260</v>
       </c>
       <c r="D443" s="4">
-        <v>274.90728759765625</v>
+        <v>274.90728711554527</v>
       </c>
       <c r="E443" t="s">
         <v>270</v>
@@ -90690,7 +90690,7 @@
         <v>260</v>
       </c>
       <c r="D444" s="4">
-        <v>280.12838745117188</v>
+        <v>280.12839253733955</v>
       </c>
       <c r="E444" t="s">
         <v>270</v>
@@ -90707,7 +90707,7 @@
         <v>260</v>
       </c>
       <c r="D445" s="4">
-        <v>294.9228515625</v>
+        <v>294.92286479665898</v>
       </c>
       <c r="E445" t="s">
         <v>270</v>
@@ -90724,7 +90724,7 @@
         <v>260</v>
       </c>
       <c r="D446" s="4">
-        <v>350.20040893554688</v>
+        <v>350.20039710079112</v>
       </c>
       <c r="E446" t="s">
         <v>270</v>
@@ -90741,7 +90741,7 @@
         <v>260</v>
       </c>
       <c r="D447" s="4">
-        <v>341.3447265625</v>
+        <v>341.3447127903566</v>
       </c>
       <c r="E447" t="s">
         <v>270</v>
@@ -90758,7 +90758,7 @@
         <v>260</v>
       </c>
       <c r="D448" s="4">
-        <v>383.97918701171875</v>
+        <v>383.97918626911172</v>
       </c>
       <c r="E448" t="s">
         <v>270</v>
@@ -90775,7 +90775,7 @@
         <v>260</v>
       </c>
       <c r="D449" s="4">
-        <v>301.91839599609375</v>
+        <v>301.91838434866065</v>
       </c>
       <c r="E449" t="s">
         <v>270</v>
@@ -90792,7 +90792,7 @@
         <v>260</v>
       </c>
       <c r="D450" s="4">
-        <v>287.47085571289063</v>
+        <v>287.47085788935181</v>
       </c>
       <c r="E450" t="s">
         <v>270</v>
@@ -90809,7 +90809,7 @@
         <v>260</v>
       </c>
       <c r="D451" s="4">
-        <v>324.37991333007813</v>
+        <v>324.37991703795655</v>
       </c>
       <c r="E451" t="s">
         <v>270</v>
@@ -90826,7 +90826,7 @@
         <v>260</v>
       </c>
       <c r="D452" s="4">
-        <v>273.70541381835938</v>
+        <v>273.70541146978178</v>
       </c>
       <c r="E452" t="s">
         <v>270</v>
@@ -90843,7 +90843,7 @@
         <v>260</v>
       </c>
       <c r="D453" s="4">
-        <v>276.766357421875</v>
+        <v>276.76636100712625</v>
       </c>
       <c r="E453" t="s">
         <v>270</v>
@@ -90860,7 +90860,7 @@
         <v>260</v>
       </c>
       <c r="D454" s="4">
-        <v>262.57696533203125</v>
+        <v>262.57697586466855</v>
       </c>
       <c r="E454" t="s">
         <v>270</v>
@@ -90877,7 +90877,7 @@
         <v>260</v>
       </c>
       <c r="D455" s="4">
-        <v>244.00053405761719</v>
+        <v>244.00054024283037</v>
       </c>
       <c r="E455" t="s">
         <v>270</v>
@@ -90894,7 +90894,7 @@
         <v>260</v>
       </c>
       <c r="D456" s="4">
-        <v>263.558837890625</v>
+        <v>263.55882561538323</v>
       </c>
       <c r="E456" t="s">
         <v>270</v>
@@ -90911,7 +90911,7 @@
         <v>260</v>
       </c>
       <c r="D457" s="4">
-        <v>303.43118286132813</v>
+        <v>303.43117789278625</v>
       </c>
       <c r="E457" t="s">
         <v>270</v>
@@ -90928,7 +90928,7 @@
         <v>260</v>
       </c>
       <c r="D458" s="4">
-        <v>336.21142578125</v>
+        <v>336.21142004260724</v>
       </c>
       <c r="E458" t="s">
         <v>270</v>
@@ -90945,7 +90945,7 @@
         <v>260</v>
       </c>
       <c r="D459" s="4">
-        <v>319.0716552734375</v>
+        <v>319.07165663106269</v>
       </c>
       <c r="E459" t="s">
         <v>270</v>
@@ -90962,7 +90962,7 @@
         <v>260</v>
       </c>
       <c r="D460" s="4">
-        <v>328.31723022460938</v>
+        <v>328.31722351872304</v>
       </c>
       <c r="E460" t="s">
         <v>270</v>
@@ -90979,7 +90979,7 @@
         <v>260</v>
       </c>
       <c r="D461" s="4">
-        <v>333.00906372070313</v>
+        <v>333.0090605231299</v>
       </c>
       <c r="E461" t="s">
         <v>270</v>
@@ -90996,7 +90996,7 @@
         <v>260</v>
       </c>
       <c r="D462" s="4">
-        <v>331.61221313476563</v>
+        <v>331.6122068646024</v>
       </c>
       <c r="E462" t="s">
         <v>270</v>
@@ -91013,7 +91013,7 @@
         <v>260</v>
       </c>
       <c r="D463" s="4">
-        <v>331.63662719726563</v>
+        <v>331.6366202453396</v>
       </c>
       <c r="E463" t="s">
         <v>270</v>
@@ -91030,7 +91030,7 @@
         <v>260</v>
       </c>
       <c r="D464" s="4">
-        <v>294.9888916015625</v>
+        <v>294.98888708204521</v>
       </c>
       <c r="E464" t="s">
         <v>270</v>
@@ -91047,7 +91047,7 @@
         <v>260</v>
       </c>
       <c r="D465" s="4">
-        <v>279.54928588867188</v>
+        <v>279.5492956415917</v>
       </c>
       <c r="E465" t="s">
         <v>270</v>
@@ -91064,7 +91064,7 @@
         <v>260</v>
       </c>
       <c r="D466" s="4">
-        <v>269.42306518554688</v>
+        <v>269.42307283644311</v>
       </c>
       <c r="E466" t="s">
         <v>270</v>
@@ -91081,7 +91081,7 @@
         <v>260</v>
       </c>
       <c r="D467" s="4">
-        <v>288.60574340820313</v>
+        <v>288.6057284874621</v>
       </c>
       <c r="E467" t="s">
         <v>270</v>
@@ -91098,7 +91098,7 @@
         <v>260</v>
       </c>
       <c r="D468" s="4">
-        <v>297.87814331054688</v>
+        <v>297.8781507289014</v>
       </c>
       <c r="E468" t="s">
         <v>270</v>
@@ -91115,7 +91115,7 @@
         <v>260</v>
       </c>
       <c r="D469" s="4">
-        <v>289.11746215820313</v>
+        <v>289.1174568779378</v>
       </c>
       <c r="E469" t="s">
         <v>270</v>
@@ -91132,7 +91132,7 @@
         <v>260</v>
       </c>
       <c r="D470" s="4">
-        <v>339.88076782226563</v>
+        <v>339.8807658817052</v>
       </c>
       <c r="E470" t="s">
         <v>270</v>
@@ -91149,7 +91149,7 @@
         <v>260</v>
       </c>
       <c r="D471" s="4">
-        <v>302.6595458984375</v>
+        <v>302.65955646109842</v>
       </c>
       <c r="E471" t="s">
         <v>270</v>
@@ -91166,7 +91166,7 @@
         <v>260</v>
       </c>
       <c r="D472" s="4">
-        <v>299.85995483398438</v>
+        <v>299.85995391612539</v>
       </c>
       <c r="E472" t="s">
         <v>270</v>
@@ -91183,7 +91183,7 @@
         <v>260</v>
       </c>
       <c r="D473" s="4">
-        <v>331.63897705078125</v>
+        <v>331.63896389319865</v>
       </c>
       <c r="E473" t="s">
         <v>270</v>
@@ -91200,7 +91200,7 @@
         <v>260</v>
       </c>
       <c r="D474" s="4">
-        <v>270.19607543945313</v>
+        <v>270.19609057873066</v>
       </c>
       <c r="E474" t="s">
         <v>270</v>
@@ -91217,7 +91217,7 @@
         <v>260</v>
       </c>
       <c r="D475" s="4">
-        <v>296.07717895507813</v>
+        <v>296.07717897940745</v>
       </c>
       <c r="E475" t="s">
         <v>270</v>
@@ -91234,7 +91234,7 @@
         <v>260</v>
       </c>
       <c r="D476" s="4">
-        <v>241.06236267089844</v>
+        <v>241.06235616630585</v>
       </c>
       <c r="E476" t="s">
         <v>270</v>
@@ -91251,7 +91251,7 @@
         <v>260</v>
       </c>
       <c r="D477" s="4">
-        <v>249.69145202636719</v>
+        <v>249.69144873483248</v>
       </c>
       <c r="E477" t="s">
         <v>270</v>
@@ -91268,7 +91268,7 @@
         <v>260</v>
       </c>
       <c r="D478" s="4">
-        <v>264.24673461914063</v>
+        <v>264.24672915687091</v>
       </c>
       <c r="E478" t="s">
         <v>270</v>
@@ -91285,7 +91285,7 @@
         <v>260</v>
       </c>
       <c r="D479" s="4">
-        <v>283.17294311523438</v>
+        <v>283.17294894053026</v>
       </c>
       <c r="E479" t="s">
         <v>270</v>
@@ -91302,7 +91302,7 @@
         <v>260</v>
       </c>
       <c r="D480" s="4">
-        <v>282.8131103515625</v>
+        <v>282.81312321416874</v>
       </c>
       <c r="E480" t="s">
         <v>270</v>
@@ -91319,7 +91319,7 @@
         <v>260</v>
       </c>
       <c r="D481" s="4">
-        <v>276.97311401367188</v>
+        <v>276.97312126542295</v>
       </c>
       <c r="E481" t="s">
         <v>270</v>
@@ -91336,7 +91336,7 @@
         <v>260</v>
       </c>
       <c r="D482" s="4">
-        <v>276.73211669921875</v>
+        <v>276.73211413699067</v>
       </c>
       <c r="E482" t="s">
         <v>270</v>
@@ -91353,7 +91353,7 @@
         <v>260</v>
       </c>
       <c r="D483" s="4">
-        <v>256.11831665039063</v>
+        <v>256.11830169038859</v>
       </c>
       <c r="E483" t="s">
         <v>270</v>
@@ -91370,7 +91370,7 @@
         <v>260</v>
       </c>
       <c r="D484" s="4">
-        <v>255.13850402832031</v>
+        <v>255.13850932570367</v>
       </c>
       <c r="E484" t="s">
         <v>270</v>
@@ -91387,7 +91387,7 @@
         <v>260</v>
       </c>
       <c r="D485" s="4">
-        <v>284.98464965820313</v>
+        <v>284.984645261286</v>
       </c>
       <c r="E485" t="s">
         <v>270</v>
@@ -91404,7 +91404,7 @@
         <v>260</v>
       </c>
       <c r="D486" s="4">
-        <v>247.6435546875</v>
+        <v>247.6435539848857</v>
       </c>
       <c r="E486" t="s">
         <v>270</v>
@@ -91421,7 +91421,7 @@
         <v>260</v>
       </c>
       <c r="D487" s="4">
-        <v>262.10406494140625</v>
+        <v>262.1040627561448</v>
       </c>
       <c r="E487" t="s">
         <v>270</v>
@@ -91438,7 +91438,7 @@
         <v>260</v>
       </c>
       <c r="D488" s="4">
-        <v>227.60395812988281</v>
+        <v>227.60396250005348</v>
       </c>
       <c r="E488" t="s">
         <v>270</v>
@@ -91455,7 +91455,7 @@
         <v>260</v>
       </c>
       <c r="D489" s="4">
-        <v>224.11763000488281</v>
+        <v>224.11762865466136</v>
       </c>
       <c r="E489" t="s">
         <v>270</v>
@@ -91472,7 +91472,7 @@
         <v>260</v>
       </c>
       <c r="D490" s="4">
-        <v>232.51528930664063</v>
+        <v>232.51528941961629</v>
       </c>
       <c r="E490" t="s">
         <v>270</v>
@@ -91489,7 +91489,7 @@
         <v>260</v>
       </c>
       <c r="D491" s="4">
-        <v>238.59217834472656</v>
+        <v>238.5921794546847</v>
       </c>
       <c r="E491" t="s">
         <v>270</v>
@@ -91506,7 +91506,7 @@
         <v>260</v>
       </c>
       <c r="D492" s="4">
-        <v>241.9180908203125</v>
+        <v>241.9180848146932</v>
       </c>
       <c r="E492" t="s">
         <v>270</v>
@@ -91523,7 +91523,7 @@
         <v>260</v>
       </c>
       <c r="D493" s="4">
-        <v>242.65817260742188</v>
+        <v>242.65816559167314</v>
       </c>
       <c r="E493" t="s">
         <v>270</v>
@@ -91540,7 +91540,7 @@
         <v>260</v>
       </c>
       <c r="D494" s="4">
-        <v>218.60868835449219</v>
+        <v>218.60869088457989</v>
       </c>
       <c r="E494" t="s">
         <v>270</v>
@@ -91557,7 +91557,7 @@
         <v>260</v>
       </c>
       <c r="D495" s="4">
-        <v>231.35688781738281</v>
+        <v>231.35688034366154</v>
       </c>
       <c r="E495" t="s">
         <v>270</v>
@@ -91574,7 +91574,7 @@
         <v>260</v>
       </c>
       <c r="D496" s="4">
-        <v>227.18721008300781</v>
+        <v>227.18721726016702</v>
       </c>
       <c r="E496" t="s">
         <v>270</v>
@@ -91591,7 +91591,7 @@
         <v>260</v>
       </c>
       <c r="D497" s="4">
-        <v>215.01998901367188</v>
+        <v>215.01999058393631</v>
       </c>
       <c r="E497" t="s">
         <v>270</v>
@@ -91608,7 +91608,7 @@
         <v>260</v>
       </c>
       <c r="D498" s="4">
-        <v>190.42050170898438</v>
+        <v>190.42050065947421</v>
       </c>
       <c r="E498" t="s">
         <v>270</v>
@@ -91625,7 +91625,7 @@
         <v>260</v>
       </c>
       <c r="D499" s="4">
-        <v>199.30560302734375</v>
+        <v>199.30560155306065</v>
       </c>
       <c r="E499" t="s">
         <v>270</v>
@@ -91642,7 +91642,7 @@
         <v>260</v>
       </c>
       <c r="D500" s="4">
-        <v>246.83714294433594</v>
+        <v>246.83713544048467</v>
       </c>
       <c r="E500" t="s">
         <v>270</v>
@@ -91659,7 +91659,7 @@
         <v>260</v>
       </c>
       <c r="D501" s="4">
-        <v>219.41647338867188</v>
+        <v>219.41647119377055</v>
       </c>
       <c r="E501" t="s">
         <v>270</v>
@@ -91676,7 +91676,7 @@
         <v>260</v>
       </c>
       <c r="D502" s="4">
-        <v>208.18768310546875</v>
+        <v>208.18768461718412</v>
       </c>
       <c r="E502" t="s">
         <v>270</v>
@@ -91693,7 +91693,7 @@
         <v>260</v>
       </c>
       <c r="D503" s="4">
-        <v>231.30265808105469</v>
+        <v>231.30266061959713</v>
       </c>
       <c r="E503" t="s">
         <v>270</v>
@@ -91710,7 +91710,7 @@
         <v>260</v>
       </c>
       <c r="D504" s="4">
-        <v>202.20594787597656</v>
+        <v>202.20595090118087</v>
       </c>
       <c r="E504" t="s">
         <v>270</v>
@@ -91727,7 +91727,7 @@
         <v>260</v>
       </c>
       <c r="D505" s="4">
-        <v>215.7867431640625</v>
+        <v>215.78673605075861</v>
       </c>
       <c r="E505" t="s">
         <v>270</v>
@@ -91744,7 +91744,7 @@
         <v>260</v>
       </c>
       <c r="D506" s="4">
-        <v>227.65638732910156</v>
+        <v>227.65639355374853</v>
       </c>
       <c r="E506" t="s">
         <v>270</v>
@@ -91761,7 +91761,7 @@
         <v>260</v>
       </c>
       <c r="D507" s="4">
-        <v>209.23219299316406</v>
+        <v>209.23219942973773</v>
       </c>
       <c r="E507" t="s">
         <v>270</v>
@@ -91778,7 +91778,7 @@
         <v>260</v>
       </c>
       <c r="D508" s="4">
-        <v>197.48274230957031</v>
+        <v>197.48274767950127</v>
       </c>
       <c r="E508" t="s">
         <v>270</v>
@@ -91795,7 +91795,7 @@
         <v>260</v>
       </c>
       <c r="D509" s="4">
-        <v>200.58613586425781</v>
+        <v>200.58613817372546</v>
       </c>
       <c r="E509" t="s">
         <v>270</v>
@@ -91812,7 +91812,7 @@
         <v>260</v>
       </c>
       <c r="D510" s="4">
-        <v>195.52711486816406</v>
+        <v>195.52711435517807</v>
       </c>
       <c r="E510" t="s">
         <v>270</v>
@@ -91829,7 +91829,7 @@
         <v>260</v>
       </c>
       <c r="D511" s="4">
-        <v>202.51795959472656</v>
+        <v>202.51796039650171</v>
       </c>
       <c r="E511" t="s">
         <v>270</v>
@@ -91846,7 +91846,7 @@
         <v>260</v>
       </c>
       <c r="D512" s="4">
-        <v>219.48695373535156</v>
+        <v>219.4869607366179</v>
       </c>
       <c r="E512" t="s">
         <v>270</v>
@@ -91863,7 +91863,7 @@
         <v>260</v>
       </c>
       <c r="D513" s="4">
-        <v>170.06304931640625</v>
+        <v>170.06304261906948</v>
       </c>
       <c r="E513" t="s">
         <v>270</v>
@@ -91880,7 +91880,7 @@
         <v>260</v>
       </c>
       <c r="D514" s="4">
-        <v>159.96469116210938</v>
+        <v>159.96469053024614</v>
       </c>
       <c r="E514" t="s">
         <v>270</v>
@@ -91897,7 +91897,7 @@
         <v>260</v>
       </c>
       <c r="D515" s="4">
-        <v>195.0946044921875</v>
+        <v>195.09459956081599</v>
       </c>
       <c r="E515" t="s">
         <v>270</v>
@@ -91914,7 +91914,7 @@
         <v>260</v>
       </c>
       <c r="D516" s="4">
-        <v>174.18333435058594</v>
+        <v>174.183330600159</v>
       </c>
       <c r="E516" t="s">
         <v>270</v>
@@ -91931,7 +91931,7 @@
         <v>260</v>
       </c>
       <c r="D517" s="4">
-        <v>195.28950500488281</v>
+        <v>195.28950477968306</v>
       </c>
       <c r="E517" t="s">
         <v>270</v>
@@ -91948,7 +91948,7 @@
         <v>260</v>
       </c>
       <c r="D518" s="4">
-        <v>221.30758666992188</v>
+        <v>221.30758251221903</v>
       </c>
       <c r="E518" t="s">
         <v>270</v>
@@ -91965,7 +91965,7 @@
         <v>260</v>
       </c>
       <c r="D519" s="4">
-        <v>185.43344116210938</v>
+        <v>185.43343944165881</v>
       </c>
       <c r="E519" t="s">
         <v>270</v>
@@ -91982,7 +91982,7 @@
         <v>260</v>
       </c>
       <c r="D520" s="4">
-        <v>212.00309753417969</v>
+        <v>212.00309740229949</v>
       </c>
       <c r="E520" t="s">
         <v>270</v>
@@ -91999,7 +91999,7 @@
         <v>260</v>
       </c>
       <c r="D521" s="4">
-        <v>223.24851989746094</v>
+        <v>223.24852699958043</v>
       </c>
       <c r="E521" t="s">
         <v>270</v>
@@ -92016,7 +92016,7 @@
         <v>260</v>
       </c>
       <c r="D522" s="4">
-        <v>108.80172729492188</v>
+        <v>108.80172821824816</v>
       </c>
       <c r="E522" t="s">
         <v>270</v>
@@ -92033,7 +92033,7 @@
         <v>260</v>
       </c>
       <c r="D523" s="4">
-        <v>139.64521789550781</v>
+        <v>139.64521860829603</v>
       </c>
       <c r="E523" t="s">
         <v>270</v>
@@ -92050,7 +92050,7 @@
         <v>260</v>
       </c>
       <c r="D524" s="4">
-        <v>121.62027740478516</v>
+        <v>121.62027693558863</v>
       </c>
       <c r="E524" t="s">
         <v>270</v>
@@ -92067,7 +92067,7 @@
         <v>260</v>
       </c>
       <c r="D525" s="4">
-        <v>97.670242309570313</v>
+        <v>97.670243422468062</v>
       </c>
       <c r="E525" t="s">
         <v>270</v>
@@ -92084,7 +92084,7 @@
         <v>260</v>
       </c>
       <c r="D526" s="4">
-        <v>104.31499481201172</v>
+        <v>104.3149952651673</v>
       </c>
       <c r="E526" t="s">
         <v>270</v>
@@ -92101,7 +92101,7 @@
         <v>260</v>
       </c>
       <c r="D527" s="4">
-        <v>127.81264495849609</v>
+        <v>127.81264498092483</v>
       </c>
       <c r="E527" t="s">
         <v>270</v>
@@ -92118,7 +92118,7 @@
         <v>260</v>
       </c>
       <c r="D528" s="4">
-        <v>109.07170104980469</v>
+        <v>109.07170359222906</v>
       </c>
       <c r="E528" t="s">
         <v>270</v>
@@ -92135,7 +92135,7 @@
         <v>260</v>
       </c>
       <c r="D529" s="4">
-        <v>130.41537475585938</v>
+        <v>130.41537538545407</v>
       </c>
       <c r="E529" t="s">
         <v>270</v>
@@ -92152,7 +92152,7 @@
         <v>260</v>
       </c>
       <c r="D530" s="4">
-        <v>116.94050598144531</v>
+        <v>116.94050975430793</v>
       </c>
       <c r="E530" t="s">
         <v>270</v>
@@ -92169,7 +92169,7 @@
         <v>260</v>
       </c>
       <c r="D531" s="4">
-        <v>113.48819732666016</v>
+        <v>113.48819947581512</v>
       </c>
       <c r="E531" t="s">
         <v>270</v>
@@ -92186,7 +92186,7 @@
         <v>261</v>
       </c>
       <c r="D532" s="4">
-        <v>35.574405670166016</v>
+        <v>35.574407492011815</v>
       </c>
       <c r="E532" t="s">
         <v>271</v>
@@ -92203,7 +92203,7 @@
         <v>261</v>
       </c>
       <c r="D533" s="4">
-        <v>48.027473449707031</v>
+        <v>48.027472507156851</v>
       </c>
       <c r="E533" t="s">
         <v>271</v>
@@ -92220,7 +92220,7 @@
         <v>261</v>
       </c>
       <c r="D534" s="4">
-        <v>39.704460144042969</v>
+        <v>39.704461721014574</v>
       </c>
       <c r="E534" t="s">
         <v>271</v>
@@ -92237,7 +92237,7 @@
         <v>261</v>
       </c>
       <c r="D535" s="4">
-        <v>43.722782135009766</v>
+        <v>43.722780518880519</v>
       </c>
       <c r="E535" t="s">
         <v>271</v>
@@ -92254,7 +92254,7 @@
         <v>261</v>
       </c>
       <c r="D536" s="4">
-        <v>42.087039947509766</v>
+        <v>42.08703844311173</v>
       </c>
       <c r="E536" t="s">
         <v>271</v>
@@ -92271,7 +92271,7 @@
         <v>261</v>
       </c>
       <c r="D537" s="4">
-        <v>41.003730773925781</v>
+        <v>41.003730193237949</v>
       </c>
       <c r="E537" t="s">
         <v>271</v>
@@ -92288,7 +92288,7 @@
         <v>261</v>
       </c>
       <c r="D538" s="4">
-        <v>43.523918151855469</v>
+        <v>43.523917717824546</v>
       </c>
       <c r="E538" t="s">
         <v>271</v>
@@ -92305,7 +92305,7 @@
         <v>261</v>
       </c>
       <c r="D539" s="4">
-        <v>50.058536529541016</v>
+        <v>50.058533445257375</v>
       </c>
       <c r="E539" t="s">
         <v>271</v>
@@ -92322,7 +92322,7 @@
         <v>261</v>
       </c>
       <c r="D540" s="4">
-        <v>55.725811004638672</v>
+        <v>55.725810664288133</v>
       </c>
       <c r="E540" t="s">
         <v>271</v>
@@ -92339,7 +92339,7 @@
         <v>261</v>
       </c>
       <c r="D541" s="4">
-        <v>60.645164489746094</v>
+        <v>60.645165864482188</v>
       </c>
       <c r="E541" t="s">
         <v>271</v>
@@ -92356,7 +92356,7 @@
         <v>261</v>
       </c>
       <c r="D542" s="4">
-        <v>62.367332458496094</v>
+        <v>62.367330299721175</v>
       </c>
       <c r="E542" t="s">
         <v>271</v>
@@ -92373,7 +92373,7 @@
         <v>261</v>
       </c>
       <c r="D543" s="4">
-        <v>57.100776672363281</v>
+        <v>57.100778797318121</v>
       </c>
       <c r="E543" t="s">
         <v>271</v>
@@ -92390,7 +92390,7 @@
         <v>261</v>
       </c>
       <c r="D544" s="4">
-        <v>52.688632965087891</v>
+        <v>52.688630923259602</v>
       </c>
       <c r="E544" t="s">
         <v>271</v>
@@ -92407,7 +92407,7 @@
         <v>261</v>
       </c>
       <c r="D545" s="4">
-        <v>56.349750518798828</v>
+        <v>56.349748317638429</v>
       </c>
       <c r="E545" t="s">
         <v>271</v>
@@ -92424,7 +92424,7 @@
         <v>261</v>
       </c>
       <c r="D546" s="4">
-        <v>55.065452575683594</v>
+        <v>55.065454489289841</v>
       </c>
       <c r="E546" t="s">
         <v>271</v>
@@ -92441,7 +92441,7 @@
         <v>261</v>
       </c>
       <c r="D547" s="4">
-        <v>60.6611328125</v>
+        <v>60.661131974769809</v>
       </c>
       <c r="E547" t="s">
         <v>271</v>
@@ -92458,7 +92458,7 @@
         <v>261</v>
       </c>
       <c r="D548" s="4">
-        <v>64.304649353027344</v>
+        <v>64.304649711807215</v>
       </c>
       <c r="E548" t="s">
         <v>271</v>
@@ -92475,7 +92475,7 @@
         <v>261</v>
       </c>
       <c r="D549" s="4">
-        <v>58.830715179443359</v>
+        <v>58.830715058968188</v>
       </c>
       <c r="E549" t="s">
         <v>271</v>
@@ -92492,7 +92492,7 @@
         <v>261</v>
       </c>
       <c r="D550" s="4">
-        <v>61.989326477050781</v>
+        <v>61.989327170566867</v>
       </c>
       <c r="E550" t="s">
         <v>271</v>
@@ -92509,7 +92509,7 @@
         <v>261</v>
       </c>
       <c r="D551" s="4">
-        <v>64.226615905761719</v>
+        <v>64.226613077226105</v>
       </c>
       <c r="E551" t="s">
         <v>271</v>
@@ -92526,7 +92526,7 @@
         <v>261</v>
       </c>
       <c r="D552" s="4">
-        <v>74.303985595703125</v>
+        <v>74.303985022201473</v>
       </c>
       <c r="E552" t="s">
         <v>271</v>
@@ -92543,7 +92543,7 @@
         <v>261</v>
       </c>
       <c r="D553" s="4">
-        <v>76.7269287109375</v>
+        <v>76.726929207313859</v>
       </c>
       <c r="E553" t="s">
         <v>271</v>
@@ -92560,7 +92560,7 @@
         <v>261</v>
       </c>
       <c r="D554" s="4">
-        <v>76.621376037597656</v>
+        <v>76.621377355978694</v>
       </c>
       <c r="E554" t="s">
         <v>271</v>
@@ -92577,7 +92577,7 @@
         <v>261</v>
       </c>
       <c r="D555" s="4">
-        <v>65.48272705078125</v>
+        <v>65.482730385428468</v>
       </c>
       <c r="E555" t="s">
         <v>271</v>
@@ -92594,7 +92594,7 @@
         <v>261</v>
       </c>
       <c r="D556" s="4">
-        <v>64.009307861328125</v>
+        <v>64.009306253500768</v>
       </c>
       <c r="E556" t="s">
         <v>271</v>
@@ -92611,7 +92611,7 @@
         <v>261</v>
       </c>
       <c r="D557" s="4">
-        <v>67.198135375976563</v>
+        <v>67.198135026584794</v>
       </c>
       <c r="E557" t="s">
         <v>271</v>
@@ -92628,7 +92628,7 @@
         <v>261</v>
       </c>
       <c r="D558" s="4">
-        <v>59.943988800048828</v>
+        <v>59.943987627870563</v>
       </c>
       <c r="E558" t="s">
         <v>271</v>
@@ -92645,7 +92645,7 @@
         <v>261</v>
       </c>
       <c r="D559" s="4">
-        <v>60.964939117431641</v>
+        <v>60.9649369827466</v>
       </c>
       <c r="E559" t="s">
         <v>271</v>
@@ -92662,7 +92662,7 @@
         <v>261</v>
       </c>
       <c r="D560" s="4">
-        <v>56.404743194580078</v>
+        <v>56.404741744182921</v>
       </c>
       <c r="E560" t="s">
         <v>271</v>
@@ -92679,7 +92679,7 @@
         <v>261</v>
       </c>
       <c r="D561" s="4">
-        <v>53.518299102783203</v>
+        <v>53.51829887880659</v>
       </c>
       <c r="E561" t="s">
         <v>271</v>
@@ -92696,7 +92696,7 @@
         <v>261</v>
       </c>
       <c r="D562" s="4">
-        <v>59.077350616455078</v>
+        <v>59.077351169740126</v>
       </c>
       <c r="E562" t="s">
         <v>271</v>
@@ -92713,7 +92713,7 @@
         <v>261</v>
       </c>
       <c r="D563" s="4">
-        <v>65.603988647460938</v>
+        <v>65.603992771537889</v>
       </c>
       <c r="E563" t="s">
         <v>271</v>
@@ -92730,7 +92730,7 @@
         <v>261</v>
       </c>
       <c r="D564" s="4">
-        <v>72.636550903320313</v>
+        <v>72.636555759746329</v>
       </c>
       <c r="E564" t="s">
         <v>271</v>
@@ -92747,7 +92747,7 @@
         <v>261</v>
       </c>
       <c r="D565" s="4">
-        <v>71.506484985351563</v>
+        <v>71.50648527632606</v>
       </c>
       <c r="E565" t="s">
         <v>271</v>
@@ -92764,7 +92764,7 @@
         <v>261</v>
       </c>
       <c r="D566" s="4">
-        <v>69.414825439453125</v>
+        <v>69.414826469158925</v>
       </c>
       <c r="E566" t="s">
         <v>271</v>
@@ -92781,7 +92781,7 @@
         <v>261</v>
       </c>
       <c r="D567" s="4">
-        <v>73.666839599609375</v>
+        <v>73.666833002687909</v>
       </c>
       <c r="E567" t="s">
         <v>271</v>
@@ -92798,7 +92798,7 @@
         <v>261</v>
       </c>
       <c r="D568" s="4">
-        <v>67.767051696777344</v>
+        <v>67.767056468904315</v>
       </c>
       <c r="E568" t="s">
         <v>271</v>
@@ -92815,7 +92815,7 @@
         <v>261</v>
       </c>
       <c r="D569" s="4">
-        <v>67.971099853515625</v>
+        <v>67.971098394848596</v>
       </c>
       <c r="E569" t="s">
         <v>271</v>
@@ -92832,7 +92832,7 @@
         <v>261</v>
       </c>
       <c r="D570" s="4">
-        <v>61.695781707763672</v>
+        <v>61.695782710123616</v>
       </c>
       <c r="E570" t="s">
         <v>271</v>
@@ -92849,7 +92849,7 @@
         <v>261</v>
       </c>
       <c r="D571" s="4">
-        <v>60.338092803955078</v>
+        <v>60.33809202839327</v>
       </c>
       <c r="E571" t="s">
         <v>271</v>
@@ -92866,7 +92866,7 @@
         <v>261</v>
       </c>
       <c r="D572" s="4">
-        <v>56.079116821289063</v>
+        <v>56.079118569143667</v>
       </c>
       <c r="E572" t="s">
         <v>271</v>
@@ -92883,7 +92883,7 @@
         <v>261</v>
       </c>
       <c r="D573" s="4">
-        <v>60.840198516845703</v>
+        <v>60.840200072103961</v>
       </c>
       <c r="E573" t="s">
         <v>271</v>
@@ -92900,7 +92900,7 @@
         <v>261</v>
       </c>
       <c r="D574" s="4">
-        <v>59.440769195556641</v>
+        <v>59.440768812430164</v>
       </c>
       <c r="E574" t="s">
         <v>271</v>
@@ -92917,7 +92917,7 @@
         <v>261</v>
       </c>
       <c r="D575" s="4">
-        <v>58.60107421875</v>
+        <v>58.601073295650849</v>
       </c>
       <c r="E575" t="s">
         <v>271</v>
@@ -92934,7 +92934,7 @@
         <v>261</v>
       </c>
       <c r="D576" s="4">
-        <v>67.030754089355469</v>
+        <v>67.030759382544929</v>
       </c>
       <c r="E576" t="s">
         <v>271</v>
@@ -92951,7 +92951,7 @@
         <v>261</v>
       </c>
       <c r="D577" s="4">
-        <v>60.434329986572266</v>
+        <v>60.434329697372931</v>
       </c>
       <c r="E577" t="s">
         <v>271</v>
@@ -92968,7 +92968,7 @@
         <v>261</v>
       </c>
       <c r="D578" s="4">
-        <v>58.038745880126953</v>
+        <v>58.038747051751137</v>
       </c>
       <c r="E578" t="s">
         <v>271</v>
@@ -92985,7 +92985,7 @@
         <v>261</v>
       </c>
       <c r="D579" s="4">
-        <v>66.913604736328125</v>
+        <v>66.913599423206449</v>
       </c>
       <c r="E579" t="s">
         <v>271</v>
@@ -93002,7 +93002,7 @@
         <v>261</v>
       </c>
       <c r="D580" s="4">
-        <v>54.790092468261719</v>
+        <v>54.790093408508866</v>
       </c>
       <c r="E580" t="s">
         <v>271</v>
@@ -93019,7 +93019,7 @@
         <v>261</v>
       </c>
       <c r="D581" s="4">
-        <v>57.185920715332031</v>
+        <v>57.185923638612188</v>
       </c>
       <c r="E581" t="s">
         <v>271</v>
@@ -93036,7 +93036,7 @@
         <v>261</v>
       </c>
       <c r="D582" s="4">
-        <v>50.602443695068359</v>
+        <v>50.602446642418784</v>
       </c>
       <c r="E582" t="s">
         <v>271</v>
@@ -93053,7 +93053,7 @@
         <v>261</v>
       </c>
       <c r="D583" s="4">
-        <v>48.741985321044922</v>
+        <v>48.74198352435485</v>
       </c>
       <c r="E583" t="s">
         <v>271</v>
@@ -93070,7 +93070,7 @@
         <v>261</v>
       </c>
       <c r="D584" s="4">
-        <v>53.648422241210938</v>
+        <v>53.648420790726512</v>
       </c>
       <c r="E584" t="s">
         <v>271</v>
@@ -93087,7 +93087,7 @@
         <v>261</v>
       </c>
       <c r="D585" s="4">
-        <v>58.751533508300781</v>
+        <v>58.751536998930852</v>
       </c>
       <c r="E585" t="s">
         <v>271</v>
@@ -93104,7 +93104,7 @@
         <v>261</v>
       </c>
       <c r="D586" s="4">
-        <v>56.297981262207031</v>
+        <v>56.297980558276251</v>
       </c>
       <c r="E586" t="s">
         <v>271</v>
@@ -93121,7 +93121,7 @@
         <v>261</v>
       </c>
       <c r="D587" s="4">
-        <v>56.128772735595703</v>
+        <v>56.12877232589797</v>
       </c>
       <c r="E587" t="s">
         <v>271</v>
@@ -93138,7 +93138,7 @@
         <v>261</v>
       </c>
       <c r="D588" s="4">
-        <v>56.928092956542969</v>
+        <v>56.928094160380063</v>
       </c>
       <c r="E588" t="s">
         <v>271</v>
@@ -93155,7 +93155,7 @@
         <v>261</v>
       </c>
       <c r="D589" s="4">
-        <v>51.934932708740234</v>
+        <v>51.934934141950485</v>
       </c>
       <c r="E589" t="s">
         <v>271</v>
@@ -93172,7 +93172,7 @@
         <v>261</v>
       </c>
       <c r="D590" s="4">
-        <v>50.574958801269531</v>
+        <v>50.574955630631955</v>
       </c>
       <c r="E590" t="s">
         <v>271</v>
@@ -93189,7 +93189,7 @@
         <v>261</v>
       </c>
       <c r="D591" s="4">
-        <v>58.340995788574219</v>
+        <v>58.340996602037848</v>
       </c>
       <c r="E591" t="s">
         <v>271</v>
@@ -93206,7 +93206,7 @@
         <v>261</v>
       </c>
       <c r="D592" s="4">
-        <v>48.705028533935547</v>
+        <v>48.70502629350289</v>
       </c>
       <c r="E592" t="s">
         <v>271</v>
@@ -93223,7 +93223,7 @@
         <v>261</v>
       </c>
       <c r="D593" s="4">
-        <v>49.938327789306641</v>
+        <v>49.938329137459313</v>
       </c>
       <c r="E593" t="s">
         <v>271</v>
@@ -93240,7 +93240,7 @@
         <v>261</v>
       </c>
       <c r="D594" s="4">
-        <v>45.917106628417969</v>
+        <v>45.917105994775689</v>
       </c>
       <c r="E594" t="s">
         <v>271</v>
@@ -93257,7 +93257,7 @@
         <v>261</v>
       </c>
       <c r="D595" s="4">
-        <v>44.323013305664063</v>
+        <v>44.32301183866916</v>
       </c>
       <c r="E595" t="s">
         <v>271</v>
@@ -93274,7 +93274,7 @@
         <v>261</v>
       </c>
       <c r="D596" s="4">
-        <v>47.152244567871094</v>
+        <v>47.152246350012121</v>
       </c>
       <c r="E596" t="s">
         <v>271</v>
@@ -93291,7 +93291,7 @@
         <v>261</v>
       </c>
       <c r="D597" s="4">
-        <v>48.606929779052734</v>
+        <v>48.606931635060896</v>
       </c>
       <c r="E597" t="s">
         <v>271</v>
@@ -93308,7 +93308,7 @@
         <v>261</v>
       </c>
       <c r="D598" s="4">
-        <v>47.914669036865234</v>
+        <v>47.91466844587417</v>
       </c>
       <c r="E598" t="s">
         <v>271</v>
@@ -93325,7 +93325,7 @@
         <v>261</v>
       </c>
       <c r="D599" s="4">
-        <v>50.006954193115234</v>
+        <v>50.006954358763409</v>
       </c>
       <c r="E599" t="s">
         <v>271</v>
@@ -93342,7 +93342,7 @@
         <v>261</v>
       </c>
       <c r="D600" s="4">
-        <v>43.767929077148438</v>
+        <v>43.76793124419217</v>
       </c>
       <c r="E600" t="s">
         <v>271</v>
@@ -93359,7 +93359,7 @@
         <v>261</v>
       </c>
       <c r="D601" s="4">
-        <v>46.987766265869141</v>
+        <v>46.987764375230888</v>
       </c>
       <c r="E601" t="s">
         <v>271</v>
@@ -93376,7 +93376,7 @@
         <v>261</v>
       </c>
       <c r="D602" s="4">
-        <v>46.707996368408203</v>
+        <v>46.707995822119301</v>
       </c>
       <c r="E602" t="s">
         <v>271</v>
@@ -93393,7 +93393,7 @@
         <v>261</v>
       </c>
       <c r="D603" s="4">
-        <v>43.111663818359375</v>
+        <v>43.111662924220632</v>
       </c>
       <c r="E603" t="s">
         <v>271</v>
@@ -93410,7 +93410,7 @@
         <v>261</v>
       </c>
       <c r="D604" s="4">
-        <v>35.667407989501953</v>
+        <v>35.66740711330322</v>
       </c>
       <c r="E604" t="s">
         <v>271</v>
@@ -93427,7 +93427,7 @@
         <v>261</v>
       </c>
       <c r="D605" s="4">
-        <v>36.116596221923828</v>
+        <v>36.116596647873628</v>
       </c>
       <c r="E605" t="s">
         <v>271</v>
@@ -93444,7 +93444,7 @@
         <v>261</v>
       </c>
       <c r="D606" s="4">
-        <v>46.586433410644531</v>
+        <v>46.58643310115805</v>
       </c>
       <c r="E606" t="s">
         <v>271</v>
@@ -93461,7 +93461,7 @@
         <v>261</v>
       </c>
       <c r="D607" s="4">
-        <v>40.590244293212891</v>
+        <v>40.590247313373098</v>
       </c>
       <c r="E607" t="s">
         <v>271</v>
@@ -93478,7 +93478,7 @@
         <v>261</v>
       </c>
       <c r="D608" s="4">
-        <v>41.960025787353516</v>
+        <v>41.960029062761649</v>
       </c>
       <c r="E608" t="s">
         <v>271</v>
@@ -93495,7 +93495,7 @@
         <v>261</v>
       </c>
       <c r="D609" s="4">
-        <v>43.185588836669922</v>
+        <v>43.185589604884569</v>
       </c>
       <c r="E609" t="s">
         <v>271</v>
@@ -93512,7 +93512,7 @@
         <v>261</v>
       </c>
       <c r="D610" s="4">
-        <v>39.77801513671875</v>
+        <v>39.778017208442222</v>
       </c>
       <c r="E610" t="s">
         <v>271</v>
@@ -93529,7 +93529,7 @@
         <v>261</v>
       </c>
       <c r="D611" s="4">
-        <v>43.251293182373047</v>
+        <v>43.251293756662918</v>
       </c>
       <c r="E611" t="s">
         <v>271</v>
@@ -93546,7 +93546,7 @@
         <v>261</v>
       </c>
       <c r="D612" s="4">
-        <v>41.149684906005859</v>
+        <v>41.149681911140178</v>
       </c>
       <c r="E612" t="s">
         <v>271</v>
@@ -93563,7 +93563,7 @@
         <v>261</v>
       </c>
       <c r="D613" s="4">
-        <v>39.553359985351563</v>
+        <v>39.553359554025576</v>
       </c>
       <c r="E613" t="s">
         <v>271</v>
@@ -93580,7 +93580,7 @@
         <v>261</v>
       </c>
       <c r="D614" s="4">
-        <v>40.514190673828125</v>
+        <v>40.514192905041689</v>
       </c>
       <c r="E614" t="s">
         <v>271</v>
@@ -93597,7 +93597,7 @@
         <v>261</v>
       </c>
       <c r="D615" s="4">
-        <v>39.856220245361328</v>
+        <v>39.856217284495401</v>
       </c>
       <c r="E615" t="s">
         <v>271</v>
@@ -93614,7 +93614,7 @@
         <v>261</v>
       </c>
       <c r="D616" s="4">
-        <v>38.288475036621094</v>
+        <v>38.288476452588426</v>
       </c>
       <c r="E616" t="s">
         <v>271</v>
@@ -93631,7 +93631,7 @@
         <v>261</v>
       </c>
       <c r="D617" s="4">
-        <v>36.372779846191406</v>
+        <v>36.372781156104786</v>
       </c>
       <c r="E617" t="s">
         <v>271</v>
@@ -93648,7 +93648,7 @@
         <v>261</v>
       </c>
       <c r="D618" s="4">
-        <v>41.026737213134766</v>
+        <v>41.02673694079288</v>
       </c>
       <c r="E618" t="s">
         <v>271</v>
@@ -93665,7 +93665,7 @@
         <v>261</v>
       </c>
       <c r="D619" s="4">
-        <v>32.356128692626953</v>
+        <v>32.356126132305228</v>
       </c>
       <c r="E619" t="s">
         <v>271</v>
@@ -93682,7 +93682,7 @@
         <v>261</v>
       </c>
       <c r="D620" s="4">
-        <v>30.969078063964844</v>
+        <v>30.969077866846035</v>
       </c>
       <c r="E620" t="s">
         <v>271</v>
@@ -93699,7 +93699,7 @@
         <v>261</v>
       </c>
       <c r="D621" s="4">
-        <v>36.255592346191406</v>
+        <v>36.255595590200613</v>
       </c>
       <c r="E621" t="s">
         <v>271</v>
@@ -93716,7 +93716,7 @@
         <v>261</v>
       </c>
       <c r="D622" s="4">
-        <v>35.794872283935547</v>
+        <v>35.794869990142907</v>
       </c>
       <c r="E622" t="s">
         <v>271</v>
@@ -93733,7 +93733,7 @@
         <v>261</v>
       </c>
       <c r="D623" s="4">
-        <v>35.996551513671875</v>
+        <v>35.996552231214338</v>
       </c>
       <c r="E623" t="s">
         <v>271</v>
@@ -93750,7 +93750,7 @@
         <v>261</v>
       </c>
       <c r="D624" s="4">
-        <v>40.90478515625</v>
+        <v>40.904784697152351</v>
       </c>
       <c r="E624" t="s">
         <v>271</v>
@@ -93767,7 +93767,7 @@
         <v>261</v>
       </c>
       <c r="D625" s="4">
-        <v>36.925975799560547</v>
+        <v>36.925975111117509</v>
       </c>
       <c r="E625" t="s">
         <v>271</v>
@@ -93784,7 +93784,7 @@
         <v>261</v>
       </c>
       <c r="D626" s="4">
-        <v>39.066020965576172</v>
+        <v>39.066021006367301</v>
       </c>
       <c r="E626" t="s">
         <v>271</v>
@@ -93801,7 +93801,7 @@
         <v>261</v>
       </c>
       <c r="D627" s="4">
-        <v>43.004917144775391</v>
+        <v>43.004916660287385</v>
       </c>
       <c r="E627" t="s">
         <v>271</v>
@@ -93818,7 +93818,7 @@
         <v>261</v>
       </c>
       <c r="D628" s="4">
-        <v>21.10003662109375</v>
+        <v>21.100037294423668</v>
       </c>
       <c r="E628" t="s">
         <v>271</v>
@@ -93835,7 +93835,7 @@
         <v>261</v>
       </c>
       <c r="D629" s="4">
-        <v>24.676006317138672</v>
+        <v>24.676006029926342</v>
       </c>
       <c r="E629" t="s">
         <v>271</v>
@@ -93852,7 +93852,7 @@
         <v>261</v>
       </c>
       <c r="D630" s="4">
-        <v>22.817180633544922</v>
+        <v>22.81717903662657</v>
       </c>
       <c r="E630" t="s">
         <v>271</v>
@@ -93869,7 +93869,7 @@
         <v>261</v>
       </c>
       <c r="D631" s="4">
-        <v>18.958375930786133</v>
+        <v>18.95837419056306</v>
       </c>
       <c r="E631" t="s">
         <v>271</v>
@@ -93886,7 +93886,7 @@
         <v>261</v>
       </c>
       <c r="D632" s="4">
-        <v>19.236993789672852</v>
+        <v>19.236994850979798</v>
       </c>
       <c r="E632" t="s">
         <v>271</v>
@@ -93903,7 +93903,7 @@
         <v>261</v>
       </c>
       <c r="D633" s="4">
-        <v>23.975498199462891</v>
+        <v>23.97549837114466</v>
       </c>
       <c r="E633" t="s">
         <v>271</v>
@@ -93920,7 +93920,7 @@
         <v>261</v>
       </c>
       <c r="D634" s="4">
-        <v>21.992023468017578</v>
+        <v>21.992024380917456</v>
       </c>
       <c r="E634" t="s">
         <v>271</v>
@@ -93937,7 +93937,7 @@
         <v>261</v>
       </c>
       <c r="D635" s="4">
-        <v>24.17194938659668</v>
+        <v>24.171948621786299</v>
       </c>
       <c r="E635" t="s">
         <v>271</v>
@@ -93954,7 +93954,7 @@
         <v>261</v>
       </c>
       <c r="D636" s="4">
-        <v>22.474489212036133</v>
+        <v>22.47448876904895</v>
       </c>
       <c r="E636" t="s">
         <v>271</v>
@@ -93971,7 +93971,7 @@
         <v>261</v>
       </c>
       <c r="D637" s="4">
-        <v>21.929460525512695</v>
+        <v>21.929460879267015</v>
       </c>
       <c r="E637" t="s">
         <v>271</v>
@@ -97587,7 +97587,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -98237,6 +98237,17 @@
       </c>
       <c r="C59" s="4">
         <v>2957425</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>44378</v>
+      </c>
+      <c r="B60" t="s">
+        <v>275</v>
+      </c>
+      <c r="C60" s="4">
+        <v>3070201</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/08/2022</t>
+    <t xml:space="preserve"> 02/18/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13602" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13604" uniqueCount="375">
   <si>
     <t>Base de datos</t>
   </si>
@@ -1153,6 +1153,9 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -99078,7 +99081,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -99568,7 +99571,7 @@
         <v>0.63599399999999995</v>
       </c>
       <c r="D29" s="4">
-        <v>0.63599400000000095</v>
+        <v>0.63599400000000195</v>
       </c>
       <c r="E29" t="s">
         <v>310</v>
@@ -99755,7 +99758,7 @@
         <v>-1.822506</v>
       </c>
       <c r="D40" s="4">
-        <v>-1.82250599999999</v>
+        <v>-1.82250599999998</v>
       </c>
       <c r="E40" t="s">
         <v>321</v>
@@ -100605,7 +100608,7 @@
         <v>30.084558619999999</v>
       </c>
       <c r="D90" s="4">
-        <v>30.084558619999999</v>
+        <v>38.968235450000002</v>
       </c>
       <c r="E90" t="s">
         <v>371</v>
@@ -100645,6 +100648,23 @@
         <v>373</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>278</v>
+      </c>
+      <c r="B93" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C93" s="4">
+        <v>76.025286300000005</v>
+      </c>
+      <c r="D93" s="4">
+        <v>76.025286300000005</v>
+      </c>
+      <c r="E93" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/21/2022</t>
+    <t xml:space="preserve"> 03/04/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13664" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13665" uniqueCount="375">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/18/2022</t>
+    <t xml:space="preserve"> 03/31/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -98824,7 +98824,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -99485,6 +99485,17 @@
       </c>
       <c r="C60" s="4">
         <v>3070201</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>44470</v>
+      </c>
+      <c r="B61" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" s="4">
+        <v>3607565</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/19/2022</t>
+    <t xml:space="preserve"> 05/24/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/24/2022</t>
+    <t xml:space="preserve"> 05/26/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13785" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13787" uniqueCount="376">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/26/2022</t>
+    <t xml:space="preserve"> 05/31/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -1156,6 +1156,9 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -100328,7 +100331,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -100818,7 +100821,7 @@
         <v>0.63599399999999995</v>
       </c>
       <c r="D29" s="4">
-        <v>0.63599400000000195</v>
+        <v>0.63599400000000095</v>
       </c>
       <c r="E29" t="s">
         <v>310</v>
@@ -101005,7 +101008,7 @@
         <v>-1.822506</v>
       </c>
       <c r="D40" s="4">
-        <v>-1.82250599999998</v>
+        <v>-1.82250599999999</v>
       </c>
       <c r="E40" t="s">
         <v>321</v>
@@ -101770,7 +101773,7 @@
         <v>6.7639555800000002</v>
       </c>
       <c r="D85" s="4">
-        <v>6.7639555800000002</v>
+        <v>6.7639555799999904</v>
       </c>
       <c r="E85" t="s">
         <v>366</v>
@@ -101912,6 +101915,23 @@
         <v>374</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>278</v>
+      </c>
+      <c r="B94" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C94" s="4">
+        <v>61.144632479999999</v>
+      </c>
+      <c r="D94" s="4">
+        <v>61.144632479999999</v>
+      </c>
+      <c r="E94" t="s">
+        <v>375</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/12/2022</t>
+    <t xml:space="preserve"> 08/18/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13961" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13963" uniqueCount="374">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/18/2022</t>
+    <t xml:space="preserve"> 08/23/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -1150,6 +1150,9 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -101519,7 +101522,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -102961,7 +102964,7 @@
         <v>6.7639555800000002</v>
       </c>
       <c r="D85" s="4">
-        <v>6.7639555799999904</v>
+        <v>6.7639555800000002</v>
       </c>
       <c r="E85" t="s">
         <v>363</v>
@@ -103114,10 +103117,27 @@
         <v>61.144632479999999</v>
       </c>
       <c r="D94" s="4">
-        <v>61.144632479999999</v>
+        <v>35.716047369999998</v>
       </c>
       <c r="E94" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95" s="5">
+        <v>44652</v>
+      </c>
+      <c r="C95" s="4">
+        <v>45.074567039999998</v>
+      </c>
+      <c r="D95" s="4">
+        <v>45.074567039999998</v>
+      </c>
+      <c r="E95" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14285" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14286" uniqueCount="384">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12/14/2022</t>
+    <t xml:space="preserve"> 01/02/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -102847,7 +102847,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -103541,6 +103541,17 @@
       </c>
       <c r="C63" s="4">
         <v>3627885</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B64" t="s">
+        <v>281</v>
+      </c>
+      <c r="C64" s="4">
+        <v>4009632</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/14/2023</t>
+    <t xml:space="preserve"> 02/20/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/07/2023</t>
+    <t xml:space="preserve"> 03/14/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/14/2023</t>
+    <t xml:space="preserve"> 03/24/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14468" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14469" uniqueCount="385">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/24/2023</t>
+    <t xml:space="preserve"> 03/31/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -104086,7 +104086,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -104791,6 +104791,17 @@
       </c>
       <c r="C64" s="4">
         <v>4009632</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B65" t="s">
+        <v>281</v>
+      </c>
+      <c r="C65" s="4">
+        <v>4507353</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/15/2023</t>
+    <t xml:space="preserve"> 05/19/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/19/2023</t>
+    <t xml:space="preserve"> 05/22/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/22/2023</t>
+    <t xml:space="preserve"> 05/24/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/24/2023</t>
+    <t xml:space="preserve"> 05/30/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/30/2023</t>
+    <t xml:space="preserve"> 05/31/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/31/2023</t>
+    <t xml:space="preserve"> 06/05/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/05/2023</t>
+    <t xml:space="preserve"> 06/06/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/06/2023</t>
+    <t xml:space="preserve"> 06/28/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14625" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14586" uniqueCount="368">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/28/2023</t>
+    <t xml:space="preserve"> 07/07/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -1046,7 +1046,7 @@
     <t/>
   </si>
   <si>
-    <t/>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
   <si>
     <t/>
@@ -1133,67 +1133,7 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
 </sst>
 </file>
@@ -105195,7 +105135,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -105911,6 +105851,17 @@
       </c>
       <c r="C65" s="4">
         <v>4507353</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B66" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="4">
+        <v>3424770</v>
       </c>
     </row>
   </sheetData>
@@ -105919,7 +105870,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E77"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -105947,10 +105898,10 @@
         <v>36161</v>
       </c>
       <c r="C2" s="4">
-        <v>25.830188</v>
+        <v>64.823752999999996</v>
       </c>
       <c r="D2" s="4">
-        <v>25.830188</v>
+        <v>64.823752999999996</v>
       </c>
       <c r="E2" t="s">
         <v>292</v>
@@ -105961,13 +105912,13 @@
         <v>287</v>
       </c>
       <c r="B3" s="5">
-        <v>36251</v>
+        <v>36526</v>
       </c>
       <c r="C3" s="4">
-        <v>81.291089999999997</v>
+        <v>1.1289929999999999</v>
       </c>
       <c r="D3" s="4">
-        <v>81.291089999999997</v>
+        <v>1.1289929999999999</v>
       </c>
       <c r="E3" t="s">
         <v>293</v>
@@ -105978,13 +105929,13 @@
         <v>287</v>
       </c>
       <c r="B4" s="5">
-        <v>36342</v>
+        <v>36892</v>
       </c>
       <c r="C4" s="4">
-        <v>96.165655999999998</v>
+        <v>0.34180100000000002</v>
       </c>
       <c r="D4" s="4">
-        <v>96.165655999999998</v>
+        <v>0.34180100000000002</v>
       </c>
       <c r="E4" t="s">
         <v>294</v>
@@ -105995,13 +105946,13 @@
         <v>287</v>
       </c>
       <c r="B5" s="5">
-        <v>36434</v>
+        <v>37257</v>
       </c>
       <c r="C5" s="4">
-        <v>87.421719999999993</v>
+        <v>0.29101700000000003</v>
       </c>
       <c r="D5" s="4">
-        <v>87.421719999999993</v>
+        <v>0.29101700000000003</v>
       </c>
       <c r="E5" t="s">
         <v>295</v>
@@ -106012,13 +105963,13 @@
         <v>287</v>
       </c>
       <c r="B6" s="5">
-        <v>36526</v>
+        <v>37622</v>
       </c>
       <c r="C6" s="4">
-        <v>73.656339000000003</v>
+        <v>0.036458999999999998</v>
       </c>
       <c r="D6" s="4">
-        <v>73.656339000000003</v>
+        <v>0.036458999999999998</v>
       </c>
       <c r="E6" t="s">
         <v>296</v>
@@ -106029,13 +105980,13 @@
         <v>287</v>
       </c>
       <c r="B7" s="5">
-        <v>36617</v>
+        <v>37987</v>
       </c>
       <c r="C7" s="4">
-        <v>52.150294000000002</v>
+        <v>0.21907099999999999</v>
       </c>
       <c r="D7" s="4">
-        <v>52.150294000000002</v>
+        <v>0.21907099999999999</v>
       </c>
       <c r="E7" t="s">
         <v>297</v>
@@ -106046,13 +105997,13 @@
         <v>287</v>
       </c>
       <c r="B8" s="5">
-        <v>36708</v>
+        <v>38353</v>
       </c>
       <c r="C8" s="4">
-        <v>106.96198800000001</v>
+        <v>0.055842000000000003</v>
       </c>
       <c r="D8" s="4">
-        <v>106.96198800000001</v>
+        <v>0.055842000000000003</v>
       </c>
       <c r="E8" t="s">
         <v>298</v>
@@ -106063,13 +106014,13 @@
         <v>287</v>
       </c>
       <c r="B9" s="5">
-        <v>36800</v>
+        <v>38718</v>
       </c>
       <c r="C9" s="4">
-        <v>55.866529999999997</v>
+        <v>-23.757460999999999</v>
       </c>
       <c r="D9" s="4">
-        <v>55.866529999999997</v>
+        <v>-23.399546000000001</v>
       </c>
       <c r="E9" t="s">
         <v>299</v>
@@ -106080,13 +106031,13 @@
         <v>287</v>
       </c>
       <c r="B10" s="5">
-        <v>36892</v>
+        <v>38808</v>
       </c>
       <c r="C10" s="4">
-        <v>111.044776</v>
+        <v>-8.2681710000000006</v>
       </c>
       <c r="D10" s="4">
-        <v>111.044776</v>
+        <v>-8.2819540000000007</v>
       </c>
       <c r="E10" t="s">
         <v>300</v>
@@ -106097,13 +106048,13 @@
         <v>287</v>
       </c>
       <c r="B11" s="5">
-        <v>36982</v>
+        <v>38899</v>
       </c>
       <c r="C11" s="4">
-        <v>26.406939000000001</v>
+        <v>152.70778000000001</v>
       </c>
       <c r="D11" s="4">
-        <v>26.406939000000001</v>
+        <v>152.70432299999999</v>
       </c>
       <c r="E11" t="s">
         <v>301</v>
@@ -106114,13 +106065,13 @@
         <v>287</v>
       </c>
       <c r="B12" s="5">
-        <v>37073</v>
+        <v>38991</v>
       </c>
       <c r="C12" s="4">
-        <v>55.853051000000001</v>
+        <v>-12.962474</v>
       </c>
       <c r="D12" s="4">
-        <v>55.853051000000001</v>
+        <v>-12.884133</v>
       </c>
       <c r="E12" t="s">
         <v>302</v>
@@ -106131,13 +106082,13 @@
         <v>287</v>
       </c>
       <c r="B13" s="5">
-        <v>37165</v>
+        <v>39083</v>
       </c>
       <c r="C13" s="4">
-        <v>193.65250900000001</v>
+        <v>-37.687407999999998</v>
       </c>
       <c r="D13" s="4">
-        <v>193.65250900000001</v>
+        <v>-37.687407999999998</v>
       </c>
       <c r="E13" t="s">
         <v>303</v>
@@ -106148,13 +106099,13 @@
         <v>287</v>
       </c>
       <c r="B14" s="5">
-        <v>37257</v>
+        <v>39173</v>
       </c>
       <c r="C14" s="4">
-        <v>-6.2241619999999998</v>
+        <v>-73.179933000000005</v>
       </c>
       <c r="D14" s="4">
-        <v>-6.2241619999999998</v>
+        <v>-73.953306999999995</v>
       </c>
       <c r="E14" t="s">
         <v>304</v>
@@ -106165,13 +106116,13 @@
         <v>287</v>
       </c>
       <c r="B15" s="5">
-        <v>37347</v>
+        <v>39264</v>
       </c>
       <c r="C15" s="4">
-        <v>32.163097</v>
+        <v>-31.580760999999999</v>
       </c>
       <c r="D15" s="4">
-        <v>32.163097</v>
+        <v>-31.624935000000001</v>
       </c>
       <c r="E15" t="s">
         <v>305</v>
@@ -106182,13 +106133,13 @@
         <v>287</v>
       </c>
       <c r="B16" s="5">
-        <v>37438</v>
+        <v>39356</v>
       </c>
       <c r="C16" s="4">
-        <v>27.891642000000001</v>
+        <v>74.314552000000006</v>
       </c>
       <c r="D16" s="4">
-        <v>27.891642000000001</v>
+        <v>77.881816999999998</v>
       </c>
       <c r="E16" t="s">
         <v>306</v>
@@ -106199,13 +106150,13 @@
         <v>287</v>
       </c>
       <c r="B17" s="5">
-        <v>37530</v>
+        <v>39448</v>
       </c>
       <c r="C17" s="4">
-        <v>19.941931</v>
+        <v>0.046981000000000002</v>
       </c>
       <c r="D17" s="4">
-        <v>19.941931</v>
+        <v>0.060582000000001003</v>
       </c>
       <c r="E17" t="s">
         <v>307</v>
@@ -106216,13 +106167,13 @@
         <v>287</v>
       </c>
       <c r="B18" s="5">
-        <v>37622</v>
+        <v>39539</v>
       </c>
       <c r="C18" s="4">
-        <v>71.769583999999995</v>
+        <v>-17.17268</v>
       </c>
       <c r="D18" s="4">
-        <v>71.769583999999995</v>
+        <v>-17.468185999999999</v>
       </c>
       <c r="E18" t="s">
         <v>308</v>
@@ -106233,13 +106184,13 @@
         <v>287</v>
       </c>
       <c r="B19" s="5">
-        <v>37712</v>
+        <v>39630</v>
       </c>
       <c r="C19" s="4">
-        <v>11.460283</v>
+        <v>-7.3836630000000003</v>
       </c>
       <c r="D19" s="4">
-        <v>11.460283</v>
+        <v>-7.2463860000000002</v>
       </c>
       <c r="E19" t="s">
         <v>309</v>
@@ -106250,13 +106201,13 @@
         <v>287</v>
       </c>
       <c r="B20" s="5">
-        <v>37803</v>
+        <v>39722</v>
       </c>
       <c r="C20" s="4">
-        <v>26.810509</v>
+        <v>-16.557054999999998</v>
       </c>
       <c r="D20" s="4">
-        <v>26.810509</v>
+        <v>-16.293683000000001</v>
       </c>
       <c r="E20" t="s">
         <v>310</v>
@@ -106267,13 +106218,13 @@
         <v>287</v>
       </c>
       <c r="B21" s="5">
-        <v>37895</v>
+        <v>39814</v>
       </c>
       <c r="C21" s="4">
-        <v>-10.716157000000001</v>
+        <v>6.1397370000000002</v>
       </c>
       <c r="D21" s="4">
-        <v>-10.716157000000001</v>
+        <v>6.1397370000000002</v>
       </c>
       <c r="E21" t="s">
         <v>311</v>
@@ -106284,13 +106235,13 @@
         <v>287</v>
       </c>
       <c r="B22" s="5">
-        <v>37987</v>
+        <v>39904</v>
       </c>
       <c r="C22" s="4">
-        <v>34.712980999999999</v>
+        <v>-1.3328340000000001</v>
       </c>
       <c r="D22" s="4">
-        <v>34.712980999999999</v>
+        <v>35.302655999999999</v>
       </c>
       <c r="E22" t="s">
         <v>312</v>
@@ -106301,13 +106252,13 @@
         <v>287</v>
       </c>
       <c r="B23" s="5">
-        <v>38078</v>
+        <v>39995</v>
       </c>
       <c r="C23" s="4">
-        <v>68.545222999999993</v>
+        <v>-2.0898859999999999</v>
       </c>
       <c r="D23" s="4">
-        <v>68.545222999999993</v>
+        <v>-26.899609000000002</v>
       </c>
       <c r="E23" t="s">
         <v>313</v>
@@ -106318,13 +106269,13 @@
         <v>287</v>
       </c>
       <c r="B24" s="5">
-        <v>38169</v>
+        <v>40087</v>
       </c>
       <c r="C24" s="4">
-        <v>-20.971969999999999</v>
+        <v>15.932116000000001</v>
       </c>
       <c r="D24" s="4">
-        <v>-20.971969999999999</v>
+        <v>8.0341489999999993</v>
       </c>
       <c r="E24" t="s">
         <v>314</v>
@@ -106335,13 +106286,13 @@
         <v>287</v>
       </c>
       <c r="B25" s="5">
-        <v>38261</v>
+        <v>40179</v>
       </c>
       <c r="C25" s="4">
-        <v>21.862244</v>
+        <v>9.1724840000000007</v>
       </c>
       <c r="D25" s="4">
-        <v>21.862244</v>
+        <v>9.1724840000000007</v>
       </c>
       <c r="E25" t="s">
         <v>315</v>
@@ -106352,13 +106303,13 @@
         <v>287</v>
       </c>
       <c r="B26" s="5">
-        <v>38353</v>
+        <v>40269</v>
       </c>
       <c r="C26" s="4">
-        <v>15.255686000000001</v>
+        <v>-0.60429699999999997</v>
       </c>
       <c r="D26" s="4">
-        <v>15.255686000000001</v>
+        <v>0.16517899999999999</v>
       </c>
       <c r="E26" t="s">
         <v>316</v>
@@ -106369,13 +106320,13 @@
         <v>287</v>
       </c>
       <c r="B27" s="5">
-        <v>38443</v>
+        <v>40360</v>
       </c>
       <c r="C27" s="4">
-        <v>142.419645</v>
+        <v>-6.6051146899999997</v>
       </c>
       <c r="D27" s="4">
-        <v>142.419645</v>
+        <v>-5.8628166899999998</v>
       </c>
       <c r="E27" t="s">
         <v>317</v>
@@ -106386,13 +106337,13 @@
         <v>287</v>
       </c>
       <c r="B28" s="5">
-        <v>38534</v>
+        <v>40452</v>
       </c>
       <c r="C28" s="4">
-        <v>33.889707000000001</v>
+        <v>16.543692</v>
       </c>
       <c r="D28" s="4">
-        <v>33.889707000000001</v>
+        <v>77.453920999999994</v>
       </c>
       <c r="E28" t="s">
         <v>318</v>
@@ -106403,13 +106354,13 @@
         <v>287</v>
       </c>
       <c r="B29" s="5">
-        <v>38626</v>
+        <v>40544</v>
       </c>
       <c r="C29" s="4">
-        <v>0.63599399999999995</v>
+        <v>43.369087499999999</v>
       </c>
       <c r="D29" s="4">
-        <v>0.63599400000000095</v>
+        <v>40.642279049999999</v>
       </c>
       <c r="E29" t="s">
         <v>319</v>
@@ -106420,13 +106371,13 @@
         <v>287</v>
       </c>
       <c r="B30" s="5">
-        <v>38718</v>
+        <v>40634</v>
       </c>
       <c r="C30" s="4">
-        <v>13.078110000000001</v>
+        <v>-4.4235480000000003</v>
       </c>
       <c r="D30" s="4">
-        <v>13.078110000000001</v>
+        <v>-3.968572</v>
       </c>
       <c r="E30" t="s">
         <v>320</v>
@@ -106437,13 +106388,13 @@
         <v>287</v>
       </c>
       <c r="B31" s="5">
-        <v>38808</v>
+        <v>40725</v>
       </c>
       <c r="C31" s="4">
-        <v>138.40542400000001</v>
+        <v>-6.1650869999999998</v>
       </c>
       <c r="D31" s="4">
-        <v>138.40542400000001</v>
+        <v>-6.1628150000000002</v>
       </c>
       <c r="E31" t="s">
         <v>321</v>
@@ -106454,13 +106405,13 @@
         <v>287</v>
       </c>
       <c r="B32" s="5">
-        <v>38899</v>
+        <v>40817</v>
       </c>
       <c r="C32" s="4">
-        <v>-17.017171000000001</v>
+        <v>4.0216200000000004</v>
       </c>
       <c r="D32" s="4">
-        <v>-17.017171000000001</v>
+        <v>4.0216200000000004</v>
       </c>
       <c r="E32" t="s">
         <v>322</v>
@@ -106471,13 +106422,13 @@
         <v>287</v>
       </c>
       <c r="B33" s="5">
-        <v>38991</v>
+        <v>40909</v>
       </c>
       <c r="C33" s="4">
-        <v>20.382918</v>
+        <v>-0.67129828000000002</v>
       </c>
       <c r="D33" s="4">
-        <v>20.382918</v>
+        <v>-0.67129828000000002</v>
       </c>
       <c r="E33" t="s">
         <v>323</v>
@@ -106488,13 +106439,13 @@
         <v>287</v>
       </c>
       <c r="B34" s="5">
-        <v>39083</v>
+        <v>41000</v>
       </c>
       <c r="C34" s="4">
-        <v>48.069566999999999</v>
+        <v>-0.19820199999999999</v>
       </c>
       <c r="D34" s="4">
-        <v>48.069566999999999</v>
+        <v>-0.19819800000000001</v>
       </c>
       <c r="E34" t="s">
         <v>324</v>
@@ -106505,13 +106456,13 @@
         <v>287</v>
       </c>
       <c r="B35" s="5">
-        <v>39173</v>
+        <v>41091</v>
       </c>
       <c r="C35" s="4">
-        <v>18.610693999999999</v>
+        <v>7.9476250000000004</v>
       </c>
       <c r="D35" s="4">
-        <v>18.610693999999999</v>
+        <v>7.3480449999999999</v>
       </c>
       <c r="E35" t="s">
         <v>325</v>
@@ -106522,13 +106473,13 @@
         <v>287</v>
       </c>
       <c r="B36" s="5">
-        <v>39264</v>
+        <v>41183</v>
       </c>
       <c r="C36" s="4">
-        <v>14.284140000000001</v>
+        <v>2.672393</v>
       </c>
       <c r="D36" s="4">
-        <v>14.284140000000001</v>
+        <v>2.672393</v>
       </c>
       <c r="E36" t="s">
         <v>326</v>
@@ -106539,13 +106490,13 @@
         <v>287</v>
       </c>
       <c r="B37" s="5">
-        <v>39356</v>
+        <v>41275</v>
       </c>
       <c r="C37" s="4">
-        <v>52.699478999999997</v>
+        <v>13.86901945</v>
       </c>
       <c r="D37" s="4">
-        <v>52.699478999999997</v>
+        <v>13.86901945</v>
       </c>
       <c r="E37" t="s">
         <v>327</v>
@@ -106556,13 +106507,13 @@
         <v>287</v>
       </c>
       <c r="B38" s="5">
-        <v>39448</v>
+        <v>41365</v>
       </c>
       <c r="C38" s="4">
-        <v>-31.090745999999999</v>
+        <v>2.1764830000000002</v>
       </c>
       <c r="D38" s="4">
-        <v>-31.090745999999999</v>
+        <v>2.8734679999999999</v>
       </c>
       <c r="E38" t="s">
         <v>328</v>
@@ -106573,13 +106524,13 @@
         <v>287</v>
       </c>
       <c r="B39" s="5">
-        <v>39539</v>
+        <v>41456</v>
       </c>
       <c r="C39" s="4">
-        <v>42.924930000000003</v>
+        <v>114.332554</v>
       </c>
       <c r="D39" s="4">
-        <v>42.924930000000003</v>
+        <v>113.17346499999999</v>
       </c>
       <c r="E39" t="s">
         <v>329</v>
@@ -106590,13 +106541,13 @@
         <v>287</v>
       </c>
       <c r="B40" s="5">
-        <v>39630</v>
+        <v>41548</v>
       </c>
       <c r="C40" s="4">
-        <v>-1.822506</v>
+        <v>11.81500035</v>
       </c>
       <c r="D40" s="4">
-        <v>-1.82250599999999</v>
+        <v>9.2417443499999905</v>
       </c>
       <c r="E40" t="s">
         <v>330</v>
@@ -106607,13 +106558,13 @@
         <v>287</v>
       </c>
       <c r="B41" s="5">
-        <v>39722</v>
+        <v>41640</v>
       </c>
       <c r="C41" s="4">
-        <v>136.43665899999999</v>
+        <v>31.204345669999999</v>
       </c>
       <c r="D41" s="4">
-        <v>136.43665899999999</v>
+        <v>31.204345669999999</v>
       </c>
       <c r="E41" t="s">
         <v>331</v>
@@ -106624,13 +106575,13 @@
         <v>287</v>
       </c>
       <c r="B42" s="5">
-        <v>39814</v>
+        <v>41730</v>
       </c>
       <c r="C42" s="4">
-        <v>150.62429499999999</v>
+        <v>-4.7881099999999996</v>
       </c>
       <c r="D42" s="4">
-        <v>150.62429499999999</v>
+        <v>-2.192526</v>
       </c>
       <c r="E42" t="s">
         <v>332</v>
@@ -106641,13 +106592,13 @@
         <v>287</v>
       </c>
       <c r="B43" s="5">
-        <v>39904</v>
+        <v>41821</v>
       </c>
       <c r="C43" s="4">
-        <v>90.918205</v>
+        <v>-0.80559899999999995</v>
       </c>
       <c r="D43" s="4">
-        <v>90.918205</v>
+        <v>-0.78614952999999999</v>
       </c>
       <c r="E43" t="s">
         <v>333</v>
@@ -106658,13 +106609,13 @@
         <v>287</v>
       </c>
       <c r="B44" s="5">
-        <v>39995</v>
+        <v>41913</v>
       </c>
       <c r="C44" s="4">
-        <v>113.11171400000001</v>
+        <v>87.108920999999995</v>
       </c>
       <c r="D44" s="4">
-        <v>113.11171400000001</v>
+        <v>85.009863999999993</v>
       </c>
       <c r="E44" t="s">
         <v>334</v>
@@ -106675,13 +106626,13 @@
         <v>287</v>
       </c>
       <c r="B45" s="5">
-        <v>40087</v>
+        <v>42005</v>
       </c>
       <c r="C45" s="4">
-        <v>-167.771311</v>
+        <v>7.4601950199999996</v>
       </c>
       <c r="D45" s="4">
-        <v>-167.771311</v>
+        <v>7.4601950199999996</v>
       </c>
       <c r="E45" t="s">
         <v>335</v>
@@ -106692,13 +106643,13 @@
         <v>287</v>
       </c>
       <c r="B46" s="5">
-        <v>40179</v>
+        <v>42095</v>
       </c>
       <c r="C46" s="4">
-        <v>38.356920000000002</v>
+        <v>0</v>
       </c>
       <c r="D46" s="4">
-        <v>38.356920000000002</v>
+        <v>0.19690099999999999</v>
       </c>
       <c r="E46" t="s">
         <v>336</v>
@@ -106709,13 +106660,13 @@
         <v>287</v>
       </c>
       <c r="B47" s="5">
-        <v>40269</v>
+        <v>42186</v>
       </c>
       <c r="C47" s="4">
-        <v>88.073937000000001</v>
+        <v>0</v>
       </c>
       <c r="D47" s="4">
-        <v>88.073937000000001</v>
+        <v>5.65848</v>
       </c>
       <c r="E47" t="s">
         <v>337</v>
@@ -106726,13 +106677,13 @@
         <v>287</v>
       </c>
       <c r="B48" s="5">
-        <v>40360</v>
+        <v>42278</v>
       </c>
       <c r="C48" s="4">
-        <v>241.55914000000001</v>
+        <v>0</v>
       </c>
       <c r="D48" s="4">
-        <v>241.55914000000001</v>
+        <v>0</v>
       </c>
       <c r="E48" t="s">
         <v>338</v>
@@ -106743,13 +106694,13 @@
         <v>287</v>
       </c>
       <c r="B49" s="5">
-        <v>40452</v>
+        <v>42370</v>
       </c>
       <c r="C49" s="4">
-        <v>55.225392130000003</v>
+        <v>0</v>
       </c>
       <c r="D49" s="4">
-        <v>55.225392130000003</v>
+        <v>0</v>
       </c>
       <c r="E49" t="s">
         <v>339</v>
@@ -106760,13 +106711,13 @@
         <v>287</v>
       </c>
       <c r="B50" s="5">
-        <v>40544</v>
+        <v>42461</v>
       </c>
       <c r="C50" s="4">
-        <v>25.332747999999999</v>
+        <v>2.6030831499999998</v>
       </c>
       <c r="D50" s="4">
-        <v>25.332747999999999</v>
+        <v>2.9756421500000001</v>
       </c>
       <c r="E50" t="s">
         <v>340</v>
@@ -106777,13 +106728,13 @@
         <v>287</v>
       </c>
       <c r="B51" s="5">
-        <v>40634</v>
+        <v>42552</v>
       </c>
       <c r="C51" s="4">
-        <v>107.21753099999999</v>
+        <v>0</v>
       </c>
       <c r="D51" s="4">
-        <v>107.21753099999999</v>
+        <v>7.9372189999999998</v>
       </c>
       <c r="E51" t="s">
         <v>341</v>
@@ -106794,13 +106745,13 @@
         <v>287</v>
       </c>
       <c r="B52" s="5">
-        <v>40725</v>
+        <v>42644</v>
       </c>
       <c r="C52" s="4">
-        <v>-71.340270000000004</v>
+        <v>0</v>
       </c>
       <c r="D52" s="4">
-        <v>-71.340270000000004</v>
+        <v>6.1082850300000002</v>
       </c>
       <c r="E52" t="s">
         <v>342</v>
@@ -106811,13 +106762,13 @@
         <v>287</v>
       </c>
       <c r="B53" s="5">
-        <v>40817</v>
+        <v>42736</v>
       </c>
       <c r="C53" s="4">
-        <v>30.663326000000001</v>
+        <v>2.5383754199999999</v>
       </c>
       <c r="D53" s="4">
-        <v>30.663326000000001</v>
+        <v>2.69325942</v>
       </c>
       <c r="E53" t="s">
         <v>343</v>
@@ -106828,13 +106779,13 @@
         <v>287</v>
       </c>
       <c r="B54" s="5">
-        <v>40909</v>
+        <v>42826</v>
       </c>
       <c r="C54" s="4">
-        <v>42.988233889999997</v>
+        <v>0.14027344</v>
       </c>
       <c r="D54" s="4">
-        <v>42.988233889999997</v>
+        <v>5.8381086699999996</v>
       </c>
       <c r="E54" t="s">
         <v>344</v>
@@ -106845,13 +106796,13 @@
         <v>287</v>
       </c>
       <c r="B55" s="5">
-        <v>41000</v>
+        <v>42917</v>
       </c>
       <c r="C55" s="4">
-        <v>34.485554370000003</v>
+        <v>3.3420849600000002</v>
       </c>
       <c r="D55" s="4">
-        <v>34.485554370000003</v>
+        <v>71.900541259999997</v>
       </c>
       <c r="E55" t="s">
         <v>345</v>
@@ -106862,13 +106813,13 @@
         <v>287</v>
       </c>
       <c r="B56" s="5">
-        <v>41091</v>
+        <v>43009</v>
       </c>
       <c r="C56" s="4">
-        <v>22.484316629999999</v>
+        <v>-3.3661266599999999</v>
       </c>
       <c r="D56" s="4">
-        <v>22.484316629999999</v>
+        <v>-3.69726971</v>
       </c>
       <c r="E56" t="s">
         <v>346</v>
@@ -106879,13 +106830,13 @@
         <v>287</v>
       </c>
       <c r="B57" s="5">
-        <v>41183</v>
+        <v>43101</v>
       </c>
       <c r="C57" s="4">
-        <v>40.756138999999997</v>
+        <v>8.2962634899999994</v>
       </c>
       <c r="D57" s="4">
-        <v>40.756138999999997</v>
+        <v>-1.9908387299999999</v>
       </c>
       <c r="E57" t="s">
         <v>347</v>
@@ -106896,13 +106847,13 @@
         <v>287</v>
       </c>
       <c r="B58" s="5">
-        <v>41275</v>
+        <v>43191</v>
       </c>
       <c r="C58" s="4">
-        <v>90.506898419999999</v>
+        <v>5.96698694</v>
       </c>
       <c r="D58" s="4">
-        <v>90.506898419999999</v>
+        <v>-14.747385899999999</v>
       </c>
       <c r="E58" t="s">
         <v>348</v>
@@ -106913,13 +106864,13 @@
         <v>287</v>
       </c>
       <c r="B59" s="5">
-        <v>41365</v>
+        <v>43282</v>
       </c>
       <c r="C59" s="4">
-        <v>75.493291350000007</v>
+        <v>8.0504230000000003</v>
       </c>
       <c r="D59" s="4">
-        <v>75.493291350000007</v>
+        <v>177.68386634000001</v>
       </c>
       <c r="E59" t="s">
         <v>349</v>
@@ -106930,13 +106881,13 @@
         <v>287</v>
       </c>
       <c r="B60" s="5">
-        <v>41456</v>
+        <v>43374</v>
       </c>
       <c r="C60" s="4">
-        <v>100.8861387</v>
+        <v>9.1383627999999995</v>
       </c>
       <c r="D60" s="4">
-        <v>100.88613872000001</v>
+        <v>-130.56328758999999</v>
       </c>
       <c r="E60" t="s">
         <v>350</v>
@@ -106947,13 +106898,13 @@
         <v>287</v>
       </c>
       <c r="B61" s="5">
-        <v>41548</v>
+        <v>43466</v>
       </c>
       <c r="C61" s="4">
-        <v>41.759126899999998</v>
+        <v>2.3605817500000001</v>
       </c>
       <c r="D61" s="4">
-        <v>41.759126899999998</v>
+        <v>28.003152549999999</v>
       </c>
       <c r="E61" t="s">
         <v>351</v>
@@ -106964,13 +106915,13 @@
         <v>287</v>
       </c>
       <c r="B62" s="5">
-        <v>41640</v>
+        <v>43556</v>
       </c>
       <c r="C62" s="4">
-        <v>49.412751919999998</v>
+        <v>4.8052642499999996</v>
       </c>
       <c r="D62" s="4">
-        <v>49.412751919999998</v>
+        <v>6.7412165599999998</v>
       </c>
       <c r="E62" t="s">
         <v>352</v>
@@ -106981,13 +106932,13 @@
         <v>287</v>
       </c>
       <c r="B63" s="5">
-        <v>41730</v>
+        <v>43647</v>
       </c>
       <c r="C63" s="4">
-        <v>-168.96485659999999</v>
+        <v>-6.4544528200000002</v>
       </c>
       <c r="D63" s="4">
-        <v>-168.96485659999999</v>
+        <v>-6.8445583000000001</v>
       </c>
       <c r="E63" t="s">
         <v>353</v>
@@ -106998,13 +106949,13 @@
         <v>287</v>
       </c>
       <c r="B64" s="5">
-        <v>41821</v>
+        <v>43739</v>
       </c>
       <c r="C64" s="4">
-        <v>53.302174739999998</v>
+        <v>2.4434484799999998</v>
       </c>
       <c r="D64" s="4">
-        <v>53.302174739999998</v>
+        <v>2.6647055599999998</v>
       </c>
       <c r="E64" t="s">
         <v>354</v>
@@ -107015,13 +106966,13 @@
         <v>287</v>
       </c>
       <c r="B65" s="5">
-        <v>41913</v>
+        <v>43831</v>
       </c>
       <c r="C65" s="4">
-        <v>105.5287831</v>
+        <v>3.8603638</v>
       </c>
       <c r="D65" s="4">
-        <v>105.5287831</v>
+        <v>5.7038772800000004</v>
       </c>
       <c r="E65" t="s">
         <v>355</v>
@@ -107032,13 +106983,13 @@
         <v>287</v>
       </c>
       <c r="B66" s="5">
-        <v>42005</v>
+        <v>43922</v>
       </c>
       <c r="C66" s="4">
-        <v>38.48841711</v>
+        <v>5.1844681100000001</v>
       </c>
       <c r="D66" s="4">
-        <v>38.48841711</v>
+        <v>3.17447291</v>
       </c>
       <c r="E66" t="s">
         <v>356</v>
@@ -107049,13 +107000,13 @@
         <v>287</v>
       </c>
       <c r="B67" s="5">
-        <v>42095</v>
+        <v>44013</v>
       </c>
       <c r="C67" s="4">
-        <v>20.930662000000002</v>
+        <v>0.15237178000000001</v>
       </c>
       <c r="D67" s="4">
-        <v>20.930662000000002</v>
+        <v>1.6569491700000001</v>
       </c>
       <c r="E67" t="s">
         <v>357</v>
@@ -107066,13 +107017,13 @@
         <v>287</v>
       </c>
       <c r="B68" s="5">
-        <v>42186</v>
+        <v>44105</v>
       </c>
       <c r="C68" s="4">
-        <v>34.547607999999997</v>
+        <v>-5.3857570199999998</v>
       </c>
       <c r="D68" s="4">
-        <v>34.547607999999997</v>
+        <v>3.5914961500000002</v>
       </c>
       <c r="E68" t="s">
         <v>358</v>
@@ -107083,13 +107034,13 @@
         <v>287</v>
       </c>
       <c r="B69" s="5">
-        <v>42278</v>
+        <v>44197</v>
       </c>
       <c r="C69" s="4">
-        <v>39.132633609999999</v>
+        <v>17.258745080000001</v>
       </c>
       <c r="D69" s="4">
-        <v>39.132633609999999</v>
+        <v>27.60206445</v>
       </c>
       <c r="E69" t="s">
         <v>359</v>
@@ -107100,13 +107051,13 @@
         <v>287</v>
       </c>
       <c r="B70" s="5">
-        <v>42370</v>
+        <v>44287</v>
       </c>
       <c r="C70" s="4">
-        <v>154.73856050000001</v>
+        <v>0.87543068999999996</v>
       </c>
       <c r="D70" s="4">
-        <v>154.73856044999999</v>
+        <v>13.53469862</v>
       </c>
       <c r="E70" t="s">
         <v>360</v>
@@ -107117,13 +107068,13 @@
         <v>287</v>
       </c>
       <c r="B71" s="5">
-        <v>42461</v>
+        <v>44378</v>
       </c>
       <c r="C71" s="4">
-        <v>147.7311871</v>
+        <v>12.77760376</v>
       </c>
       <c r="D71" s="4">
-        <v>147.73118711000001</v>
+        <v>27.958886230000001</v>
       </c>
       <c r="E71" t="s">
         <v>361</v>
@@ -107134,13 +107085,13 @@
         <v>287</v>
       </c>
       <c r="B72" s="5">
-        <v>42552</v>
+        <v>44470</v>
       </c>
       <c r="C72" s="4">
-        <v>-21.99493258</v>
+        <v>12.26295163</v>
       </c>
       <c r="D72" s="4">
-        <v>-21.99493258</v>
+        <v>27.064704649999999</v>
       </c>
       <c r="E72" t="s">
         <v>362</v>
@@ -107151,13 +107102,13 @@
         <v>287</v>
       </c>
       <c r="B73" s="5">
-        <v>42644</v>
+        <v>44562</v>
       </c>
       <c r="C73" s="4">
-        <v>-18.07753808</v>
+        <v>25.042922130000001</v>
       </c>
       <c r="D73" s="4">
-        <v>-18.07753808</v>
+        <v>-87.423316961189499</v>
       </c>
       <c r="E73" t="s">
         <v>363</v>
@@ -107168,13 +107119,13 @@
         <v>287</v>
       </c>
       <c r="B74" s="5">
-        <v>42736</v>
+        <v>44652</v>
       </c>
       <c r="C74" s="4">
-        <v>24.114299689999999</v>
+        <v>0.30246614000000099</v>
       </c>
       <c r="D74" s="4">
-        <v>-17.698147989999999</v>
+        <v>-1.39581165</v>
       </c>
       <c r="E74" t="s">
         <v>364</v>
@@ -107185,13 +107136,13 @@
         <v>287</v>
       </c>
       <c r="B75" s="5">
-        <v>42826</v>
+        <v>44743</v>
       </c>
       <c r="C75" s="4">
-        <v>1.24752912</v>
+        <v>2.5281550699999999</v>
       </c>
       <c r="D75" s="4">
-        <v>11.193113840000001</v>
+        <v>3.5310247299999999</v>
       </c>
       <c r="E75" t="s">
         <v>365</v>
@@ -107202,13 +107153,13 @@
         <v>287</v>
       </c>
       <c r="B76" s="5">
-        <v>42917</v>
+        <v>44835</v>
       </c>
       <c r="C76" s="4">
-        <v>12.851929030000001</v>
+        <v>-0.99367267291796402</v>
       </c>
       <c r="D76" s="4">
-        <v>8.8968669699999996</v>
+        <v>0.065013175678627605</v>
       </c>
       <c r="E76" t="s">
         <v>366</v>
@@ -107219,356 +107170,16 @@
         <v>287</v>
       </c>
       <c r="B77" s="5">
-        <v>43009</v>
+        <v>44927</v>
       </c>
       <c r="C77" s="4">
-        <v>47.647475149999998</v>
+        <v>0</v>
       </c>
       <c r="D77" s="4">
-        <v>44.056273959999999</v>
+        <v>0</v>
       </c>
       <c r="E77" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>287</v>
-      </c>
-      <c r="B78" s="5">
-        <v>43101</v>
-      </c>
-      <c r="C78" s="4">
-        <v>106.47428619999999</v>
-      </c>
-      <c r="D78" s="4">
-        <v>110.99698742</v>
-      </c>
-      <c r="E78" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>287</v>
-      </c>
-      <c r="B79" s="5">
-        <v>43191</v>
-      </c>
-      <c r="C79" s="4">
-        <v>37.724342630000002</v>
-      </c>
-      <c r="D79" s="4">
-        <v>49.795634700000001</v>
-      </c>
-      <c r="E79" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>287</v>
-      </c>
-      <c r="B80" s="5">
-        <v>43282</v>
-      </c>
-      <c r="C80" s="4">
-        <v>-11.798475</v>
-      </c>
-      <c r="D80" s="4">
-        <v>-18.528992550000002</v>
-      </c>
-      <c r="E80" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>287</v>
-      </c>
-      <c r="B81" s="5">
-        <v>43374</v>
-      </c>
-      <c r="C81" s="4">
-        <v>78.531758300000007</v>
-      </c>
-      <c r="D81" s="4">
-        <v>95.98911914</v>
-      </c>
-      <c r="E81" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>287</v>
-      </c>
-      <c r="B82" s="5">
-        <v>43466</v>
-      </c>
-      <c r="C82" s="4">
-        <v>68.950922109999993</v>
-      </c>
-      <c r="D82" s="4">
-        <v>76.618677640000001</v>
-      </c>
-      <c r="E82" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>287</v>
-      </c>
-      <c r="B83" s="5">
-        <v>43556</v>
-      </c>
-      <c r="C83" s="4">
-        <v>48.503736510000003</v>
-      </c>
-      <c r="D83" s="4">
-        <v>24.28454056</v>
-      </c>
-      <c r="E83" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>287</v>
-      </c>
-      <c r="B84" s="5">
-        <v>43647</v>
-      </c>
-      <c r="C84" s="4">
-        <v>16.188561809999999</v>
-      </c>
-      <c r="D84" s="4">
-        <v>19.350123150000002</v>
-      </c>
-      <c r="E84" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>287</v>
-      </c>
-      <c r="B85" s="5">
-        <v>43739</v>
-      </c>
-      <c r="C85" s="4">
-        <v>6.7639555800000002</v>
-      </c>
-      <c r="D85" s="4">
-        <v>6.7639555800000002</v>
-      </c>
-      <c r="E85" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>287</v>
-      </c>
-      <c r="B86" s="5">
-        <v>43831</v>
-      </c>
-      <c r="C86" s="4">
-        <v>79.203450309999994</v>
-      </c>
-      <c r="D86" s="4">
-        <v>84.634219669999993</v>
-      </c>
-      <c r="E86" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>287</v>
-      </c>
-      <c r="B87" s="5">
-        <v>43922</v>
-      </c>
-      <c r="C87" s="4">
-        <v>110.1369456</v>
-      </c>
-      <c r="D87" s="4">
-        <v>111.10784296999999</v>
-      </c>
-      <c r="E87" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>287</v>
-      </c>
-      <c r="B88" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C88" s="4">
-        <v>-43.650501230000003</v>
-      </c>
-      <c r="D88" s="4">
-        <v>-43.650501230000003</v>
-      </c>
-      <c r="E88" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>287</v>
-      </c>
-      <c r="B89" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C89" s="4">
-        <v>-32.865227949999998</v>
-      </c>
-      <c r="D89" s="4">
-        <v>-28.6800709</v>
-      </c>
-      <c r="E89" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>287</v>
-      </c>
-      <c r="B90" s="5">
-        <v>44197</v>
-      </c>
-      <c r="C90" s="4">
-        <v>30.084558619999999</v>
-      </c>
-      <c r="D90" s="4">
-        <v>53.3484268420315</v>
-      </c>
-      <c r="E90" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>287</v>
-      </c>
-      <c r="B91" s="5">
-        <v>44287</v>
-      </c>
-      <c r="C91" s="4">
-        <v>-49.421154700000002</v>
-      </c>
-      <c r="D91" s="4">
-        <v>-49.420654990000003</v>
-      </c>
-      <c r="E91" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>287</v>
-      </c>
-      <c r="B92" s="5">
-        <v>44378</v>
-      </c>
-      <c r="C92" s="4">
-        <v>-16.093854610000001</v>
-      </c>
-      <c r="D92" s="4">
-        <v>-16.093854610000001</v>
-      </c>
-      <c r="E92" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>287</v>
-      </c>
-      <c r="B93" s="5">
-        <v>44470</v>
-      </c>
-      <c r="C93" s="4">
-        <v>76.025286300000005</v>
-      </c>
-      <c r="D93" s="4">
-        <v>76.025286300000005</v>
-      </c>
-      <c r="E93" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>287</v>
-      </c>
-      <c r="B94" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C94" s="4">
-        <v>61.144632479999999</v>
-      </c>
-      <c r="D94" s="4">
-        <v>39.211245785921399</v>
-      </c>
-      <c r="E94" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>287</v>
-      </c>
-      <c r="B95" s="5">
-        <v>44652</v>
-      </c>
-      <c r="C95" s="4">
-        <v>45.074567039999998</v>
-      </c>
-      <c r="D95" s="4">
-        <v>45.471677239999998</v>
-      </c>
-      <c r="E95" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>287</v>
-      </c>
-      <c r="B96" s="5">
-        <v>44743</v>
-      </c>
-      <c r="C96" s="4">
-        <v>72.349832770000006</v>
-      </c>
-      <c r="D96" s="4">
-        <v>72.349832770000006</v>
-      </c>
-      <c r="E96" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>287</v>
-      </c>
-      <c r="B97" s="5">
-        <v>44835</v>
-      </c>
-      <c r="C97" s="4">
-        <v>85.800361035547198</v>
-      </c>
-      <c r="D97" s="4">
-        <v>85.800361035547198</v>
-      </c>
-      <c r="E97" t="s">
-        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 07/07/2023</t>
+    <t xml:space="preserve"> 07/31/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/09/2023</t>
+    <t xml:space="preserve"> 08/29/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14658" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14660" uniqueCount="369">
   <si>
     <t>Base de datos</t>
   </si>
@@ -1133,7 +1133,10 @@
     <t/>
   </si>
   <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -106422,7 +106425,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -106572,7 +106575,7 @@
         <v>-23.757460999999999</v>
       </c>
       <c r="D9" s="4">
-        <v>-23.399546000000001</v>
+        <v>-23.757460999999999</v>
       </c>
       <c r="E9" t="s">
         <v>299</v>
@@ -106589,7 +106592,7 @@
         <v>-8.2681710000000006</v>
       </c>
       <c r="D10" s="4">
-        <v>-8.2819540000000007</v>
+        <v>1.1290750000000001</v>
       </c>
       <c r="E10" t="s">
         <v>300</v>
@@ -106606,7 +106609,7 @@
         <v>152.70778000000001</v>
       </c>
       <c r="D11" s="4">
-        <v>152.70432299999999</v>
+        <v>0.118316</v>
       </c>
       <c r="E11" t="s">
         <v>301</v>
@@ -106623,7 +106626,7 @@
         <v>-12.962474</v>
       </c>
       <c r="D12" s="4">
-        <v>-12.884133</v>
+        <v>0.61084899999999998</v>
       </c>
       <c r="E12" t="s">
         <v>302</v>
@@ -106640,7 +106643,7 @@
         <v>-37.687407999999998</v>
       </c>
       <c r="D13" s="4">
-        <v>-37.687407999999998</v>
+        <v>4.2642379999999998</v>
       </c>
       <c r="E13" t="s">
         <v>303</v>
@@ -106657,7 +106660,7 @@
         <v>-73.179933000000005</v>
       </c>
       <c r="D14" s="4">
-        <v>-73.953306999999995</v>
+        <v>-0.032690999999999901</v>
       </c>
       <c r="E14" t="s">
         <v>304</v>
@@ -106674,7 +106677,7 @@
         <v>-31.580760999999999</v>
       </c>
       <c r="D15" s="4">
-        <v>-31.624935000000001</v>
+        <v>-1.3684959999999999</v>
       </c>
       <c r="E15" t="s">
         <v>305</v>
@@ -106691,7 +106694,7 @@
         <v>74.314552000000006</v>
       </c>
       <c r="D16" s="4">
-        <v>77.881816999999998</v>
+        <v>1.567213</v>
       </c>
       <c r="E16" t="s">
         <v>306</v>
@@ -106708,7 +106711,7 @@
         <v>0.046981000000000002</v>
       </c>
       <c r="D17" s="4">
-        <v>0.060582000000001003</v>
+        <v>0.44441999999999998</v>
       </c>
       <c r="E17" t="s">
         <v>307</v>
@@ -106725,7 +106728,7 @@
         <v>-17.17268</v>
       </c>
       <c r="D18" s="4">
-        <v>-17.468185999999999</v>
+        <v>-0.832646</v>
       </c>
       <c r="E18" t="s">
         <v>308</v>
@@ -106742,7 +106745,7 @@
         <v>-7.3836630000000003</v>
       </c>
       <c r="D19" s="4">
-        <v>-7.2463860000000002</v>
+        <v>-0.65736600000000001</v>
       </c>
       <c r="E19" t="s">
         <v>309</v>
@@ -106759,7 +106762,7 @@
         <v>-16.557054999999998</v>
       </c>
       <c r="D20" s="4">
-        <v>-16.293683000000001</v>
+        <v>0.51447600000000004</v>
       </c>
       <c r="E20" t="s">
         <v>310</v>
@@ -106776,7 +106779,7 @@
         <v>6.1397370000000002</v>
       </c>
       <c r="D21" s="4">
-        <v>6.1397370000000002</v>
+        <v>18.313635999999999</v>
       </c>
       <c r="E21" t="s">
         <v>311</v>
@@ -106793,7 +106796,7 @@
         <v>-1.3328340000000001</v>
       </c>
       <c r="D22" s="4">
-        <v>35.302655999999999</v>
+        <v>36.597482999999997</v>
       </c>
       <c r="E22" t="s">
         <v>312</v>
@@ -106810,7 +106813,7 @@
         <v>-2.0898859999999999</v>
       </c>
       <c r="D23" s="4">
-        <v>-26.899609000000002</v>
+        <v>-27.680925999999999</v>
       </c>
       <c r="E23" t="s">
         <v>313</v>
@@ -106827,7 +106830,7 @@
         <v>15.932116000000001</v>
       </c>
       <c r="D24" s="4">
-        <v>8.0341489999999993</v>
+        <v>-3.5954220000000001</v>
       </c>
       <c r="E24" t="s">
         <v>314</v>
@@ -106861,7 +106864,7 @@
         <v>-0.60429699999999997</v>
       </c>
       <c r="D26" s="4">
-        <v>0.16517899999999999</v>
+        <v>1.7974810000000001</v>
       </c>
       <c r="E26" t="s">
         <v>316</v>
@@ -106878,7 +106881,7 @@
         <v>-6.6051146899999997</v>
       </c>
       <c r="D27" s="4">
-        <v>-5.8628166899999998</v>
+        <v>-3.98184169</v>
       </c>
       <c r="E27" t="s">
         <v>317</v>
@@ -106895,7 +106898,7 @@
         <v>16.543692</v>
       </c>
       <c r="D28" s="4">
-        <v>77.453920999999994</v>
+        <v>58.543629000000003</v>
       </c>
       <c r="E28" t="s">
         <v>318</v>
@@ -106912,7 +106915,7 @@
         <v>43.369087499999999</v>
       </c>
       <c r="D29" s="4">
-        <v>40.642279049999999</v>
+        <v>0.31973905000000002</v>
       </c>
       <c r="E29" t="s">
         <v>319</v>
@@ -106929,7 +106932,7 @@
         <v>-4.4235480000000003</v>
       </c>
       <c r="D30" s="4">
-        <v>-3.968572</v>
+        <v>1.2999750000000001</v>
       </c>
       <c r="E30" t="s">
         <v>320</v>
@@ -106946,7 +106949,7 @@
         <v>-6.1650869999999998</v>
       </c>
       <c r="D31" s="4">
-        <v>-6.1628150000000002</v>
+        <v>0.93220800000000004</v>
       </c>
       <c r="E31" t="s">
         <v>321</v>
@@ -106963,7 +106966,7 @@
         <v>4.0216200000000004</v>
       </c>
       <c r="D32" s="4">
-        <v>4.0216200000000004</v>
+        <v>0.76525600000000005</v>
       </c>
       <c r="E32" t="s">
         <v>322</v>
@@ -106997,7 +107000,7 @@
         <v>-0.19820199999999999</v>
       </c>
       <c r="D34" s="4">
-        <v>-0.19819800000000001</v>
+        <v>-0.92372900000000002</v>
       </c>
       <c r="E34" t="s">
         <v>324</v>
@@ -107014,7 +107017,7 @@
         <v>7.9476250000000004</v>
       </c>
       <c r="D35" s="4">
-        <v>7.3480449999999999</v>
+        <v>3.6847889999999999</v>
       </c>
       <c r="E35" t="s">
         <v>325</v>
@@ -107031,7 +107034,7 @@
         <v>2.672393</v>
       </c>
       <c r="D36" s="4">
-        <v>2.672393</v>
+        <v>-1.0364120000000001</v>
       </c>
       <c r="E36" t="s">
         <v>326</v>
@@ -107065,7 +107068,7 @@
         <v>2.1764830000000002</v>
       </c>
       <c r="D38" s="4">
-        <v>2.8734679999999999</v>
+        <v>1.3171250000000001</v>
       </c>
       <c r="E38" t="s">
         <v>328</v>
@@ -107082,7 +107085,7 @@
         <v>114.332554</v>
       </c>
       <c r="D39" s="4">
-        <v>113.17346499999999</v>
+        <v>1.9545250000000001</v>
       </c>
       <c r="E39" t="s">
         <v>329</v>
@@ -107099,7 +107102,7 @@
         <v>11.81500035</v>
       </c>
       <c r="D40" s="4">
-        <v>9.2417443499999905</v>
+        <v>0.48348734999999998</v>
       </c>
       <c r="E40" t="s">
         <v>330</v>
@@ -107116,7 +107119,7 @@
         <v>31.204345669999999</v>
       </c>
       <c r="D41" s="4">
-        <v>31.204345669999999</v>
+        <v>22.1722888</v>
       </c>
       <c r="E41" t="s">
         <v>331</v>
@@ -107133,7 +107136,7 @@
         <v>-4.7881099999999996</v>
       </c>
       <c r="D42" s="4">
-        <v>-2.192526</v>
+        <v>1.7275389999999999</v>
       </c>
       <c r="E42" t="s">
         <v>332</v>
@@ -107150,7 +107153,7 @@
         <v>-0.80559899999999995</v>
       </c>
       <c r="D43" s="4">
-        <v>-0.78614952999999999</v>
+        <v>2.2870334699999999</v>
       </c>
       <c r="E43" t="s">
         <v>333</v>
@@ -107167,7 +107170,7 @@
         <v>87.108920999999995</v>
       </c>
       <c r="D44" s="4">
-        <v>85.009863999999993</v>
+        <v>-3.5207820000000001</v>
       </c>
       <c r="E44" t="s">
         <v>334</v>
@@ -107218,7 +107221,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="4">
-        <v>5.65848</v>
+        <v>6.6949480000000001</v>
       </c>
       <c r="E47" t="s">
         <v>337</v>
@@ -107286,7 +107289,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="4">
-        <v>7.9372189999999998</v>
+        <v>8.5096299999999996</v>
       </c>
       <c r="E51" t="s">
         <v>341</v>
@@ -107337,7 +107340,7 @@
         <v>0.14027344</v>
       </c>
       <c r="D54" s="4">
-        <v>5.8381086699999996</v>
+        <v>8.6309761100000006</v>
       </c>
       <c r="E54" t="s">
         <v>344</v>
@@ -107405,7 +107408,7 @@
         <v>5.96698694</v>
       </c>
       <c r="D58" s="4">
-        <v>-14.747385899999999</v>
+        <v>-7.5160491699999996</v>
       </c>
       <c r="E58" t="s">
         <v>348</v>
@@ -107456,7 +107459,7 @@
         <v>2.3605817500000001</v>
       </c>
       <c r="D61" s="4">
-        <v>28.003152549999999</v>
+        <v>26.623480310000001</v>
       </c>
       <c r="E61" t="s">
         <v>351</v>
@@ -107473,7 +107476,7 @@
         <v>4.8052642499999996</v>
       </c>
       <c r="D62" s="4">
-        <v>6.7412165599999998</v>
+        <v>9.7731977600000004</v>
       </c>
       <c r="E62" t="s">
         <v>352</v>
@@ -107524,7 +107527,7 @@
         <v>3.8603638</v>
       </c>
       <c r="D65" s="4">
-        <v>5.7038772800000004</v>
+        <v>1.45339325</v>
       </c>
       <c r="E65" t="s">
         <v>355</v>
@@ -107575,7 +107578,7 @@
         <v>-5.3857570199999998</v>
       </c>
       <c r="D68" s="4">
-        <v>3.5914961500000002</v>
+        <v>3.59149614999999</v>
       </c>
       <c r="E68" t="s">
         <v>358</v>
@@ -107592,7 +107595,7 @@
         <v>17.258745080000001</v>
       </c>
       <c r="D69" s="4">
-        <v>27.60206445</v>
+        <v>27.564445490000001</v>
       </c>
       <c r="E69" t="s">
         <v>359</v>
@@ -107609,7 +107612,7 @@
         <v>0.87543068999999996</v>
       </c>
       <c r="D70" s="4">
-        <v>13.53469862</v>
+        <v>13.44914496</v>
       </c>
       <c r="E70" t="s">
         <v>360</v>
@@ -107626,7 +107629,7 @@
         <v>12.77760376</v>
       </c>
       <c r="D71" s="4">
-        <v>27.958886230000001</v>
+        <v>27.6641914899309</v>
       </c>
       <c r="E71" t="s">
         <v>361</v>
@@ -107643,7 +107646,7 @@
         <v>12.26295163</v>
       </c>
       <c r="D72" s="4">
-        <v>27.064704649999999</v>
+        <v>27.051474750000001</v>
       </c>
       <c r="E72" t="s">
         <v>362</v>
@@ -107660,7 +107663,7 @@
         <v>25.042922130000001</v>
       </c>
       <c r="D73" s="4">
-        <v>-87.423316961189499</v>
+        <v>-87.503660121189498</v>
       </c>
       <c r="E73" t="s">
         <v>363</v>
@@ -107677,7 +107680,7 @@
         <v>0.30246614000000099</v>
       </c>
       <c r="D74" s="4">
-        <v>-1.39581165</v>
+        <v>-0.93119532000000005</v>
       </c>
       <c r="E74" t="s">
         <v>364</v>
@@ -107694,7 +107697,7 @@
         <v>2.5281550699999999</v>
       </c>
       <c r="D75" s="4">
-        <v>3.5310247299999999</v>
+        <v>3.90084469</v>
       </c>
       <c r="E75" t="s">
         <v>365</v>
@@ -107711,7 +107714,7 @@
         <v>-0.99367267291796402</v>
       </c>
       <c r="D76" s="4">
-        <v>0.065013175678627605</v>
+        <v>0.074003321910204103</v>
       </c>
       <c r="E76" t="s">
         <v>366</v>
@@ -107728,10 +107731,27 @@
         <v>0</v>
       </c>
       <c r="D77" s="4">
-        <v>0</v>
+        <v>1.0021496158346599</v>
       </c>
       <c r="E77" t="s">
         <v>367</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B78" s="5">
+        <v>45017</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0.91263386382401701</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.91263386382401701</v>
+      </c>
+      <c r="E78" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14696" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14697" uniqueCount="369">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/06/2023</t>
+    <t xml:space="preserve"> 10/02/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -105966,7 +105966,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -106693,6 +106693,17 @@
       </c>
       <c r="C66" s="4">
         <v>3424770</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" s="4">
+        <v>3850053</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10/02/2023</t>
+    <t xml:space="preserve"> 10/03/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -1763,13 +1763,13 @@
         <v>2003</v>
       </c>
       <c r="D2" s="4">
-        <v>53946.839</v>
+        <v>89707.794999999998</v>
       </c>
       <c r="E2" s="4">
-        <v>794957.32200000004</v>
+        <v>1212171.1969999999</v>
       </c>
       <c r="F2" s="4">
-        <v>0.067861302119058914</v>
+        <v>0.074005879055712293</v>
       </c>
     </row>
     <row r="3">
@@ -1783,13 +1783,13 @@
         <v>2004</v>
       </c>
       <c r="D3" s="4">
-        <v>44358.324000000001</v>
+        <v>76505.138000000006</v>
       </c>
       <c r="E3" s="4">
-        <v>819238.31000000006</v>
+        <v>1246901.3899999999</v>
       </c>
       <c r="F3" s="4">
-        <v>0.054145812590233967</v>
+        <v>0.061356205561692426</v>
       </c>
     </row>
     <row r="4">
@@ -1803,13 +1803,13 @@
         <v>2005</v>
       </c>
       <c r="D4" s="4">
-        <v>49888.947999999997</v>
+        <v>80337.048999999999</v>
       </c>
       <c r="E4" s="4">
-        <v>842128.81299999997</v>
+        <v>1274855.8219999999</v>
       </c>
       <c r="F4" s="4">
-        <v>0.059241469036400256</v>
+        <v>0.063016576159935361</v>
       </c>
     </row>
     <row r="5">
@@ -1823,13 +1823,13 @@
         <v>2006</v>
       </c>
       <c r="D5" s="4">
-        <v>60603.720000000001</v>
+        <v>92392.023000000001</v>
       </c>
       <c r="E5" s="4">
-        <v>886009.72600000002</v>
+        <v>1340006.101</v>
       </c>
       <c r="F5" s="4">
-        <v>0.068400738977892436</v>
+        <v>0.068948956971950387</v>
       </c>
     </row>
     <row r="6">
@@ -1843,13 +1843,13 @@
         <v>2007</v>
       </c>
       <c r="D6" s="4">
-        <v>63193.063000000002</v>
+        <v>93513.649000000005</v>
       </c>
       <c r="E6" s="4">
-        <v>913139.83400000003</v>
+        <v>1380125.9169999999</v>
       </c>
       <c r="F6" s="4">
-        <v>0.069204146667420488</v>
+        <v>0.06775733130443054</v>
       </c>
     </row>
     <row r="7">
@@ -1863,13 +1863,13 @@
         <v>2008</v>
       </c>
       <c r="D7" s="4">
-        <v>44426.874000000003</v>
+        <v>80141.017999999996</v>
       </c>
       <c r="E7" s="4">
-        <v>918573.45600000001</v>
+        <v>1408019.743</v>
       </c>
       <c r="F7" s="4">
-        <v>0.048365074899355681</v>
+        <v>0.056917538549031553</v>
       </c>
     </row>
     <row r="8">
@@ -1883,13 +1883,13 @@
         <v>2009</v>
       </c>
       <c r="D8" s="4">
-        <v>40885.264000000003</v>
+        <v>76156.633000000002</v>
       </c>
       <c r="E8" s="4">
-        <v>870319.09999999998</v>
+        <v>1315481.838</v>
       </c>
       <c r="F8" s="4">
-        <v>0.046977325902648817</v>
+        <v>0.057892576545021064</v>
       </c>
     </row>
     <row r="9">
@@ -1903,13 +1903,13 @@
         <v>2010</v>
       </c>
       <c r="D9" s="4">
-        <v>48725.457999999999</v>
+        <v>83749.990999999995</v>
       </c>
       <c r="E9" s="4">
-        <v>925371.83700000006</v>
+        <v>1393675.3570000001</v>
       </c>
       <c r="F9" s="4">
-        <v>0.052655004239122956</v>
+        <v>0.06009289794739478</v>
       </c>
     </row>
     <row r="10">
@@ -1923,13 +1923,13 @@
         <v>2011</v>
       </c>
       <c r="D10" s="4">
-        <v>47567.839</v>
+        <v>79037.001999999993</v>
       </c>
       <c r="E10" s="4">
-        <v>953148.05599999998</v>
+        <v>1433185.382</v>
       </c>
       <c r="F10" s="4">
-        <v>0.049906033695986472</v>
+        <v>0.055147786875766498</v>
       </c>
     </row>
     <row r="11">
@@ -1943,13 +1943,13 @@
         <v>2012</v>
       </c>
       <c r="D11" s="4">
-        <v>50499.088000000003</v>
+        <v>88189.125</v>
       </c>
       <c r="E11" s="4">
-        <v>995285.99899999995</v>
+        <v>1488616.797</v>
       </c>
       <c r="F11" s="4">
-        <v>0.050738268247255837</v>
+        <v>0.059242328299483775</v>
       </c>
     </row>
     <row r="12">
@@ -1963,13 +1963,13 @@
         <v>2013</v>
       </c>
       <c r="D12" s="4">
-        <v>61338.506000000001</v>
+        <v>98624.149999999994</v>
       </c>
       <c r="E12" s="4">
-        <v>1018578.607</v>
+        <v>1514072.5970000001</v>
       </c>
       <c r="F12" s="4">
-        <v>0.060219707716676993</v>
+        <v>0.065138323086630687</v>
       </c>
     </row>
     <row r="13">
@@ -1983,13 +1983,13 @@
         <v>2014</v>
       </c>
       <c r="D13" s="4">
-        <v>83522.951000000001</v>
+        <v>115922.04399999999</v>
       </c>
       <c r="E13" s="4">
-        <v>1067256.7620000001</v>
+        <v>1567647.173</v>
       </c>
       <c r="F13" s="4">
-        <v>0.078259472297445135</v>
+        <v>0.073946514239017477</v>
       </c>
     </row>
     <row r="14">
@@ -2003,13 +2003,13 @@
         <v>2015</v>
       </c>
       <c r="D14" s="4">
-        <v>87200.985000000001</v>
+        <v>123612.84299999999</v>
       </c>
       <c r="E14" s="4">
-        <v>1104884.8700000001</v>
+        <v>1626750.8130000001</v>
       </c>
       <c r="F14" s="4">
-        <v>0.07892314155772627</v>
+        <v>0.075987571060153511</v>
       </c>
     </row>
     <row r="15">
@@ -2023,13 +2023,13 @@
         <v>2016</v>
       </c>
       <c r="D15" s="4">
-        <v>83174.982000000004</v>
+        <v>121814.03200000001</v>
       </c>
       <c r="E15" s="4">
-        <v>1149129.548</v>
+        <v>1676418.736</v>
       </c>
       <c r="F15" s="4">
-        <v>0.072380857445326088</v>
+        <v>0.072663248974807457</v>
       </c>
     </row>
     <row r="16">
@@ -2043,13 +2043,13 @@
         <v>2017</v>
       </c>
       <c r="D16" s="4">
-        <v>84674.092999999993</v>
+        <v>121388.644</v>
       </c>
       <c r="E16" s="4">
-        <v>1176616.034</v>
+        <v>1708140.0179999999</v>
       </c>
       <c r="F16" s="4">
-        <v>0.0719640822096769</v>
+        <v>0.071064808927156706</v>
       </c>
     </row>
     <row r="17">
@@ -2063,13 +2063,13 @@
         <v>2018</v>
       </c>
       <c r="D17" s="4">
-        <v>83916.724000000002</v>
+        <v>120195.19100000001</v>
       </c>
       <c r="E17" s="4">
-        <v>1208076.0220000001</v>
+        <v>1754179.51</v>
       </c>
       <c r="F17" s="4">
-        <v>0.069463115293914829</v>
+        <v>0.068519322175870132</v>
       </c>
     </row>
     <row r="18">
@@ -2083,13 +2083,13 @@
         <v>2019</v>
       </c>
       <c r="D18" s="4">
-        <v>85321.217999999993</v>
+        <v>119512.613</v>
       </c>
       <c r="E18" s="4">
-        <v>1216735.696</v>
+        <v>1767625.0630000001</v>
       </c>
       <c r="F18" s="4">
-        <v>0.070123049961049219</v>
+        <v>0.067611970152292408</v>
       </c>
     </row>
     <row r="19">
@@ -2103,13 +2103,13 @@
         <v>2020</v>
       </c>
       <c r="D19" s="4">
-        <v>71537.091</v>
+        <v>91737.657000000007</v>
       </c>
       <c r="E19" s="4">
-        <v>1126205.8729999999</v>
+        <v>1611191.787</v>
       </c>
       <c r="F19" s="4">
-        <v>0.063520438593912404</v>
+        <v>0.056937763548815808</v>
       </c>
     </row>
     <row r="20">
@@ -2123,13 +2123,13 @@
         <v>2021</v>
       </c>
       <c r="D20" s="4">
-        <v>69187.195999999996</v>
+        <v>93739.403000000006</v>
       </c>
       <c r="E20" s="4">
-        <v>1186918.9639999999</v>
+        <v>1694872.7209999999</v>
       </c>
       <c r="F20" s="4">
-        <v>0.058291423507830988</v>
+        <v>0.055307635693547755</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14769" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14771" uniqueCount="370">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11/08/2023</t>
+    <t xml:space="preserve"> 11/27/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -1138,6 +1138,9 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
 </sst>
 </file>
 
@@ -107264,7 +107267,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -107482,7 +107485,7 @@
         <v>-37.687407999999998</v>
       </c>
       <c r="D13" s="4">
-        <v>4.2642379999999998</v>
+        <v>-37.687407999999998</v>
       </c>
       <c r="E13" t="s">
         <v>303</v>
@@ -107516,7 +107519,7 @@
         <v>-31.580760999999999</v>
       </c>
       <c r="D15" s="4">
-        <v>-1.3684959999999999</v>
+        <v>-1.2789820000000001</v>
       </c>
       <c r="E15" t="s">
         <v>305</v>
@@ -107533,7 +107536,7 @@
         <v>74.314552000000006</v>
       </c>
       <c r="D16" s="4">
-        <v>1.567213</v>
+        <v>1.7578320000000001</v>
       </c>
       <c r="E16" t="s">
         <v>306</v>
@@ -107550,7 +107553,7 @@
         <v>0.046981000000000002</v>
       </c>
       <c r="D17" s="4">
-        <v>0.44441999999999998</v>
+        <v>0.046981000000000002</v>
       </c>
       <c r="E17" t="s">
         <v>307</v>
@@ -107567,7 +107570,7 @@
         <v>-17.17268</v>
       </c>
       <c r="D18" s="4">
-        <v>-0.832646</v>
+        <v>-0.79069199999999995</v>
       </c>
       <c r="E18" t="s">
         <v>308</v>
@@ -107584,7 +107587,7 @@
         <v>-7.3836630000000003</v>
       </c>
       <c r="D19" s="4">
-        <v>-0.65736600000000001</v>
+        <v>-0.59828599999999998</v>
       </c>
       <c r="E19" t="s">
         <v>309</v>
@@ -107601,7 +107604,7 @@
         <v>-16.557054999999998</v>
       </c>
       <c r="D20" s="4">
-        <v>0.51447600000000004</v>
+        <v>0.55920300000000001</v>
       </c>
       <c r="E20" t="s">
         <v>310</v>
@@ -107618,7 +107621,7 @@
         <v>6.1397370000000002</v>
       </c>
       <c r="D21" s="4">
-        <v>18.313635999999999</v>
+        <v>18.355271999999999</v>
       </c>
       <c r="E21" t="s">
         <v>311</v>
@@ -107635,7 +107638,7 @@
         <v>-1.3328340000000001</v>
       </c>
       <c r="D22" s="4">
-        <v>36.597482999999997</v>
+        <v>36.633679000000001</v>
       </c>
       <c r="E22" t="s">
         <v>312</v>
@@ -107652,7 +107655,7 @@
         <v>-2.0898859999999999</v>
       </c>
       <c r="D23" s="4">
-        <v>-27.680925999999999</v>
+        <v>-27.66451</v>
       </c>
       <c r="E23" t="s">
         <v>313</v>
@@ -107669,7 +107672,7 @@
         <v>15.932116000000001</v>
       </c>
       <c r="D24" s="4">
-        <v>-3.5954220000000001</v>
+        <v>-3.5868229999999999</v>
       </c>
       <c r="E24" t="s">
         <v>314</v>
@@ -107686,7 +107689,7 @@
         <v>9.1724840000000007</v>
       </c>
       <c r="D25" s="4">
-        <v>9.1724840000000007</v>
+        <v>18.903880999999998</v>
       </c>
       <c r="E25" t="s">
         <v>315</v>
@@ -107703,7 +107706,7 @@
         <v>-0.60429699999999997</v>
       </c>
       <c r="D26" s="4">
-        <v>1.7974810000000001</v>
+        <v>1.8055730000000001</v>
       </c>
       <c r="E26" t="s">
         <v>316</v>
@@ -107720,7 +107723,7 @@
         <v>-6.6051146899999997</v>
       </c>
       <c r="D27" s="4">
-        <v>-3.98184169</v>
+        <v>-3.9541306899999999</v>
       </c>
       <c r="E27" t="s">
         <v>317</v>
@@ -107737,7 +107740,7 @@
         <v>16.543692</v>
       </c>
       <c r="D28" s="4">
-        <v>58.543629000000003</v>
+        <v>58.558799999999998</v>
       </c>
       <c r="E28" t="s">
         <v>318</v>
@@ -107754,7 +107757,7 @@
         <v>43.369087499999999</v>
       </c>
       <c r="D29" s="4">
-        <v>0.31973905000000002</v>
+        <v>0.33422505000000002</v>
       </c>
       <c r="E29" t="s">
         <v>319</v>
@@ -107771,7 +107774,7 @@
         <v>-4.4235480000000003</v>
       </c>
       <c r="D30" s="4">
-        <v>1.2999750000000001</v>
+        <v>1.340414</v>
       </c>
       <c r="E30" t="s">
         <v>320</v>
@@ -107788,7 +107791,7 @@
         <v>-6.1650869999999998</v>
       </c>
       <c r="D31" s="4">
-        <v>0.93220800000000004</v>
+        <v>0.94742499999999996</v>
       </c>
       <c r="E31" t="s">
         <v>321</v>
@@ -107805,7 +107808,7 @@
         <v>4.0216200000000004</v>
       </c>
       <c r="D32" s="4">
-        <v>0.76525600000000005</v>
+        <v>0.79014700000000004</v>
       </c>
       <c r="E32" t="s">
         <v>322</v>
@@ -107839,7 +107842,7 @@
         <v>-0.19820199999999999</v>
       </c>
       <c r="D34" s="4">
-        <v>-0.92372900000000002</v>
+        <v>-0.92016699999999996</v>
       </c>
       <c r="E34" t="s">
         <v>324</v>
@@ -107856,7 +107859,7 @@
         <v>7.9476250000000004</v>
       </c>
       <c r="D35" s="4">
-        <v>3.6847889999999999</v>
+        <v>3.6993239999999998</v>
       </c>
       <c r="E35" t="s">
         <v>325</v>
@@ -107873,7 +107876,7 @@
         <v>2.672393</v>
       </c>
       <c r="D36" s="4">
-        <v>-1.0364120000000001</v>
+        <v>-1.0297179999999999</v>
       </c>
       <c r="E36" t="s">
         <v>326</v>
@@ -107907,7 +107910,7 @@
         <v>2.1764830000000002</v>
       </c>
       <c r="D38" s="4">
-        <v>1.3171250000000001</v>
+        <v>1.326473</v>
       </c>
       <c r="E38" t="s">
         <v>328</v>
@@ -107941,7 +107944,7 @@
         <v>11.81500035</v>
       </c>
       <c r="D40" s="4">
-        <v>0.48348734999999998</v>
+        <v>2.7115893500000001</v>
       </c>
       <c r="E40" t="s">
         <v>330</v>
@@ -108553,7 +108556,7 @@
         <v>-0.99367267291796402</v>
       </c>
       <c r="D76" s="4">
-        <v>0.074003321910204103</v>
+        <v>0.074003321910203895</v>
       </c>
       <c r="E76" t="s">
         <v>366</v>
@@ -108587,10 +108590,27 @@
         <v>0.91263386382401701</v>
       </c>
       <c r="D78" s="4">
-        <v>0.91263386382401701</v>
+        <v>0.91321038039392199</v>
       </c>
       <c r="E78" t="s">
         <v>368</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79" s="5">
+        <v>45108</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
+++ b/sej_datos/BD_INDUSTRIA_ELECTRONICA.xlsx
@@ -41,7 +41,7 @@
     <t>Industria electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12/07/2023</t>
+    <t xml:space="preserve"> 12/08/2023</t>
   </si>
   <si>
     <t>Sección</t>
